--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_7_0.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_7_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2960092.604177783</v>
+        <v>-2960792.014284973</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1868545.583905889</v>
+        <v>1868545.583905886</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736553</v>
+        <v>504792.0292736548</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>94.21910266041101</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>94.21910266041101</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>10.00967878293136</v>
+        <v>94.21910266041205</v>
       </c>
       <c r="G2" t="n">
         <v>11.94294668035388</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>94.21910266041205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>71.04523894293708</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -719,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>65.52275918131056</v>
+        <v>94.21910266041205</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>94.21910266041101</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>23.80175940728629</v>
+        <v>94.21910266041205</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>94.21910266041205</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>82.98818562329096</v>
       </c>
       <c r="V3" t="n">
-        <v>94.21910266041101</v>
+        <v>94.21910266041205</v>
       </c>
       <c r="W3" t="n">
-        <v>94.21910266041101</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>94.21910266041101</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>94.21910266041101</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>44.83621769044309</v>
       </c>
       <c r="V4" t="n">
-        <v>82.98818562328998</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>94.21910266041101</v>
+        <v>94.21910266041205</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>94.21910266041205</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>94.21910266041205</v>
       </c>
     </row>
     <row r="5">
@@ -896,10 +896,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>94.21910266041159</v>
       </c>
       <c r="D5" t="n">
-        <v>94.21910266041101</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>61.03556016000471</v>
+        <v>61.03556016000527</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>94.21910266041159</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>94.21910266041159</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>94.21910266041101</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>94.21910266041101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>94.21910266041101</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>23.80175940728686</v>
       </c>
       <c r="U6" t="n">
-        <v>94.21910266041101</v>
+        <v>94.21910266041159</v>
       </c>
       <c r="V6" t="n">
-        <v>94.21910266041101</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>94.21910266041159</v>
       </c>
       <c r="Y6" t="n">
-        <v>82.98818562328998</v>
+        <v>94.21910266041159</v>
       </c>
     </row>
     <row r="7">
@@ -1099,25 +1099,25 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
-        <v>94.21910266041101</v>
+        <v>94.21910266041159</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>44.83621769044269</v>
       </c>
       <c r="T7" t="n">
-        <v>44.8362176904421</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>94.21910266041101</v>
+        <v>94.21910266041159</v>
       </c>
       <c r="V7" t="n">
-        <v>94.21910266041101</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>94.21910266041159</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>319.8762849093192</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>259.7944062848441</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1148,7 +1148,7 @@
         <v>11.94294668035388</v>
       </c>
       <c r="H8" t="n">
-        <v>319.8762849093192</v>
+        <v>319.8762849093202</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>319.8762849093202</v>
       </c>
       <c r="W8" t="n">
-        <v>319.8762849093192</v>
+        <v>319.8762849093202</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>170.0625026457379</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>137.45025063969</v>
@@ -1221,16 +1221,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,19 +1260,19 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>110.2862743779533</v>
+        <v>40.03595551961934</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V9" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X9" t="n">
         <v>195.9378182409833</v>
@@ -1333,28 +1333,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
-        <v>12.59665167322035</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>82.43216989169805</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>301.5058001214171</v>
+        <v>301.505800121417</v>
       </c>
       <c r="C11" t="n">
-        <v>289.5171170790989</v>
+        <v>289.5171170790987</v>
       </c>
       <c r="D11" t="n">
-        <v>63.38044932807861</v>
+        <v>81.59348565676137</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>322.963691605646</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>236.9841012279518</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>67.76655404901209</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>88.05567153202333</v>
+        <v>88.05567153202327</v>
       </c>
       <c r="T11" t="n">
-        <v>131.8460619815677</v>
+        <v>131.8460619815676</v>
       </c>
       <c r="U11" t="n">
-        <v>163.7086228358619</v>
+        <v>163.708622835861</v>
       </c>
       <c r="V11" t="n">
-        <v>245.0121773615962</v>
+        <v>245.0121773615961</v>
       </c>
       <c r="W11" t="n">
-        <v>270.3122768395531</v>
+        <v>270.312276839553</v>
       </c>
       <c r="X11" t="n">
-        <v>289.6125350722997</v>
+        <v>289.6125350722996</v>
       </c>
       <c r="Y11" t="n">
-        <v>301.0091328684985</v>
+        <v>301.0091328684984</v>
       </c>
     </row>
     <row r="12">
@@ -1461,13 +1461,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G12" t="n">
-        <v>127.2368531361802</v>
+        <v>127.2368531361804</v>
       </c>
       <c r="H12" t="n">
-        <v>96.96477373240387</v>
+        <v>96.9647737324037</v>
       </c>
       <c r="I12" t="n">
-        <v>60.66232013214973</v>
+        <v>60.66232013214974</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>20.01031786622764</v>
+        <v>93.12251099611409</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>54.36107042280389</v>
       </c>
       <c r="G13" t="n">
-        <v>78.46191704206583</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>49.01134651062358</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.72563515054814</v>
+        <v>51.72563515054807</v>
       </c>
       <c r="S13" t="n">
-        <v>119.9895445490431</v>
+        <v>119.989544549043</v>
       </c>
       <c r="T13" t="n">
-        <v>141.5178128501455</v>
+        <v>141.5178128501454</v>
       </c>
       <c r="U13" t="n">
         <v>195.7116878360594</v>
@@ -1588,13 +1588,13 @@
         <v>169.5306473957397</v>
       </c>
       <c r="W13" t="n">
-        <v>194.697533466353</v>
+        <v>194.6975334663529</v>
       </c>
       <c r="X13" t="n">
         <v>140.3426354621561</v>
       </c>
       <c r="Y13" t="n">
-        <v>131.2175032182238</v>
+        <v>131.2175032182237</v>
       </c>
     </row>
     <row r="14">
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>301.5058001214171</v>
+        <v>301.505800121417</v>
       </c>
       <c r="C14" t="n">
-        <v>289.5171170790989</v>
+        <v>289.5171170790987</v>
       </c>
       <c r="D14" t="n">
-        <v>280.4984211236268</v>
+        <v>81.59348565676262</v>
       </c>
       <c r="E14" t="n">
-        <v>38.07916576108633</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1622,10 +1622,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>236.9841012279518</v>
       </c>
       <c r="I14" t="n">
-        <v>67.76655404901214</v>
+        <v>67.76655404901209</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>88.05567153202333</v>
+        <v>88.05567153202327</v>
       </c>
       <c r="T14" t="n">
-        <v>131.8460619815677</v>
+        <v>131.8460619815676</v>
       </c>
       <c r="U14" t="n">
-        <v>163.7086228358614</v>
+        <v>163.7086228358611</v>
       </c>
       <c r="V14" t="n">
-        <v>245.0121773615962</v>
+        <v>245.0121773615961</v>
       </c>
       <c r="W14" t="n">
-        <v>270.3122768395531</v>
+        <v>270.312276839553</v>
       </c>
       <c r="X14" t="n">
-        <v>289.6125350722997</v>
+        <v>289.6125350722996</v>
       </c>
       <c r="Y14" t="n">
-        <v>301.0091328684985</v>
+        <v>301.0091328684984</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>127.2368531361802</v>
       </c>
       <c r="H15" t="n">
-        <v>96.9647737324037</v>
+        <v>96.9647737324043</v>
       </c>
       <c r="I15" t="n">
-        <v>60.66232013215034</v>
+        <v>60.66232013214974</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.12251099611416</v>
+        <v>84.53971117982471</v>
       </c>
       <c r="C16" t="n">
-        <v>54.36107042280201</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>62.94387023909296</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.72563515054814</v>
+        <v>51.72563515054785</v>
       </c>
       <c r="S16" t="n">
-        <v>119.9895445490431</v>
+        <v>119.989544549043</v>
       </c>
       <c r="T16" t="n">
-        <v>141.5178128501455</v>
+        <v>141.5178128501454</v>
       </c>
       <c r="U16" t="n">
-        <v>195.7116878360598</v>
+        <v>195.7116878360597</v>
       </c>
       <c r="V16" t="n">
         <v>169.5306473957397</v>
       </c>
       <c r="W16" t="n">
-        <v>194.697533466353</v>
+        <v>194.6975334663529</v>
       </c>
       <c r="X16" t="n">
         <v>140.3426354621561</v>
       </c>
       <c r="Y16" t="n">
-        <v>131.2175032182238</v>
+        <v>131.2175032182237</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>224.5232996572355</v>
+        <v>224.5232996572356</v>
       </c>
       <c r="C17" t="n">
-        <v>212.5346166149172</v>
+        <v>212.5346166149173</v>
       </c>
       <c r="D17" t="n">
-        <v>203.5159206594452</v>
+        <v>203.5159206594453</v>
       </c>
       <c r="E17" t="n">
-        <v>225.2580582293507</v>
+        <v>225.2580582293508</v>
       </c>
       <c r="F17" t="n">
-        <v>244.4298743173287</v>
+        <v>244.429874317328</v>
       </c>
       <c r="G17" t="n">
-        <v>245.9811911414644</v>
+        <v>245.9811911414645</v>
       </c>
       <c r="H17" t="n">
-        <v>160.0016007637703</v>
+        <v>160.0016007637704</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>11.07317106784172</v>
+        <v>11.07317106784154</v>
       </c>
       <c r="T17" t="n">
-        <v>54.86356151738666</v>
+        <v>54.86356151738617</v>
       </c>
       <c r="U17" t="n">
-        <v>86.72612237167908</v>
+        <v>86.72612237167954</v>
       </c>
       <c r="V17" t="n">
-        <v>168.0296768974146</v>
+        <v>168.0296768974147</v>
       </c>
       <c r="W17" t="n">
-        <v>193.3297763753715</v>
+        <v>193.3297763753716</v>
       </c>
       <c r="X17" t="n">
-        <v>212.6300346081181</v>
+        <v>212.6300346081182</v>
       </c>
       <c r="Y17" t="n">
-        <v>224.0266324043169</v>
+        <v>224.026632404317</v>
       </c>
     </row>
     <row r="18">
@@ -1935,13 +1935,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
-        <v>127.2368531361808</v>
+        <v>127.2368531361802</v>
       </c>
       <c r="H18" t="n">
         <v>96.9647737324037</v>
       </c>
       <c r="I18" t="n">
-        <v>60.66232013214973</v>
+        <v>60.66232013215034</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>16.14001053193255</v>
+        <v>16.14001053193266</v>
       </c>
       <c r="C19" t="n">
-        <v>2.340005377333028</v>
+        <v>2.340005377333142</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.479416577884229</v>
+        <v>1.479416577884343</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>43.00704408486146</v>
+        <v>43.00704408486158</v>
       </c>
       <c r="T19" t="n">
-        <v>157.7220288297591</v>
+        <v>64.53531238596396</v>
       </c>
       <c r="U19" t="n">
-        <v>118.7291873718781</v>
+        <v>118.7291873718783</v>
       </c>
       <c r="V19" t="n">
-        <v>92.54814693155814</v>
+        <v>185.7348633753524</v>
       </c>
       <c r="W19" t="n">
-        <v>117.7150330021714</v>
+        <v>117.7150330021715</v>
       </c>
       <c r="X19" t="n">
-        <v>63.36013499797451</v>
+        <v>63.36013499797463</v>
       </c>
       <c r="Y19" t="n">
-        <v>54.2350027540422</v>
+        <v>54.23500275404231</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>224.5232996572355</v>
+        <v>224.5232996572356</v>
       </c>
       <c r="C20" t="n">
-        <v>212.5346166149172</v>
+        <v>212.5346166149173</v>
       </c>
       <c r="D20" t="n">
-        <v>203.5159206594452</v>
+        <v>203.5159206594453</v>
       </c>
       <c r="E20" t="n">
-        <v>225.2580582293507</v>
+        <v>225.2580582293508</v>
       </c>
       <c r="F20" t="n">
-        <v>244.4298743173279</v>
+        <v>244.429874317328</v>
       </c>
       <c r="G20" t="n">
-        <v>245.9811911414644</v>
+        <v>245.9811911414645</v>
       </c>
       <c r="H20" t="n">
-        <v>160.0016007637703</v>
+        <v>160.0016007637704</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>11.07317106784172</v>
+        <v>11.07317106784154</v>
       </c>
       <c r="T20" t="n">
-        <v>54.86356151738621</v>
+        <v>54.86356151738617</v>
       </c>
       <c r="U20" t="n">
-        <v>86.72612237168043</v>
+        <v>86.72612237167999</v>
       </c>
       <c r="V20" t="n">
-        <v>168.0296768974146</v>
+        <v>168.0296768974147</v>
       </c>
       <c r="W20" t="n">
-        <v>193.3297763753715</v>
+        <v>193.3297763753716</v>
       </c>
       <c r="X20" t="n">
-        <v>212.6300346081181</v>
+        <v>212.6300346081182</v>
       </c>
       <c r="Y20" t="n">
-        <v>224.0266324043169</v>
+        <v>224.0266324043161</v>
       </c>
     </row>
     <row r="21">
@@ -2163,7 +2163,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D21" t="n">
-        <v>137.4502506396906</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E21" t="n">
         <v>145.5577298436975</v>
@@ -2178,7 +2178,7 @@
         <v>96.9647737324037</v>
       </c>
       <c r="I21" t="n">
-        <v>60.66232013214973</v>
+        <v>60.66232013215034</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>16.14001053193255</v>
+        <v>16.14001053193266</v>
       </c>
       <c r="C22" t="n">
-        <v>2.340005377333028</v>
+        <v>2.340005377333142</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.479416577884229</v>
+        <v>1.479416577884343</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2281,31 +2281,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>23.80540818138466</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>112.388352347272</v>
+        <v>43.00704408486158</v>
       </c>
       <c r="T22" t="n">
-        <v>64.53531238596385</v>
+        <v>64.53531238596396</v>
       </c>
       <c r="U22" t="n">
-        <v>118.7291873718781</v>
+        <v>118.7291873718783</v>
       </c>
       <c r="V22" t="n">
-        <v>92.54814693155814</v>
+        <v>92.54814693155825</v>
       </c>
       <c r="W22" t="n">
-        <v>117.7150330021714</v>
+        <v>117.7150330021715</v>
       </c>
       <c r="X22" t="n">
-        <v>63.36013499797451</v>
+        <v>156.5468514417688</v>
       </c>
       <c r="Y22" t="n">
-        <v>54.2350027540422</v>
+        <v>54.23500275404231</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>224.5232996572355</v>
+        <v>224.5232996572356</v>
       </c>
       <c r="C23" t="n">
-        <v>212.5346166149172</v>
+        <v>212.5346166149173</v>
       </c>
       <c r="D23" t="n">
-        <v>203.5159206594452</v>
+        <v>203.5159206594453</v>
       </c>
       <c r="E23" t="n">
-        <v>225.2580582293507</v>
+        <v>225.2580582293508</v>
       </c>
       <c r="F23" t="n">
-        <v>244.4298743173279</v>
+        <v>244.429874317328</v>
       </c>
       <c r="G23" t="n">
-        <v>245.9811911414644</v>
+        <v>245.9811911414645</v>
       </c>
       <c r="H23" t="n">
-        <v>160.0016007637703</v>
+        <v>160.0016007637704</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>11.07317106784171</v>
+        <v>11.07317106784183</v>
       </c>
       <c r="T23" t="n">
-        <v>54.86356151738607</v>
+        <v>54.86356151738617</v>
       </c>
       <c r="U23" t="n">
-        <v>86.72612237168043</v>
+        <v>86.72612237167965</v>
       </c>
       <c r="V23" t="n">
-        <v>168.0296768974146</v>
+        <v>168.0296768974147</v>
       </c>
       <c r="W23" t="n">
-        <v>193.3297763753715</v>
+        <v>193.3297763753716</v>
       </c>
       <c r="X23" t="n">
-        <v>212.6300346081181</v>
+        <v>212.6300346081182</v>
       </c>
       <c r="Y23" t="n">
-        <v>224.0266324043169</v>
+        <v>224.026632404317</v>
       </c>
     </row>
     <row r="24">
@@ -2409,13 +2409,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
-        <v>127.2368531361808</v>
+        <v>127.2368531361802</v>
       </c>
       <c r="H24" t="n">
-        <v>96.9647737324037</v>
+        <v>96.9647737324043</v>
       </c>
       <c r="I24" t="n">
-        <v>60.66232013214973</v>
+        <v>60.66232013214974</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>16.14001053193255</v>
+        <v>16.14001053193266</v>
       </c>
       <c r="C25" t="n">
-        <v>2.340005377333028</v>
+        <v>2.340005377333142</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.479416577884229</v>
+        <v>1.479416577884343</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>93.18671644379411</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>43.00704408486146</v>
+        <v>43.00704408486158</v>
       </c>
       <c r="T25" t="n">
-        <v>64.53531238596385</v>
+        <v>64.53531238596396</v>
       </c>
       <c r="U25" t="n">
-        <v>211.9159038156734</v>
+        <v>118.7291873718783</v>
       </c>
       <c r="V25" t="n">
-        <v>92.54814693155814</v>
+        <v>92.54814693155825</v>
       </c>
       <c r="W25" t="n">
-        <v>117.7150330021714</v>
+        <v>117.7150330021715</v>
       </c>
       <c r="X25" t="n">
-        <v>63.36013499797451</v>
+        <v>63.36013499797463</v>
       </c>
       <c r="Y25" t="n">
-        <v>54.2350027540422</v>
+        <v>54.23500275404231</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>283.5197222763511</v>
+        <v>283.519722276351</v>
       </c>
       <c r="C26" t="n">
         <v>271.5310392340328</v>
@@ -2567,13 +2567,13 @@
         <v>303.4262969364435</v>
       </c>
       <c r="G26" t="n">
-        <v>304.9776137605801</v>
+        <v>304.97761376058</v>
       </c>
       <c r="H26" t="n">
-        <v>218.9980233828859</v>
+        <v>218.9980233828858</v>
       </c>
       <c r="I26" t="n">
-        <v>49.78047620394614</v>
+        <v>49.78047620394612</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.06959368695732</v>
+        <v>70.06959368695729</v>
       </c>
       <c r="T26" t="n">
-        <v>113.8599841365017</v>
+        <v>113.8599841365015</v>
       </c>
       <c r="U26" t="n">
-        <v>145.7225449907944</v>
+        <v>145.7225449907967</v>
       </c>
       <c r="V26" t="n">
         <v>227.0260995165302</v>
@@ -2652,7 +2652,7 @@
         <v>96.9647737324037</v>
       </c>
       <c r="I27" t="n">
-        <v>60.66232013214973</v>
+        <v>60.66232013214974</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>75.13643315104815</v>
+        <v>75.13643315104812</v>
       </c>
       <c r="C28" t="n">
-        <v>61.33642799644863</v>
+        <v>61.33642799644861</v>
       </c>
       <c r="D28" t="n">
-        <v>44.95779239402702</v>
+        <v>44.957792394027</v>
       </c>
       <c r="E28" t="n">
-        <v>43.90554224980647</v>
+        <v>43.90554224980644</v>
       </c>
       <c r="F28" t="n">
-        <v>44.37246657799278</v>
+        <v>44.37246657799275</v>
       </c>
       <c r="G28" t="n">
-        <v>60.47583919699984</v>
+        <v>60.47583919699981</v>
       </c>
       <c r="H28" t="n">
-        <v>49.67225655758298</v>
+        <v>49.67225655758295</v>
       </c>
       <c r="I28" t="n">
-        <v>31.02526866555757</v>
+        <v>31.02526866555754</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>33.73955730548213</v>
+        <v>33.73955730548211</v>
       </c>
       <c r="S28" t="n">
-        <v>102.0034667039771</v>
+        <v>102.003466703977</v>
       </c>
       <c r="T28" t="n">
-        <v>123.5317350050795</v>
+        <v>123.5317350050794</v>
       </c>
       <c r="U28" t="n">
         <v>177.7256099909937</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.06959368695686</v>
+        <v>70.06959368695729</v>
       </c>
       <c r="T29" t="n">
         <v>113.8599841365016</v>
       </c>
       <c r="U29" t="n">
-        <v>145.7225449907962</v>
+        <v>145.7225449907967</v>
       </c>
       <c r="V29" t="n">
         <v>227.0260995165302</v>
@@ -2889,7 +2889,7 @@
         <v>96.9647737324037</v>
       </c>
       <c r="I30" t="n">
-        <v>60.66232013214973</v>
+        <v>60.66232013214974</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>33.7395573054821</v>
+        <v>33.73955730548211</v>
       </c>
       <c r="S31" t="n">
         <v>102.003466703977</v>
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>224.5232996572355</v>
+        <v>224.5232996572356</v>
       </c>
       <c r="C32" t="n">
         <v>212.5346166149173</v>
       </c>
       <c r="D32" t="n">
-        <v>203.5159206594452</v>
+        <v>203.5159206594453</v>
       </c>
       <c r="E32" t="n">
         <v>225.2580582293508</v>
       </c>
       <c r="F32" t="n">
-        <v>244.4298743173279</v>
+        <v>244.429874317328</v>
       </c>
       <c r="G32" t="n">
         <v>245.9811911414645</v>
       </c>
       <c r="H32" t="n">
-        <v>160.0016007637703</v>
+        <v>160.0016007637704</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,16 +3077,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>11.07317106784177</v>
+        <v>11.07317106784183</v>
       </c>
       <c r="T32" t="n">
-        <v>54.86356151738576</v>
+        <v>54.86356151738617</v>
       </c>
       <c r="U32" t="n">
-        <v>86.72612237168043</v>
+        <v>86.72612237167954</v>
       </c>
       <c r="V32" t="n">
-        <v>168.0296768974146</v>
+        <v>168.0296768974147</v>
       </c>
       <c r="W32" t="n">
         <v>193.3297763753716</v>
@@ -3095,7 +3095,7 @@
         <v>212.6300346081182</v>
       </c>
       <c r="Y32" t="n">
-        <v>224.0266324043169</v>
+        <v>224.026632404317</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>96.9647737324037</v>
       </c>
       <c r="I33" t="n">
-        <v>60.66232013214973</v>
+        <v>60.66232013214974</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.1400105319326</v>
+        <v>16.14001053193266</v>
       </c>
       <c r="C34" t="n">
-        <v>2.340005377333085</v>
+        <v>2.340005377333142</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.479416577884286</v>
+        <v>1.479416577884343</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>43.00704408486152</v>
+        <v>43.00704408486158</v>
       </c>
       <c r="T34" t="n">
-        <v>64.53531238596391</v>
+        <v>64.53531238596396</v>
       </c>
       <c r="U34" t="n">
-        <v>118.7291873718782</v>
+        <v>211.9159038156724</v>
       </c>
       <c r="V34" t="n">
-        <v>92.54814693155819</v>
+        <v>92.54814693155825</v>
       </c>
       <c r="W34" t="n">
         <v>117.7150330021715</v>
       </c>
       <c r="X34" t="n">
-        <v>156.5468514417693</v>
+        <v>63.36013499797463</v>
       </c>
       <c r="Y34" t="n">
-        <v>54.23500275404226</v>
+        <v>54.23500275404231</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>224.5232996572355</v>
+        <v>224.5232996572356</v>
       </c>
       <c r="C35" t="n">
         <v>212.5346166149173</v>
       </c>
       <c r="D35" t="n">
-        <v>203.5159206594452</v>
+        <v>203.5159206594453</v>
       </c>
       <c r="E35" t="n">
         <v>225.2580582293508</v>
       </c>
       <c r="F35" t="n">
-        <v>244.4298743173279</v>
+        <v>244.429874317328</v>
       </c>
       <c r="G35" t="n">
         <v>245.9811911414645</v>
       </c>
       <c r="H35" t="n">
-        <v>160.0016007637703</v>
+        <v>160.0016007637704</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,16 +3314,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.07317106784177</v>
+        <v>11.07317106784183</v>
       </c>
       <c r="T35" t="n">
-        <v>54.86356151738613</v>
+        <v>54.86356151738617</v>
       </c>
       <c r="U35" t="n">
         <v>86.72612237167954</v>
       </c>
       <c r="V35" t="n">
-        <v>168.0296768974146</v>
+        <v>168.0296768974147</v>
       </c>
       <c r="W35" t="n">
         <v>193.3297763753716</v>
@@ -3332,7 +3332,7 @@
         <v>212.6300346081182</v>
       </c>
       <c r="Y35" t="n">
-        <v>224.0266324043169</v>
+        <v>224.026632404317</v>
       </c>
     </row>
     <row r="36">
@@ -3351,7 +3351,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E36" t="n">
-        <v>145.5577298436975</v>
+        <v>145.5577298436981</v>
       </c>
       <c r="F36" t="n">
         <v>133.3468600696244</v>
@@ -3363,7 +3363,7 @@
         <v>96.9647737324037</v>
       </c>
       <c r="I36" t="n">
-        <v>60.66232013214973</v>
+        <v>60.66232013214974</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,13 +3421,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.1400105319326</v>
+        <v>16.14001053193266</v>
       </c>
       <c r="C37" t="n">
-        <v>2.340005377333085</v>
+        <v>2.340005377333142</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>93.18671644379411</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.479416577884286</v>
+        <v>1.479416577884343</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3466,31 +3466,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>23.80540818138466</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>43.00704408486152</v>
+        <v>43.00704408486158</v>
       </c>
       <c r="T37" t="n">
-        <v>133.9166206483741</v>
+        <v>64.53531238596396</v>
       </c>
       <c r="U37" t="n">
-        <v>118.7291873718782</v>
+        <v>118.7291873718783</v>
       </c>
       <c r="V37" t="n">
-        <v>92.54814693155819</v>
+        <v>92.54814693155825</v>
       </c>
       <c r="W37" t="n">
         <v>117.7150330021715</v>
       </c>
       <c r="X37" t="n">
-        <v>63.36013499797457</v>
+        <v>63.36013499797463</v>
       </c>
       <c r="Y37" t="n">
-        <v>54.23500275404226</v>
+        <v>54.23500275404231</v>
       </c>
     </row>
     <row r="38">
@@ -3500,19 +3500,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>224.5232996572355</v>
+        <v>224.5232996572356</v>
       </c>
       <c r="C38" t="n">
-        <v>212.5346166149172</v>
+        <v>212.5346166149173</v>
       </c>
       <c r="D38" t="n">
-        <v>203.5159206594452</v>
+        <v>203.5159206594453</v>
       </c>
       <c r="E38" t="n">
         <v>225.2580582293508</v>
       </c>
       <c r="F38" t="n">
-        <v>244.4298743173279</v>
+        <v>244.429874317328</v>
       </c>
       <c r="G38" t="n">
         <v>245.9811911414645</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.07317106784174</v>
+        <v>11.0731710678418</v>
       </c>
       <c r="T38" t="n">
         <v>54.86356151738621</v>
       </c>
       <c r="U38" t="n">
-        <v>86.72612237168089</v>
+        <v>86.72612237167954</v>
       </c>
       <c r="V38" t="n">
-        <v>168.0296768974146</v>
+        <v>168.0296768974147</v>
       </c>
       <c r="W38" t="n">
-        <v>193.3297763753715</v>
+        <v>193.3297763753716</v>
       </c>
       <c r="X38" t="n">
-        <v>212.6300346081181</v>
+        <v>212.6300346081182</v>
       </c>
       <c r="Y38" t="n">
-        <v>224.0266324043169</v>
+        <v>224.026632404317</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>96.9647737324037</v>
       </c>
       <c r="I39" t="n">
-        <v>60.66232013215034</v>
+        <v>60.66232013214974</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,13 +3658,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.14001053193257</v>
+        <v>16.14001053193263</v>
       </c>
       <c r="C40" t="n">
-        <v>2.340005377333057</v>
+        <v>2.340005377333114</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>93.18671644379431</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.479416577884258</v>
+        <v>1.479416577884314</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>43.00704408486149</v>
+        <v>43.00704408486155</v>
       </c>
       <c r="T40" t="n">
-        <v>64.53531238596388</v>
+        <v>64.53531238596393</v>
       </c>
       <c r="U40" t="n">
         <v>118.7291873718782</v>
       </c>
       <c r="V40" t="n">
-        <v>92.54814693155816</v>
+        <v>92.54814693155822</v>
       </c>
       <c r="W40" t="n">
-        <v>117.7150330021714</v>
+        <v>117.7150330021715</v>
       </c>
       <c r="X40" t="n">
-        <v>156.5468514417696</v>
+        <v>63.3601349979746</v>
       </c>
       <c r="Y40" t="n">
-        <v>54.23500275404223</v>
+        <v>54.23500275404228</v>
       </c>
     </row>
     <row r="41">
@@ -3837,7 +3837,7 @@
         <v>96.9647737324037</v>
       </c>
       <c r="I42" t="n">
-        <v>60.66232013214973</v>
+        <v>60.66232013214974</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>64.53531238596385</v>
       </c>
       <c r="U43" t="n">
-        <v>211.9159038156734</v>
+        <v>118.7291873718781</v>
       </c>
       <c r="V43" t="n">
         <v>92.54814693155814</v>
@@ -3964,7 +3964,7 @@
         <v>63.36013499797451</v>
       </c>
       <c r="Y43" t="n">
-        <v>54.2350027540422</v>
+        <v>147.4217191978375</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>224.5232996572355</v>
       </c>
       <c r="C44" t="n">
-        <v>212.5346166149172</v>
+        <v>212.5346166149173</v>
       </c>
       <c r="D44" t="n">
         <v>203.5159206594452</v>
@@ -3989,7 +3989,7 @@
         <v>244.4298743173279</v>
       </c>
       <c r="G44" t="n">
-        <v>245.9811911414644</v>
+        <v>245.9811911414645</v>
       </c>
       <c r="H44" t="n">
         <v>160.0016007637703</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.07317106784175</v>
+        <v>11.07317106784177</v>
       </c>
       <c r="T44" t="n">
-        <v>54.86356151738666</v>
+        <v>54.86356151738613</v>
       </c>
       <c r="U44" t="n">
         <v>86.72612237167999</v>
@@ -4037,10 +4037,10 @@
         <v>168.0296768974146</v>
       </c>
       <c r="W44" t="n">
-        <v>193.3297763753715</v>
+        <v>193.3297763753716</v>
       </c>
       <c r="X44" t="n">
-        <v>212.6300346081181</v>
+        <v>212.6300346081182</v>
       </c>
       <c r="Y44" t="n">
         <v>224.0266324043169</v>
@@ -4074,7 +4074,7 @@
         <v>96.9647737324037</v>
       </c>
       <c r="I45" t="n">
-        <v>60.66232013214973</v>
+        <v>60.66232013214974</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.14001053193257</v>
+        <v>16.1400105319326</v>
       </c>
       <c r="C46" t="n">
-        <v>2.340005377333057</v>
+        <v>2.340005377333085</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.479416577884258</v>
+        <v>1.479416577884286</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>43.00704408486149</v>
+        <v>43.00704408486152</v>
       </c>
       <c r="T46" t="n">
-        <v>64.53531238596388</v>
+        <v>64.53531238596391</v>
       </c>
       <c r="U46" t="n">
         <v>118.7291873718782</v>
       </c>
       <c r="V46" t="n">
-        <v>92.54814693155816</v>
+        <v>92.54814693155819</v>
       </c>
       <c r="W46" t="n">
-        <v>117.7150330021714</v>
+        <v>117.7150330021715</v>
       </c>
       <c r="X46" t="n">
-        <v>63.36013499797454</v>
+        <v>156.5468514417694</v>
       </c>
       <c r="Y46" t="n">
-        <v>147.4217191978373</v>
+        <v>54.23500275404226</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>124.8827081357584</v>
+        <v>281.7055998735552</v>
       </c>
       <c r="C2" t="n">
-        <v>124.8827081357584</v>
+        <v>281.7055998735552</v>
       </c>
       <c r="D2" t="n">
-        <v>29.71189736766646</v>
+        <v>281.7055998735552</v>
       </c>
       <c r="E2" t="n">
-        <v>29.71189736766646</v>
+        <v>281.7055998735552</v>
       </c>
       <c r="F2" t="n">
-        <v>19.60111071824085</v>
+        <v>186.5347891054623</v>
       </c>
       <c r="G2" t="n">
-        <v>7.537528212832881</v>
+        <v>174.4712066000543</v>
       </c>
       <c r="H2" t="n">
-        <v>7.537528212832881</v>
+        <v>79.30039583196132</v>
       </c>
       <c r="I2" t="n">
-        <v>7.537528212832881</v>
+        <v>7.537528212832964</v>
       </c>
       <c r="J2" t="n">
-        <v>7.537528212832881</v>
+        <v>7.537528212832964</v>
       </c>
       <c r="K2" t="n">
-        <v>7.537528212832881</v>
+        <v>7.537528212832964</v>
       </c>
       <c r="L2" t="n">
-        <v>7.537528212832881</v>
+        <v>7.537528212832964</v>
       </c>
       <c r="M2" t="n">
-        <v>7.537528212832881</v>
+        <v>7.537528212832964</v>
       </c>
       <c r="N2" t="n">
-        <v>97.04567574022336</v>
+        <v>100.8144398466409</v>
       </c>
       <c r="O2" t="n">
-        <v>190.3225873740303</v>
+        <v>190.3225873740324</v>
       </c>
       <c r="P2" t="n">
-        <v>283.5994990078372</v>
+        <v>283.5994990078403</v>
       </c>
       <c r="Q2" t="n">
-        <v>376.876410641644</v>
+        <v>376.8764106416482</v>
       </c>
       <c r="R2" t="n">
-        <v>286.2381241374974</v>
+        <v>376.8764106416482</v>
       </c>
       <c r="S2" t="n">
-        <v>286.2381241374974</v>
+        <v>376.8764106416482</v>
       </c>
       <c r="T2" t="n">
-        <v>286.2381241374974</v>
+        <v>376.8764106416482</v>
       </c>
       <c r="U2" t="n">
-        <v>286.2381241374974</v>
+        <v>376.8764106416482</v>
       </c>
       <c r="V2" t="n">
-        <v>286.2381241374974</v>
+        <v>376.8764106416482</v>
       </c>
       <c r="W2" t="n">
-        <v>220.0535189038503</v>
+        <v>281.7055998735552</v>
       </c>
       <c r="X2" t="n">
-        <v>220.0535189038503</v>
+        <v>281.7055998735552</v>
       </c>
       <c r="Y2" t="n">
-        <v>220.0535189038503</v>
+        <v>281.7055998735552</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>102.7083389809248</v>
+        <v>7.537528212832964</v>
       </c>
       <c r="C3" t="n">
-        <v>7.537528212832881</v>
+        <v>7.537528212832964</v>
       </c>
       <c r="D3" t="n">
-        <v>7.537528212832881</v>
+        <v>7.537528212832964</v>
       </c>
       <c r="E3" t="n">
-        <v>7.537528212832881</v>
+        <v>7.537528212832964</v>
       </c>
       <c r="F3" t="n">
-        <v>7.537528212832881</v>
+        <v>7.537528212832964</v>
       </c>
       <c r="G3" t="n">
-        <v>7.537528212832881</v>
+        <v>7.537528212832964</v>
       </c>
       <c r="H3" t="n">
-        <v>7.537528212832881</v>
+        <v>7.537528212832964</v>
       </c>
       <c r="I3" t="n">
-        <v>7.537528212832881</v>
+        <v>7.537528212832964</v>
       </c>
       <c r="J3" t="n">
-        <v>7.537528212832881</v>
+        <v>7.537528212832964</v>
       </c>
       <c r="K3" t="n">
-        <v>7.537528212832881</v>
+        <v>7.537528212832964</v>
       </c>
       <c r="L3" t="n">
-        <v>7.537528212832881</v>
+        <v>7.537528212832964</v>
       </c>
       <c r="M3" t="n">
-        <v>7.537528212832881</v>
+        <v>7.537528212832964</v>
       </c>
       <c r="N3" t="n">
-        <v>97.04567574022336</v>
+        <v>97.04567574022444</v>
       </c>
       <c r="O3" t="n">
-        <v>190.3225873740303</v>
+        <v>190.3225873740324</v>
       </c>
       <c r="P3" t="n">
-        <v>283.5994990078372</v>
+        <v>283.5994990078403</v>
       </c>
       <c r="Q3" t="n">
-        <v>376.876410641644</v>
+        <v>376.8764106416482</v>
       </c>
       <c r="R3" t="n">
-        <v>317.0921417365898</v>
+        <v>376.8764106416482</v>
       </c>
       <c r="S3" t="n">
-        <v>293.0499605171087</v>
+        <v>281.7055998735552</v>
       </c>
       <c r="T3" t="n">
-        <v>293.0499605171087</v>
+        <v>186.5347891054623</v>
       </c>
       <c r="U3" t="n">
-        <v>293.0499605171087</v>
+        <v>102.7083389809259</v>
       </c>
       <c r="V3" t="n">
-        <v>197.8791497490168</v>
+        <v>7.537528212832964</v>
       </c>
       <c r="W3" t="n">
-        <v>102.7083389809248</v>
+        <v>7.537528212832964</v>
       </c>
       <c r="X3" t="n">
-        <v>102.7083389809248</v>
+        <v>7.537528212832964</v>
       </c>
       <c r="Y3" t="n">
-        <v>102.7083389809248</v>
+        <v>7.537528212832964</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>102.7083389809248</v>
+        <v>7.537528212832964</v>
       </c>
       <c r="C4" t="n">
-        <v>7.537528212832881</v>
+        <v>7.537528212832964</v>
       </c>
       <c r="D4" t="n">
-        <v>7.537528212832881</v>
+        <v>7.537528212832964</v>
       </c>
       <c r="E4" t="n">
-        <v>7.537528212832881</v>
+        <v>7.537528212832964</v>
       </c>
       <c r="F4" t="n">
-        <v>7.537528212832881</v>
+        <v>7.537528212832964</v>
       </c>
       <c r="G4" t="n">
-        <v>7.537528212832881</v>
+        <v>7.537528212832964</v>
       </c>
       <c r="H4" t="n">
-        <v>7.537528212832881</v>
+        <v>7.537528212832964</v>
       </c>
       <c r="I4" t="n">
-        <v>7.537528212832881</v>
+        <v>7.537528212832964</v>
       </c>
       <c r="J4" t="n">
-        <v>7.537528212832881</v>
+        <v>7.537528212832964</v>
       </c>
       <c r="K4" t="n">
-        <v>34.07719201208553</v>
+        <v>7.537528212832964</v>
       </c>
       <c r="L4" t="n">
-        <v>34.07719201208553</v>
+        <v>34.07719201208661</v>
       </c>
       <c r="M4" t="n">
-        <v>127.3541036458924</v>
+        <v>127.3541036458945</v>
       </c>
       <c r="N4" t="n">
-        <v>220.6310152796993</v>
+        <v>220.6310152797025</v>
       </c>
       <c r="O4" t="n">
-        <v>313.9079269135062</v>
+        <v>313.9079269135104</v>
       </c>
       <c r="P4" t="n">
-        <v>376.876410641644</v>
+        <v>376.8764106416482</v>
       </c>
       <c r="Q4" t="n">
-        <v>376.876410641644</v>
+        <v>338.3390692953373</v>
       </c>
       <c r="R4" t="n">
-        <v>376.876410641644</v>
+        <v>338.3390692953373</v>
       </c>
       <c r="S4" t="n">
-        <v>376.876410641644</v>
+        <v>338.3390692953373</v>
       </c>
       <c r="T4" t="n">
-        <v>281.7055998735521</v>
+        <v>338.3390692953373</v>
       </c>
       <c r="U4" t="n">
-        <v>281.7055998735521</v>
+        <v>293.0499605171119</v>
       </c>
       <c r="V4" t="n">
-        <v>197.8791497490168</v>
+        <v>293.0499605171119</v>
       </c>
       <c r="W4" t="n">
-        <v>102.7083389809248</v>
+        <v>197.8791497490189</v>
       </c>
       <c r="X4" t="n">
-        <v>102.7083389809248</v>
+        <v>102.7083389809259</v>
       </c>
       <c r="Y4" t="n">
-        <v>102.7083389809248</v>
+        <v>7.537528212832964</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>124.8827081357584</v>
+        <v>124.882708135759</v>
       </c>
       <c r="C5" t="n">
-        <v>124.8827081357584</v>
+        <v>29.71189736766651</v>
       </c>
       <c r="D5" t="n">
-        <v>29.71189736766646</v>
+        <v>29.71189736766651</v>
       </c>
       <c r="E5" t="n">
-        <v>29.71189736766646</v>
+        <v>29.71189736766651</v>
       </c>
       <c r="F5" t="n">
-        <v>19.60111071824085</v>
+        <v>19.60111071824089</v>
       </c>
       <c r="G5" t="n">
-        <v>7.537528212832881</v>
+        <v>7.537528212832927</v>
       </c>
       <c r="H5" t="n">
-        <v>7.537528212832881</v>
+        <v>7.537528212832927</v>
       </c>
       <c r="I5" t="n">
-        <v>7.537528212832881</v>
+        <v>7.537528212832927</v>
       </c>
       <c r="J5" t="n">
-        <v>7.537528212832881</v>
+        <v>7.537528212832927</v>
       </c>
       <c r="K5" t="n">
-        <v>7.537528212832881</v>
+        <v>7.537528212832927</v>
       </c>
       <c r="L5" t="n">
-        <v>7.537528212832881</v>
+        <v>7.537528212832927</v>
       </c>
       <c r="M5" t="n">
-        <v>7.537528212832881</v>
+        <v>7.537528212832927</v>
       </c>
       <c r="N5" t="n">
-        <v>97.04567574022336</v>
+        <v>97.04567574022398</v>
       </c>
       <c r="O5" t="n">
-        <v>190.3225873740303</v>
+        <v>190.3225873740315</v>
       </c>
       <c r="P5" t="n">
-        <v>283.5994990078372</v>
+        <v>283.5994990078389</v>
       </c>
       <c r="Q5" t="n">
-        <v>376.876410641644</v>
+        <v>376.8764106416464</v>
       </c>
       <c r="R5" t="n">
-        <v>315.2243296719423</v>
+        <v>315.2243296719441</v>
       </c>
       <c r="S5" t="n">
-        <v>315.2243296719423</v>
+        <v>220.0535189038516</v>
       </c>
       <c r="T5" t="n">
-        <v>315.2243296719423</v>
+        <v>220.0535189038516</v>
       </c>
       <c r="U5" t="n">
-        <v>315.2243296719423</v>
+        <v>124.882708135759</v>
       </c>
       <c r="V5" t="n">
-        <v>315.2243296719423</v>
+        <v>124.882708135759</v>
       </c>
       <c r="W5" t="n">
-        <v>220.0535189038503</v>
+        <v>124.882708135759</v>
       </c>
       <c r="X5" t="n">
-        <v>220.0535189038503</v>
+        <v>124.882708135759</v>
       </c>
       <c r="Y5" t="n">
-        <v>124.8827081357584</v>
+        <v>124.882708135759</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>102.7083389809248</v>
+        <v>7.537528212832927</v>
       </c>
       <c r="C6" t="n">
-        <v>102.7083389809248</v>
+        <v>7.537528212832927</v>
       </c>
       <c r="D6" t="n">
-        <v>102.7083389809248</v>
+        <v>7.537528212832927</v>
       </c>
       <c r="E6" t="n">
-        <v>7.537528212832881</v>
+        <v>7.537528212832927</v>
       </c>
       <c r="F6" t="n">
-        <v>7.537528212832881</v>
+        <v>7.537528212832927</v>
       </c>
       <c r="G6" t="n">
-        <v>7.537528212832881</v>
+        <v>7.537528212832927</v>
       </c>
       <c r="H6" t="n">
-        <v>7.537528212832881</v>
+        <v>7.537528212832927</v>
       </c>
       <c r="I6" t="n">
-        <v>7.537528212832881</v>
+        <v>7.537528212832927</v>
       </c>
       <c r="J6" t="n">
-        <v>7.537528212832881</v>
+        <v>7.537528212832927</v>
       </c>
       <c r="K6" t="n">
-        <v>7.537528212832881</v>
+        <v>7.537528212832927</v>
       </c>
       <c r="L6" t="n">
-        <v>7.537528212832881</v>
+        <v>7.537528212832927</v>
       </c>
       <c r="M6" t="n">
-        <v>7.537528212832881</v>
+        <v>7.537528212832927</v>
       </c>
       <c r="N6" t="n">
-        <v>97.04567574022336</v>
+        <v>97.04567574022398</v>
       </c>
       <c r="O6" t="n">
-        <v>190.3225873740303</v>
+        <v>190.3225873740315</v>
       </c>
       <c r="P6" t="n">
-        <v>283.5994990078372</v>
+        <v>283.5994990078389</v>
       </c>
       <c r="Q6" t="n">
-        <v>376.876410641644</v>
+        <v>376.8764106416464</v>
       </c>
       <c r="R6" t="n">
-        <v>376.876410641644</v>
+        <v>317.0921417365922</v>
       </c>
       <c r="S6" t="n">
-        <v>376.876410641644</v>
+        <v>317.0921417365922</v>
       </c>
       <c r="T6" t="n">
-        <v>376.876410641644</v>
+        <v>293.0499605171105</v>
       </c>
       <c r="U6" t="n">
-        <v>281.7055998735521</v>
+        <v>197.879149749018</v>
       </c>
       <c r="V6" t="n">
-        <v>186.5347891054602</v>
+        <v>197.879149749018</v>
       </c>
       <c r="W6" t="n">
-        <v>186.5347891054602</v>
+        <v>197.879149749018</v>
       </c>
       <c r="X6" t="n">
-        <v>186.5347891054602</v>
+        <v>102.7083389809254</v>
       </c>
       <c r="Y6" t="n">
-        <v>102.7083389809248</v>
+        <v>7.537528212832927</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.537528212832881</v>
+        <v>7.537528212832927</v>
       </c>
       <c r="C7" t="n">
-        <v>7.537528212832881</v>
+        <v>7.537528212832927</v>
       </c>
       <c r="D7" t="n">
-        <v>7.537528212832881</v>
+        <v>7.537528212832927</v>
       </c>
       <c r="E7" t="n">
-        <v>7.537528212832881</v>
+        <v>7.537528212832927</v>
       </c>
       <c r="F7" t="n">
-        <v>7.537528212832881</v>
+        <v>7.537528212832927</v>
       </c>
       <c r="G7" t="n">
-        <v>7.537528212832881</v>
+        <v>7.537528212832927</v>
       </c>
       <c r="H7" t="n">
-        <v>7.537528212832881</v>
+        <v>7.537528212832927</v>
       </c>
       <c r="I7" t="n">
-        <v>7.537528212832881</v>
+        <v>7.537528212832927</v>
       </c>
       <c r="J7" t="n">
-        <v>7.537528212832881</v>
+        <v>7.537528212832927</v>
       </c>
       <c r="K7" t="n">
-        <v>7.537528212832881</v>
+        <v>7.537528212832927</v>
       </c>
       <c r="L7" t="n">
-        <v>34.07719201208553</v>
+        <v>34.07719201208616</v>
       </c>
       <c r="M7" t="n">
-        <v>127.3541036458924</v>
+        <v>127.3541036458936</v>
       </c>
       <c r="N7" t="n">
-        <v>220.6310152796993</v>
+        <v>220.6310152797011</v>
       </c>
       <c r="O7" t="n">
-        <v>313.9079269135062</v>
+        <v>313.9079269135086</v>
       </c>
       <c r="P7" t="n">
-        <v>376.876410641644</v>
+        <v>376.8764106416464</v>
       </c>
       <c r="Q7" t="n">
-        <v>338.339069295333</v>
+        <v>338.3390692953354</v>
       </c>
       <c r="R7" t="n">
-        <v>243.1682585272411</v>
+        <v>243.1682585272429</v>
       </c>
       <c r="S7" t="n">
-        <v>243.1682585272411</v>
+        <v>197.879149749018</v>
       </c>
       <c r="T7" t="n">
-        <v>197.8791497490168</v>
+        <v>197.879149749018</v>
       </c>
       <c r="U7" t="n">
-        <v>102.7083389809248</v>
+        <v>102.7083389809254</v>
       </c>
       <c r="V7" t="n">
-        <v>7.537528212832881</v>
+        <v>102.7083389809254</v>
       </c>
       <c r="W7" t="n">
-        <v>7.537528212832881</v>
+        <v>102.7083389809254</v>
       </c>
       <c r="X7" t="n">
-        <v>7.537528212832881</v>
+        <v>7.537528212832927</v>
       </c>
       <c r="Y7" t="n">
-        <v>7.537528212832881</v>
+        <v>7.537528212832927</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>370.8718304418409</v>
+        <v>633.2904226487553</v>
       </c>
       <c r="C8" t="n">
-        <v>370.8718304418409</v>
+        <v>633.2904226487553</v>
       </c>
       <c r="D8" t="n">
-        <v>370.8718304418409</v>
+        <v>370.8718304418421</v>
       </c>
       <c r="E8" t="n">
-        <v>370.8718304418409</v>
+        <v>370.8718304418421</v>
       </c>
       <c r="F8" t="n">
-        <v>360.7610437924153</v>
+        <v>360.7610437924164</v>
       </c>
       <c r="G8" t="n">
-        <v>348.6974612870073</v>
+        <v>348.6974612870085</v>
       </c>
       <c r="H8" t="n">
-        <v>25.59010279274553</v>
+        <v>25.59010279274562</v>
       </c>
       <c r="I8" t="n">
-        <v>25.59010279274553</v>
+        <v>25.59010279274562</v>
       </c>
       <c r="J8" t="n">
-        <v>25.59010279274553</v>
+        <v>25.59010279274562</v>
       </c>
       <c r="K8" t="n">
-        <v>25.59010279274553</v>
+        <v>25.59010279274562</v>
       </c>
       <c r="L8" t="n">
-        <v>25.59010279274553</v>
+        <v>25.59010279274562</v>
       </c>
       <c r="M8" t="n">
-        <v>335.2338829616265</v>
+        <v>342.2676248529726</v>
       </c>
       <c r="N8" t="n">
-        <v>651.9114050218525</v>
+        <v>651.9114050218568</v>
       </c>
       <c r="O8" t="n">
-        <v>956.9159894946864</v>
+        <v>956.9159894946907</v>
       </c>
       <c r="P8" t="n">
-        <v>1185.07288595074</v>
+        <v>1185.072885950744</v>
       </c>
       <c r="Q8" t="n">
-        <v>1279.505139637277</v>
+        <v>1279.505139637281</v>
       </c>
       <c r="R8" t="n">
-        <v>1188.86685313313</v>
+        <v>1279.505139637281</v>
       </c>
       <c r="S8" t="n">
-        <v>1188.86685313313</v>
+        <v>1279.505139637281</v>
       </c>
       <c r="T8" t="n">
-        <v>1188.86685313313</v>
+        <v>1279.505139637281</v>
       </c>
       <c r="U8" t="n">
-        <v>1188.86685313313</v>
+        <v>1279.505139637281</v>
       </c>
       <c r="V8" t="n">
-        <v>1188.86685313313</v>
+        <v>956.3977811430182</v>
       </c>
       <c r="W8" t="n">
-        <v>865.7594946388682</v>
+        <v>633.2904226487553</v>
       </c>
       <c r="X8" t="n">
-        <v>865.7594946388682</v>
+        <v>633.2904226487553</v>
       </c>
       <c r="Y8" t="n">
-        <v>693.9791889361027</v>
+        <v>633.2904226487553</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>529.2084959216434</v>
+        <v>293.157239779249</v>
       </c>
       <c r="C9" t="n">
-        <v>367.5048231625981</v>
+        <v>293.157239779249</v>
       </c>
       <c r="D9" t="n">
-        <v>228.6661861528102</v>
+        <v>154.3186027694611</v>
       </c>
       <c r="E9" t="n">
-        <v>228.6661861528102</v>
+        <v>154.3186027694611</v>
       </c>
       <c r="F9" t="n">
-        <v>93.97238810268453</v>
+        <v>154.3186027694611</v>
       </c>
       <c r="G9" t="n">
-        <v>93.97238810268453</v>
+        <v>25.59010279274562</v>
       </c>
       <c r="H9" t="n">
-        <v>93.97238810268453</v>
+        <v>25.59010279274562</v>
       </c>
       <c r="I9" t="n">
-        <v>25.59010279274553</v>
+        <v>25.59010279274562</v>
       </c>
       <c r="J9" t="n">
-        <v>25.59010279274553</v>
+        <v>25.59010279274562</v>
       </c>
       <c r="K9" t="n">
-        <v>186.2825464555332</v>
+        <v>25.59010279274562</v>
       </c>
       <c r="L9" t="n">
-        <v>186.2825464555332</v>
+        <v>25.59010279274562</v>
       </c>
       <c r="M9" t="n">
-        <v>502.9600685157591</v>
+        <v>342.2676248529726</v>
       </c>
       <c r="N9" t="n">
-        <v>502.9600685157591</v>
+        <v>658.9451469131997</v>
       </c>
       <c r="O9" t="n">
-        <v>819.6375905759851</v>
+        <v>819.6375905759894</v>
       </c>
       <c r="P9" t="n">
-        <v>1121.733509851682</v>
+        <v>1121.733509851687</v>
       </c>
       <c r="Q9" t="n">
-        <v>1279.505139637277</v>
+        <v>1279.505139637281</v>
       </c>
       <c r="R9" t="n">
-        <v>1219.720870732222</v>
+        <v>1219.720870732227</v>
       </c>
       <c r="S9" t="n">
-        <v>1066.921383744963</v>
+        <v>1219.720870732227</v>
       </c>
       <c r="T9" t="n">
-        <v>955.5211065955149</v>
+        <v>1179.2805116215</v>
       </c>
       <c r="U9" t="n">
-        <v>955.5211065955149</v>
+        <v>960.7857192198104</v>
       </c>
       <c r="V9" t="n">
-        <v>727.1254840438488</v>
+        <v>732.3900966681443</v>
       </c>
       <c r="W9" t="n">
-        <v>727.1254840438488</v>
+        <v>491.0742279014544</v>
       </c>
       <c r="X9" t="n">
-        <v>529.2084959216434</v>
+        <v>293.157239779249</v>
       </c>
       <c r="Y9" t="n">
-        <v>529.2084959216434</v>
+        <v>293.157239779249</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>25.59010279274553</v>
+        <v>25.59010279274562</v>
       </c>
       <c r="C10" t="n">
-        <v>25.59010279274553</v>
+        <v>25.59010279274562</v>
       </c>
       <c r="D10" t="n">
-        <v>25.59010279274553</v>
+        <v>25.59010279274562</v>
       </c>
       <c r="E10" t="n">
-        <v>25.59010279274553</v>
+        <v>25.59010279274562</v>
       </c>
       <c r="F10" t="n">
-        <v>25.59010279274553</v>
+        <v>25.59010279274562</v>
       </c>
       <c r="G10" t="n">
-        <v>25.59010279274553</v>
+        <v>25.59010279274562</v>
       </c>
       <c r="H10" t="n">
-        <v>25.59010279274553</v>
+        <v>25.59010279274562</v>
       </c>
       <c r="I10" t="n">
-        <v>25.59010279274553</v>
+        <v>25.59010279274562</v>
       </c>
       <c r="J10" t="n">
-        <v>25.59010279274553</v>
+        <v>25.59010279274562</v>
       </c>
       <c r="K10" t="n">
-        <v>59.19429053738894</v>
+        <v>59.19429053738904</v>
       </c>
       <c r="L10" t="n">
-        <v>159.8013699376484</v>
+        <v>159.8013699376485</v>
       </c>
       <c r="M10" t="n">
-        <v>277.7948760652502</v>
+        <v>277.7948760652503</v>
       </c>
       <c r="N10" t="n">
-        <v>396.2172178148505</v>
+        <v>396.2172178148506</v>
       </c>
       <c r="O10" t="n">
-        <v>494.6808643105402</v>
+        <v>494.6808643105403</v>
       </c>
       <c r="P10" t="n">
-        <v>557.649348038678</v>
+        <v>557.6493480386781</v>
       </c>
       <c r="Q10" t="n">
-        <v>557.649348038678</v>
+        <v>519.1120066923671</v>
       </c>
       <c r="R10" t="n">
-        <v>557.649348038678</v>
+        <v>369.5902253067453</v>
       </c>
       <c r="S10" t="n">
-        <v>544.9254574596675</v>
+        <v>369.5902253067453</v>
       </c>
       <c r="T10" t="n">
-        <v>311.7465042753464</v>
+        <v>369.5902253067453</v>
       </c>
       <c r="U10" t="n">
-        <v>311.7465042753464</v>
+        <v>369.5902253067453</v>
       </c>
       <c r="V10" t="n">
-        <v>311.7465042753464</v>
+        <v>108.8549208651679</v>
       </c>
       <c r="W10" t="n">
-        <v>25.59010279274553</v>
+        <v>108.8549208651679</v>
       </c>
       <c r="X10" t="n">
-        <v>25.59010279274553</v>
+        <v>25.59010279274562</v>
       </c>
       <c r="Y10" t="n">
-        <v>25.59010279274553</v>
+        <v>25.59010279274562</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>733.542056880107</v>
+        <v>733.5420568801076</v>
       </c>
       <c r="C11" t="n">
-        <v>441.1005244769768</v>
+        <v>441.1005244769775</v>
       </c>
       <c r="D11" t="n">
-        <v>377.0798685900288</v>
+        <v>358.6828621974205</v>
       </c>
       <c r="E11" t="n">
-        <v>377.0798685900288</v>
+        <v>358.6828621974205</v>
       </c>
       <c r="F11" t="n">
-        <v>377.0798685900288</v>
+        <v>358.6828621974205</v>
       </c>
       <c r="G11" t="n">
-        <v>50.85391747321461</v>
+        <v>358.6828621974205</v>
       </c>
       <c r="H11" t="n">
-        <v>50.85391747321461</v>
+        <v>119.3049821691864</v>
       </c>
       <c r="I11" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321455</v>
       </c>
       <c r="J11" t="n">
-        <v>154.9459054532632</v>
+        <v>154.9459054532635</v>
       </c>
       <c r="K11" t="n">
-        <v>443.186030248163</v>
+        <v>443.1860302481633</v>
       </c>
       <c r="L11" t="n">
         <v>850.7433998907115</v>
@@ -5078,13 +5078,13 @@
         <v>1907.723617386944</v>
       </c>
       <c r="W11" t="n">
-        <v>1634.680913508607</v>
+        <v>1634.680913508608</v>
       </c>
       <c r="X11" t="n">
-        <v>1342.142999294163</v>
+        <v>1342.142999294164</v>
       </c>
       <c r="Y11" t="n">
-        <v>1038.093370134063</v>
+        <v>1038.093370134064</v>
       </c>
     </row>
     <row r="12">
@@ -5109,7 +5109,7 @@
         <v>338.5952780800164</v>
       </c>
       <c r="G12" t="n">
-        <v>210.0732042050869</v>
+        <v>210.0732042050868</v>
       </c>
       <c r="H12" t="n">
         <v>112.1289883137699</v>
@@ -5121,7 +5121,7 @@
         <v>50.85391747321461</v>
       </c>
       <c r="K12" t="n">
-        <v>68.10001809715379</v>
+        <v>68.10001809715385</v>
       </c>
       <c r="L12" t="n">
         <v>477.8506509775796</v>
@@ -5173,49 +5173,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.6147897486585</v>
+        <v>105.764089617461</v>
       </c>
       <c r="C13" t="n">
-        <v>179.6147897486585</v>
+        <v>105.764089617461</v>
       </c>
       <c r="D13" t="n">
-        <v>179.6147897486585</v>
+        <v>105.764089617461</v>
       </c>
       <c r="E13" t="n">
-        <v>179.6147897486585</v>
+        <v>105.764089617461</v>
       </c>
       <c r="F13" t="n">
-        <v>179.6147897486585</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="G13" t="n">
-        <v>100.3603280900061</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="H13" t="n">
-        <v>100.3603280900061</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="I13" t="n">
         <v>50.85391747321461</v>
       </c>
       <c r="J13" t="n">
-        <v>91.69505674979136</v>
+        <v>91.69505674979143</v>
       </c>
       <c r="K13" t="n">
-        <v>232.7169638270792</v>
+        <v>232.7169638270794</v>
       </c>
       <c r="L13" t="n">
-        <v>446.2527666318768</v>
+        <v>446.252766631877</v>
       </c>
       <c r="M13" t="n">
-        <v>678.5458083128453</v>
+        <v>678.5458083128456</v>
       </c>
       <c r="N13" t="n">
-        <v>910.6354775381749</v>
+        <v>910.6354775381752</v>
       </c>
       <c r="O13" t="n">
         <v>1120.785018876023</v>
       </c>
       <c r="P13" t="n">
-        <v>1291.979214699444</v>
+        <v>1291.979214699445</v>
       </c>
       <c r="Q13" t="n">
         <v>1356.123191561281</v>
@@ -5224,25 +5224,25 @@
         <v>1303.875075247596</v>
       </c>
       <c r="S13" t="n">
-        <v>1182.673515097047</v>
+        <v>1182.673515097048</v>
       </c>
       <c r="T13" t="n">
         <v>1039.72622938983</v>
       </c>
       <c r="U13" t="n">
-        <v>842.0376558180526</v>
+        <v>842.0376558180533</v>
       </c>
       <c r="V13" t="n">
-        <v>670.7945776405377</v>
+        <v>670.7945776405385</v>
       </c>
       <c r="W13" t="n">
-        <v>474.1304024219993</v>
+        <v>474.1304024220002</v>
       </c>
       <c r="X13" t="n">
-        <v>332.3701645814376</v>
+        <v>332.3701645814385</v>
       </c>
       <c r="Y13" t="n">
-        <v>199.8272320377773</v>
+        <v>199.8272320377782</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>733.5420568801077</v>
+        <v>733.5420568801085</v>
       </c>
       <c r="C14" t="n">
-        <v>441.1005244769775</v>
+        <v>441.1005244769783</v>
       </c>
       <c r="D14" t="n">
-        <v>157.7687859682635</v>
+        <v>358.6828621974205</v>
       </c>
       <c r="E14" t="n">
-        <v>119.3049821691864</v>
+        <v>358.6828621974205</v>
       </c>
       <c r="F14" t="n">
-        <v>119.3049821691864</v>
+        <v>358.6828621974205</v>
       </c>
       <c r="G14" t="n">
-        <v>119.3049821691864</v>
+        <v>358.6828621974205</v>
       </c>
       <c r="H14" t="n">
         <v>119.3049821691864</v>
       </c>
       <c r="I14" t="n">
-        <v>50.85391747321455</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J14" t="n">
-        <v>154.9459054532633</v>
+        <v>154.9459054532635</v>
       </c>
       <c r="K14" t="n">
-        <v>443.1860302481632</v>
+        <v>443.1860302481634</v>
       </c>
       <c r="L14" t="n">
-        <v>850.7433998907119</v>
+        <v>850.7433998907118</v>
       </c>
       <c r="M14" t="n">
         <v>1310.379159876956</v>
@@ -5297,16 +5297,16 @@
         <v>2407.429665198535</v>
       </c>
       <c r="Q14" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="R14" t="n">
         <v>2542.695873660731</v>
       </c>
       <c r="S14" t="n">
-        <v>2453.750750901112</v>
+        <v>2453.750750901111</v>
       </c>
       <c r="T14" t="n">
-        <v>2320.57291051569</v>
+        <v>2320.572910515689</v>
       </c>
       <c r="U14" t="n">
         <v>2155.210665226941</v>
@@ -5315,13 +5315,13 @@
         <v>1907.723617386945</v>
       </c>
       <c r="W14" t="n">
-        <v>1634.680913508608</v>
+        <v>1634.680913508609</v>
       </c>
       <c r="X14" t="n">
         <v>1342.142999294164</v>
       </c>
       <c r="Y14" t="n">
-        <v>1038.093370134064</v>
+        <v>1038.093370134065</v>
       </c>
     </row>
     <row r="15">
@@ -5349,7 +5349,7 @@
         <v>210.0732042050874</v>
       </c>
       <c r="H15" t="n">
-        <v>112.1289883137705</v>
+        <v>112.1289883137699</v>
       </c>
       <c r="I15" t="n">
         <v>50.85391747321462</v>
@@ -5358,7 +5358,7 @@
         <v>50.85391747321462</v>
       </c>
       <c r="K15" t="n">
-        <v>68.10001809715425</v>
+        <v>313.014426141483</v>
       </c>
       <c r="L15" t="n">
         <v>477.85065097758</v>
@@ -5410,10 +5410,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>105.7640896174593</v>
+        <v>114.4335843813893</v>
       </c>
       <c r="C16" t="n">
-        <v>50.85391747321462</v>
+        <v>114.4335843813893</v>
       </c>
       <c r="D16" t="n">
         <v>50.85391747321462</v>
@@ -5434,52 +5434,52 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J16" t="n">
-        <v>91.69505674979138</v>
+        <v>91.69505674979146</v>
       </c>
       <c r="K16" t="n">
-        <v>232.7169638270793</v>
+        <v>232.7169638270794</v>
       </c>
       <c r="L16" t="n">
-        <v>446.2527666318769</v>
+        <v>446.2527666318771</v>
       </c>
       <c r="M16" t="n">
-        <v>678.5458083128453</v>
+        <v>678.5458083128456</v>
       </c>
       <c r="N16" t="n">
-        <v>910.6354775381749</v>
+        <v>910.6354775381752</v>
       </c>
       <c r="O16" t="n">
         <v>1120.785018876023</v>
       </c>
       <c r="P16" t="n">
-        <v>1291.979214699444</v>
+        <v>1291.979214699445</v>
       </c>
       <c r="Q16" t="n">
         <v>1356.123191561281</v>
       </c>
       <c r="R16" t="n">
-        <v>1303.875075247596</v>
+        <v>1303.875075247597</v>
       </c>
       <c r="S16" t="n">
-        <v>1182.673515097047</v>
+        <v>1182.673515097048</v>
       </c>
       <c r="T16" t="n">
         <v>1039.72622938983</v>
       </c>
       <c r="U16" t="n">
-        <v>842.0376558180521</v>
+        <v>842.0376558180531</v>
       </c>
       <c r="V16" t="n">
-        <v>670.7945776405372</v>
+        <v>670.7945776405383</v>
       </c>
       <c r="W16" t="n">
-        <v>474.1304024219988</v>
+        <v>474.130402422</v>
       </c>
       <c r="X16" t="n">
-        <v>332.3701645814371</v>
+        <v>332.3701645814382</v>
       </c>
       <c r="Y16" t="n">
-        <v>199.8272320377766</v>
+        <v>199.8272320377779</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1355.622868711878</v>
+        <v>1355.622868711877</v>
       </c>
       <c r="C17" t="n">
-        <v>1140.941437787719</v>
+        <v>1140.941437787718</v>
       </c>
       <c r="D17" t="n">
-        <v>935.3698007579765</v>
+        <v>935.3698007579758</v>
       </c>
       <c r="E17" t="n">
-        <v>707.8364086071172</v>
+        <v>707.8364086071163</v>
       </c>
       <c r="F17" t="n">
-        <v>460.9375456603204</v>
+        <v>460.9375456603205</v>
       </c>
       <c r="G17" t="n">
-        <v>212.4716960224775</v>
+        <v>212.4716960224776</v>
       </c>
       <c r="H17" t="n">
         <v>50.85391747321462</v>
@@ -5519,7 +5519,7 @@
         <v>443.1860302481634</v>
       </c>
       <c r="L17" t="n">
-        <v>850.7433998907119</v>
+        <v>850.7433998907118</v>
       </c>
       <c r="M17" t="n">
         <v>1310.379159876956</v>
@@ -5583,19 +5583,19 @@
         <v>338.5952780800169</v>
       </c>
       <c r="G18" t="n">
-        <v>210.0732042050868</v>
+        <v>210.0732042050874</v>
       </c>
       <c r="H18" t="n">
-        <v>112.1289883137699</v>
+        <v>112.1289883137705</v>
       </c>
       <c r="I18" t="n">
         <v>50.85391747321462</v>
       </c>
       <c r="J18" t="n">
-        <v>50.85391747321462</v>
+        <v>130.2226992162549</v>
       </c>
       <c r="K18" t="n">
-        <v>68.10001809715425</v>
+        <v>392.3832078845233</v>
       </c>
       <c r="L18" t="n">
         <v>477.85065097758</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>54.71191944818154</v>
+        <v>54.71191944818177</v>
       </c>
       <c r="C19" t="n">
-        <v>52.34827765289565</v>
+        <v>52.34827765289577</v>
       </c>
       <c r="D19" t="n">
-        <v>52.34827765289565</v>
+        <v>52.34827765289577</v>
       </c>
       <c r="E19" t="n">
-        <v>52.34827765289565</v>
+        <v>52.34827765289577</v>
       </c>
       <c r="F19" t="n">
-        <v>52.34827765289565</v>
+        <v>52.34827765289577</v>
       </c>
       <c r="G19" t="n">
         <v>50.85391747321462</v>
@@ -5698,25 +5698,25 @@
         <v>724.8700896544216</v>
       </c>
       <c r="S19" t="n">
-        <v>681.4286309828443</v>
+        <v>681.4286309828442</v>
       </c>
       <c r="T19" t="n">
-        <v>522.113450346724</v>
+        <v>616.2414467545977</v>
       </c>
       <c r="U19" t="n">
-        <v>402.1849782539177</v>
+        <v>496.3129746617914</v>
       </c>
       <c r="V19" t="n">
-        <v>308.7020015553741</v>
+        <v>308.7020015553748</v>
       </c>
       <c r="W19" t="n">
-        <v>189.797927815807</v>
+        <v>189.7979278158076</v>
       </c>
       <c r="X19" t="n">
-        <v>125.7977914542166</v>
+        <v>125.7977914542171</v>
       </c>
       <c r="Y19" t="n">
-        <v>71.01496038952754</v>
+        <v>71.01496038952789</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1355.622868711877</v>
+        <v>1355.622868711878</v>
       </c>
       <c r="C20" t="n">
-        <v>1140.941437787717</v>
+        <v>1140.941437787719</v>
       </c>
       <c r="D20" t="n">
-        <v>935.3698007579749</v>
+        <v>935.3698007579761</v>
       </c>
       <c r="E20" t="n">
-        <v>707.8364086071156</v>
+        <v>707.8364086071167</v>
       </c>
       <c r="F20" t="n">
-        <v>460.9375456603198</v>
+        <v>460.9375456603207</v>
       </c>
       <c r="G20" t="n">
-        <v>212.4716960224775</v>
+        <v>212.4716960224776</v>
       </c>
       <c r="H20" t="n">
         <v>50.85391747321462</v>
@@ -5789,13 +5789,13 @@
         <v>2218.764023302829</v>
       </c>
       <c r="W20" t="n">
-        <v>2023.481420903463</v>
+        <v>2023.481420903464</v>
       </c>
       <c r="X20" t="n">
-        <v>1808.70360816799</v>
+        <v>1808.703608167991</v>
       </c>
       <c r="Y20" t="n">
-        <v>1582.414080486862</v>
+        <v>1582.414080486863</v>
       </c>
     </row>
     <row r="21">
@@ -5811,19 +5811,19 @@
         <v>759.1557230830592</v>
       </c>
       <c r="D21" t="n">
-        <v>620.3170860732707</v>
+        <v>620.3170860732713</v>
       </c>
       <c r="E21" t="n">
-        <v>473.2890761301419</v>
+        <v>473.2890761301425</v>
       </c>
       <c r="F21" t="n">
-        <v>338.5952780800163</v>
+        <v>338.5952780800169</v>
       </c>
       <c r="G21" t="n">
-        <v>210.0732042050868</v>
+        <v>210.0732042050874</v>
       </c>
       <c r="H21" t="n">
-        <v>112.1289883137699</v>
+        <v>112.1289883137705</v>
       </c>
       <c r="I21" t="n">
         <v>50.85391747321462</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>54.71191944818154</v>
+        <v>54.71191944818177</v>
       </c>
       <c r="C22" t="n">
-        <v>52.34827765289565</v>
+        <v>52.34827765289577</v>
       </c>
       <c r="D22" t="n">
-        <v>52.34827765289565</v>
+        <v>52.34827765289577</v>
       </c>
       <c r="E22" t="n">
-        <v>52.34827765289565</v>
+        <v>52.34827765289577</v>
       </c>
       <c r="F22" t="n">
-        <v>52.34827765289565</v>
+        <v>52.34827765289577</v>
       </c>
       <c r="G22" t="n">
         <v>50.85391747321462</v>
@@ -5929,31 +5929,31 @@
         <v>724.8700896544216</v>
       </c>
       <c r="Q22" t="n">
-        <v>700.8242228045381</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="R22" t="n">
-        <v>700.8242228045381</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="S22" t="n">
-        <v>587.3006345749703</v>
+        <v>681.4286309828442</v>
       </c>
       <c r="T22" t="n">
-        <v>522.113450346724</v>
+        <v>616.2414467545977</v>
       </c>
       <c r="U22" t="n">
-        <v>402.1849782539177</v>
+        <v>496.3129746617914</v>
       </c>
       <c r="V22" t="n">
-        <v>308.7020015553741</v>
+        <v>402.8299979632477</v>
       </c>
       <c r="W22" t="n">
-        <v>189.797927815807</v>
+        <v>283.9259242236805</v>
       </c>
       <c r="X22" t="n">
-        <v>125.7977914542166</v>
+        <v>125.7977914542171</v>
       </c>
       <c r="Y22" t="n">
-        <v>71.01496038952754</v>
+        <v>71.01496038952789</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1355.622868711877</v>
+        <v>1355.622868711878</v>
       </c>
       <c r="C23" t="n">
-        <v>1140.941437787718</v>
+        <v>1140.941437787719</v>
       </c>
       <c r="D23" t="n">
-        <v>935.3698007579753</v>
+        <v>935.369800757976</v>
       </c>
       <c r="E23" t="n">
-        <v>707.836408607116</v>
+        <v>707.8364086071166</v>
       </c>
       <c r="F23" t="n">
-        <v>460.9375456603201</v>
+        <v>460.9375456603206</v>
       </c>
       <c r="G23" t="n">
-        <v>212.4716960224775</v>
+        <v>212.4716960224776</v>
       </c>
       <c r="H23" t="n">
         <v>50.85391747321462</v>
@@ -6020,19 +6020,19 @@
         <v>2476.093113473632</v>
       </c>
       <c r="U23" t="n">
-        <v>2388.490969663854</v>
+        <v>2388.490969663855</v>
       </c>
       <c r="V23" t="n">
-        <v>2218.764023302829</v>
+        <v>2218.76402330283</v>
       </c>
       <c r="W23" t="n">
-        <v>2023.481420903463</v>
+        <v>2023.481420903464</v>
       </c>
       <c r="X23" t="n">
         <v>1808.703608167991</v>
       </c>
       <c r="Y23" t="n">
-        <v>1582.414080486862</v>
+        <v>1582.414080486863</v>
       </c>
     </row>
     <row r="24">
@@ -6057,7 +6057,7 @@
         <v>338.5952780800169</v>
       </c>
       <c r="G24" t="n">
-        <v>210.0732042050868</v>
+        <v>210.0732042050874</v>
       </c>
       <c r="H24" t="n">
         <v>112.1289883137699</v>
@@ -6066,10 +6066,10 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J24" t="n">
-        <v>130.2226992162549</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="K24" t="n">
-        <v>130.2226992162549</v>
+        <v>68.1000180971543</v>
       </c>
       <c r="L24" t="n">
         <v>477.85065097758</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>54.71191944818154</v>
+        <v>148.8399158560546</v>
       </c>
       <c r="C25" t="n">
-        <v>52.34827765289565</v>
+        <v>146.4762740607686</v>
       </c>
       <c r="D25" t="n">
-        <v>52.34827765289565</v>
+        <v>146.4762740607686</v>
       </c>
       <c r="E25" t="n">
-        <v>52.34827765289565</v>
+        <v>146.4762740607686</v>
       </c>
       <c r="F25" t="n">
-        <v>52.34827765289565</v>
+        <v>146.4762740607686</v>
       </c>
       <c r="G25" t="n">
-        <v>50.85391747321462</v>
+        <v>144.9819138810875</v>
       </c>
       <c r="H25" t="n">
         <v>50.85391747321462</v>
@@ -6172,25 +6172,25 @@
         <v>724.8700896544216</v>
       </c>
       <c r="S25" t="n">
-        <v>681.4286309828443</v>
+        <v>681.4286309828442</v>
       </c>
       <c r="T25" t="n">
-        <v>616.241446754598</v>
+        <v>616.2414467545977</v>
       </c>
       <c r="U25" t="n">
-        <v>402.1849782539177</v>
+        <v>496.3129746617914</v>
       </c>
       <c r="V25" t="n">
-        <v>308.7020015553741</v>
+        <v>402.8299979632477</v>
       </c>
       <c r="W25" t="n">
-        <v>189.797927815807</v>
+        <v>283.9259242236805</v>
       </c>
       <c r="X25" t="n">
-        <v>125.7977914542166</v>
+        <v>219.92578786209</v>
       </c>
       <c r="Y25" t="n">
-        <v>71.01496038952754</v>
+        <v>165.1429567974008</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1781.512829068194</v>
+        <v>1781.512829068192</v>
       </c>
       <c r="C26" t="n">
-        <v>1507.23905206412</v>
+        <v>1507.239052064119</v>
       </c>
       <c r="D26" t="n">
-        <v>1242.075068954463</v>
+        <v>1242.075068954462</v>
       </c>
       <c r="E26" t="n">
-        <v>954.9493307236889</v>
+        <v>954.9493307236876</v>
       </c>
       <c r="F26" t="n">
-        <v>648.4581216969784</v>
+        <v>648.4581216969773</v>
       </c>
       <c r="G26" t="n">
-        <v>340.3999259792208</v>
+        <v>340.3999259792201</v>
       </c>
       <c r="H26" t="n">
         <v>119.1898013500426</v>
       </c>
       <c r="I26" t="n">
-        <v>68.90649205312727</v>
+        <v>68.90649205312728</v>
       </c>
       <c r="J26" t="n">
         <v>278.5160280611992</v>
       </c>
       <c r="K26" t="n">
-        <v>672.2737008841214</v>
+        <v>672.273700884122</v>
       </c>
       <c r="L26" t="n">
-        <v>1185.348618554693</v>
+        <v>1185.348618554694</v>
       </c>
       <c r="M26" t="n">
-        <v>1750.50192656896</v>
+        <v>1750.501926568961</v>
       </c>
       <c r="N26" t="n">
-        <v>2301.821793319959</v>
+        <v>2301.82179331996</v>
       </c>
       <c r="O26" t="n">
-        <v>2776.054840130939</v>
+        <v>2776.05484013094</v>
       </c>
       <c r="P26" t="n">
-        <v>3164.105075974608</v>
+        <v>3164.105075974609</v>
       </c>
       <c r="Q26" t="n">
-        <v>3404.888832464827</v>
+        <v>3404.888832464828</v>
       </c>
       <c r="R26" t="n">
-        <v>3445.324602656363</v>
+        <v>3445.324602656364</v>
       </c>
       <c r="S26" t="n">
-        <v>3374.5472352958</v>
+        <v>3374.547235295801</v>
       </c>
       <c r="T26" t="n">
-        <v>3259.537150309435</v>
+        <v>3259.537150309436</v>
       </c>
       <c r="U26" t="n">
-        <v>3112.342660419744</v>
+        <v>3112.342660419743</v>
       </c>
       <c r="V26" t="n">
-        <v>2883.023367978804</v>
+        <v>2883.023367978803</v>
       </c>
       <c r="W26" t="n">
-        <v>2628.148419499525</v>
+        <v>2628.148419499523</v>
       </c>
       <c r="X26" t="n">
-        <v>2353.778260684137</v>
+        <v>2353.778260684135</v>
       </c>
       <c r="Y26" t="n">
-        <v>2067.896386923094</v>
+        <v>2067.896386923092</v>
       </c>
     </row>
     <row r="27">
@@ -6294,19 +6294,19 @@
         <v>356.647852659929</v>
       </c>
       <c r="G27" t="n">
-        <v>228.1257787849994</v>
+        <v>228.1257787849995</v>
       </c>
       <c r="H27" t="n">
         <v>130.1815628936826</v>
       </c>
       <c r="I27" t="n">
-        <v>68.90649205312727</v>
+        <v>68.90649205312728</v>
       </c>
       <c r="J27" t="n">
-        <v>68.90649205312727</v>
+        <v>68.90649205312728</v>
       </c>
       <c r="K27" t="n">
-        <v>86.15259267706665</v>
+        <v>86.15259267706671</v>
       </c>
       <c r="L27" t="n">
         <v>495.9032255574924</v>
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>408.0434553242539</v>
+        <v>408.0434553242537</v>
       </c>
       <c r="C28" t="n">
-        <v>346.0874674490532</v>
+        <v>346.0874674490531</v>
       </c>
       <c r="D28" t="n">
-        <v>300.675555939935</v>
+        <v>300.6755559399349</v>
       </c>
       <c r="E28" t="n">
-        <v>256.3265233643729</v>
+        <v>256.3265233643728</v>
       </c>
       <c r="F28" t="n">
-        <v>211.5058500532691</v>
+        <v>211.505850053269</v>
       </c>
       <c r="G28" t="n">
-        <v>150.4191437936733</v>
+        <v>150.4191437936732</v>
       </c>
       <c r="H28" t="n">
         <v>100.2451472708622</v>
       </c>
       <c r="I28" t="n">
-        <v>68.90649205312727</v>
+        <v>68.90649205312728</v>
       </c>
       <c r="J28" t="n">
-        <v>105.8211043987694</v>
+        <v>127.5538483963194</v>
       </c>
       <c r="K28" t="n">
-        <v>264.6492285426726</v>
+        <v>264.6492285426722</v>
       </c>
       <c r="L28" t="n">
-        <v>495.9912484140856</v>
+        <v>495.9912484140851</v>
       </c>
       <c r="M28" t="n">
-        <v>746.0905071616694</v>
+        <v>746.0905071616689</v>
       </c>
       <c r="N28" t="n">
-        <v>995.9863934536144</v>
+        <v>995.9863934536139</v>
       </c>
       <c r="O28" t="n">
-        <v>1223.942151858078</v>
+        <v>1223.942151858077</v>
       </c>
       <c r="P28" t="n">
         <v>1412.942564748114</v>
@@ -6412,22 +6412,22 @@
         <v>1357.778593010446</v>
       </c>
       <c r="T28" t="n">
-        <v>1232.999062702285</v>
+        <v>1232.999062702284</v>
       </c>
       <c r="U28" t="n">
-        <v>1053.478244529564</v>
+        <v>1053.478244529563</v>
       </c>
       <c r="V28" t="n">
-        <v>900.4029217511056</v>
+        <v>900.4029217511052</v>
       </c>
       <c r="W28" t="n">
-        <v>721.9065019316238</v>
+        <v>721.9065019316233</v>
       </c>
       <c r="X28" t="n">
-        <v>598.3140194901185</v>
+        <v>598.3140194901182</v>
       </c>
       <c r="Y28" t="n">
-        <v>483.9388423455147</v>
+        <v>483.9388423455144</v>
       </c>
     </row>
     <row r="29">
@@ -6443,49 +6443,49 @@
         <v>1507.23905206412</v>
       </c>
       <c r="D29" t="n">
-        <v>1242.075068954463</v>
+        <v>1242.075068954462</v>
       </c>
       <c r="E29" t="n">
-        <v>954.9493307236887</v>
+        <v>954.9493307236885</v>
       </c>
       <c r="F29" t="n">
-        <v>648.4581216969782</v>
+        <v>648.458121696978</v>
       </c>
       <c r="G29" t="n">
-        <v>340.3999259792205</v>
+        <v>340.3999259792204</v>
       </c>
       <c r="H29" t="n">
-        <v>119.189801350043</v>
+        <v>119.1898013500426</v>
       </c>
       <c r="I29" t="n">
-        <v>68.90649205312771</v>
+        <v>68.90649205312731</v>
       </c>
       <c r="J29" t="n">
-        <v>278.5160280611997</v>
+        <v>278.5160280612005</v>
       </c>
       <c r="K29" t="n">
-        <v>672.2737008841225</v>
+        <v>672.2737008841234</v>
       </c>
       <c r="L29" t="n">
-        <v>1185.348618554694</v>
+        <v>1185.348618554695</v>
       </c>
       <c r="M29" t="n">
-        <v>1750.501926568961</v>
+        <v>1750.501926568962</v>
       </c>
       <c r="N29" t="n">
-        <v>2301.82179331996</v>
+        <v>2301.821793319961</v>
       </c>
       <c r="O29" t="n">
-        <v>2776.05484013094</v>
+        <v>2776.054840130941</v>
       </c>
       <c r="P29" t="n">
-        <v>3164.105075974609</v>
+        <v>3164.10507597461</v>
       </c>
       <c r="Q29" t="n">
-        <v>3404.888832464828</v>
+        <v>3404.888832464829</v>
       </c>
       <c r="R29" t="n">
-        <v>3445.324602656364</v>
+        <v>3445.324602656365</v>
       </c>
       <c r="S29" t="n">
         <v>3374.547235295802</v>
@@ -6531,19 +6531,19 @@
         <v>356.647852659929</v>
       </c>
       <c r="G30" t="n">
-        <v>228.1257787849994</v>
+        <v>228.1257787849995</v>
       </c>
       <c r="H30" t="n">
         <v>130.1815628936826</v>
       </c>
       <c r="I30" t="n">
-        <v>68.90649205312728</v>
+        <v>68.90649205312731</v>
       </c>
       <c r="J30" t="n">
-        <v>68.90649205312728</v>
+        <v>148.2752737961676</v>
       </c>
       <c r="K30" t="n">
-        <v>86.15259267706665</v>
+        <v>148.2752737961676</v>
       </c>
       <c r="L30" t="n">
         <v>495.9032255574924</v>
@@ -6601,37 +6601,37 @@
         <v>346.0874674490531</v>
       </c>
       <c r="D31" t="n">
-        <v>300.6755559399349</v>
+        <v>300.675555939935</v>
       </c>
       <c r="E31" t="n">
-        <v>256.3265233643728</v>
+        <v>256.3265233643729</v>
       </c>
       <c r="F31" t="n">
-        <v>211.505850053269</v>
+        <v>211.5058500532691</v>
       </c>
       <c r="G31" t="n">
-        <v>150.4191437936732</v>
+        <v>150.4191437936733</v>
       </c>
       <c r="H31" t="n">
         <v>100.2451472708622</v>
       </c>
       <c r="I31" t="n">
-        <v>68.90649205312728</v>
+        <v>68.90649205312731</v>
       </c>
       <c r="J31" t="n">
-        <v>105.8211043987687</v>
+        <v>105.8211043987689</v>
       </c>
       <c r="K31" t="n">
-        <v>264.6492285426719</v>
+        <v>264.6492285426722</v>
       </c>
       <c r="L31" t="n">
-        <v>495.9912484140849</v>
+        <v>495.9912484140851</v>
       </c>
       <c r="M31" t="n">
-        <v>746.0905071616687</v>
+        <v>746.0905071616689</v>
       </c>
       <c r="N31" t="n">
-        <v>995.9863934536137</v>
+        <v>995.9863934536139</v>
       </c>
       <c r="O31" t="n">
         <v>1223.942151858077</v>
@@ -6649,19 +6649,19 @@
         <v>1357.778593010446</v>
       </c>
       <c r="T31" t="n">
-        <v>1232.999062702284</v>
+        <v>1232.999062702285</v>
       </c>
       <c r="U31" t="n">
-        <v>1053.478244529563</v>
+        <v>1053.478244529564</v>
       </c>
       <c r="V31" t="n">
-        <v>900.4029217511052</v>
+        <v>900.4029217511053</v>
       </c>
       <c r="W31" t="n">
-        <v>721.9065019316233</v>
+        <v>721.9065019316234</v>
       </c>
       <c r="X31" t="n">
-        <v>598.3140194901182</v>
+        <v>598.3140194901183</v>
       </c>
       <c r="Y31" t="n">
         <v>483.9388423455144</v>
@@ -6680,31 +6680,31 @@
         <v>1140.941437787719</v>
       </c>
       <c r="D32" t="n">
-        <v>935.3698007579762</v>
+        <v>935.3698007579759</v>
       </c>
       <c r="E32" t="n">
-        <v>707.8364086071168</v>
+        <v>707.8364086071165</v>
       </c>
       <c r="F32" t="n">
-        <v>460.9375456603209</v>
+        <v>460.9375456603206</v>
       </c>
       <c r="G32" t="n">
         <v>212.4716960224776</v>
       </c>
       <c r="H32" t="n">
-        <v>50.85391747321464</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I32" t="n">
-        <v>50.85391747321464</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J32" t="n">
-        <v>154.9459054532636</v>
+        <v>154.9459054532635</v>
       </c>
       <c r="K32" t="n">
         <v>443.1860302481634</v>
       </c>
       <c r="L32" t="n">
-        <v>850.743399890712</v>
+        <v>850.7433998907118</v>
       </c>
       <c r="M32" t="n">
         <v>1310.379159876956</v>
@@ -6716,19 +6716,19 @@
         <v>2124.896977382889</v>
       </c>
       <c r="P32" t="n">
-        <v>2407.429665198536</v>
+        <v>2407.429665198535</v>
       </c>
       <c r="Q32" t="n">
-        <v>2542.695873660732</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="R32" t="n">
-        <v>2542.695873660732</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="S32" t="n">
         <v>2531.510852380083</v>
       </c>
       <c r="T32" t="n">
-        <v>2476.093113473633</v>
+        <v>2476.093113473632</v>
       </c>
       <c r="U32" t="n">
         <v>2388.490969663855</v>
@@ -6762,7 +6762,7 @@
         <v>620.3170860732707</v>
       </c>
       <c r="E33" t="n">
-        <v>473.289076130142</v>
+        <v>473.2890761301419</v>
       </c>
       <c r="F33" t="n">
         <v>338.5952780800163</v>
@@ -6774,13 +6774,13 @@
         <v>112.1289883137699</v>
       </c>
       <c r="I33" t="n">
-        <v>50.85391747321464</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J33" t="n">
-        <v>50.85391747321464</v>
+        <v>68.10001809715385</v>
       </c>
       <c r="K33" t="n">
-        <v>68.10001809715379</v>
+        <v>68.10001809715385</v>
       </c>
       <c r="L33" t="n">
         <v>477.8506509775796</v>
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>54.71191944818167</v>
+        <v>54.71191944818177</v>
       </c>
       <c r="C34" t="n">
-        <v>52.34827765289573</v>
+        <v>52.34827765289577</v>
       </c>
       <c r="D34" t="n">
-        <v>52.34827765289573</v>
+        <v>52.34827765289577</v>
       </c>
       <c r="E34" t="n">
-        <v>52.34827765289573</v>
+        <v>52.34827765289577</v>
       </c>
       <c r="F34" t="n">
-        <v>52.34827765289573</v>
+        <v>52.34827765289577</v>
       </c>
       <c r="G34" t="n">
-        <v>50.85391747321464</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H34" t="n">
-        <v>50.85391747321464</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I34" t="n">
-        <v>50.85391747321464</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J34" t="n">
-        <v>50.85391747321464</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="K34" t="n">
         <v>104.1644935890949</v>
@@ -6883,25 +6883,25 @@
         <v>724.8700896544216</v>
       </c>
       <c r="S34" t="n">
-        <v>681.4286309828443</v>
+        <v>681.4286309828442</v>
       </c>
       <c r="T34" t="n">
-        <v>616.241446754598</v>
+        <v>616.2414467545977</v>
       </c>
       <c r="U34" t="n">
-        <v>496.3129746617917</v>
+        <v>402.1849782539185</v>
       </c>
       <c r="V34" t="n">
-        <v>402.829997963248</v>
+        <v>308.7020015553748</v>
       </c>
       <c r="W34" t="n">
-        <v>283.9259242236809</v>
+        <v>189.7979278158076</v>
       </c>
       <c r="X34" t="n">
-        <v>125.7977914542169</v>
+        <v>125.7977914542171</v>
       </c>
       <c r="Y34" t="n">
-        <v>71.01496038952774</v>
+        <v>71.01496038952789</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1355.622868711877</v>
+        <v>1355.622868711878</v>
       </c>
       <c r="C35" t="n">
         <v>1140.941437787719</v>
       </c>
       <c r="D35" t="n">
-        <v>935.3698007579758</v>
+        <v>935.3698007579759</v>
       </c>
       <c r="E35" t="n">
-        <v>707.8364086071164</v>
+        <v>707.8364086071165</v>
       </c>
       <c r="F35" t="n">
-        <v>460.9375456603204</v>
+        <v>460.9375456603205</v>
       </c>
       <c r="G35" t="n">
         <v>212.4716960224776</v>
@@ -6932,16 +6932,16 @@
         <v>50.85391747321462</v>
       </c>
       <c r="I35" t="n">
-        <v>50.85391747321484</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J35" t="n">
-        <v>154.9459054532638</v>
+        <v>154.9459054532639</v>
       </c>
       <c r="K35" t="n">
-        <v>443.1860302481636</v>
+        <v>443.1860302481638</v>
       </c>
       <c r="L35" t="n">
-        <v>850.7433998907121</v>
+        <v>850.7433998907122</v>
       </c>
       <c r="M35" t="n">
         <v>1310.379159876956</v>
@@ -6962,16 +6962,16 @@
         <v>2542.695873660731</v>
       </c>
       <c r="S35" t="n">
-        <v>2531.510852380082</v>
+        <v>2531.510852380083</v>
       </c>
       <c r="T35" t="n">
         <v>2476.093113473632</v>
       </c>
       <c r="U35" t="n">
-        <v>2388.490969663854</v>
+        <v>2388.490969663855</v>
       </c>
       <c r="V35" t="n">
-        <v>2218.764023302829</v>
+        <v>2218.76402330283</v>
       </c>
       <c r="W35" t="n">
         <v>2023.481420903464</v>
@@ -6990,19 +6990,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>920.8593958421042</v>
+        <v>920.8593958421045</v>
       </c>
       <c r="C36" t="n">
-        <v>759.155723083059</v>
+        <v>759.1557230830592</v>
       </c>
       <c r="D36" t="n">
-        <v>620.3170860732712</v>
+        <v>620.3170860732713</v>
       </c>
       <c r="E36" t="n">
-        <v>473.2890761301423</v>
+        <v>473.2890761301419</v>
       </c>
       <c r="F36" t="n">
-        <v>338.5952780800167</v>
+        <v>338.5952780800163</v>
       </c>
       <c r="G36" t="n">
         <v>210.0732042050868</v>
@@ -7017,7 +7017,7 @@
         <v>50.85391747321462</v>
       </c>
       <c r="K36" t="n">
-        <v>68.10001809715425</v>
+        <v>68.1000180971543</v>
       </c>
       <c r="L36" t="n">
         <v>477.85065097758</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>54.71191944818165</v>
+        <v>148.8399158560546</v>
       </c>
       <c r="C37" t="n">
-        <v>52.34827765289571</v>
+        <v>146.4762740607686</v>
       </c>
       <c r="D37" t="n">
-        <v>52.34827765289571</v>
+        <v>52.34827765289577</v>
       </c>
       <c r="E37" t="n">
-        <v>52.34827765289571</v>
+        <v>52.34827765289577</v>
       </c>
       <c r="F37" t="n">
-        <v>52.34827765289571</v>
+        <v>52.34827765289577</v>
       </c>
       <c r="G37" t="n">
         <v>50.85391747321462</v>
@@ -7114,31 +7114,31 @@
         <v>724.8700896544216</v>
       </c>
       <c r="Q37" t="n">
-        <v>700.8242228045381</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="R37" t="n">
-        <v>700.8242228045381</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="S37" t="n">
-        <v>657.3827641329608</v>
+        <v>681.4286309828442</v>
       </c>
       <c r="T37" t="n">
-        <v>522.1134503467243</v>
+        <v>616.2414467545977</v>
       </c>
       <c r="U37" t="n">
-        <v>402.1849782539181</v>
+        <v>496.3129746617914</v>
       </c>
       <c r="V37" t="n">
-        <v>308.7020015553745</v>
+        <v>402.8299979632477</v>
       </c>
       <c r="W37" t="n">
-        <v>189.7979278158073</v>
+        <v>283.9259242236805</v>
       </c>
       <c r="X37" t="n">
-        <v>125.7977914542169</v>
+        <v>219.92578786209</v>
       </c>
       <c r="Y37" t="n">
-        <v>71.01496038952772</v>
+        <v>165.1429567974008</v>
       </c>
     </row>
     <row r="38">
@@ -7151,19 +7151,19 @@
         <v>1355.622868711877</v>
       </c>
       <c r="C38" t="n">
-        <v>1140.941437787718</v>
+        <v>1140.941437787719</v>
       </c>
       <c r="D38" t="n">
-        <v>935.3698007579756</v>
+        <v>935.3698007579758</v>
       </c>
       <c r="E38" t="n">
-        <v>707.8364086071163</v>
+        <v>707.8364086071164</v>
       </c>
       <c r="F38" t="n">
         <v>460.9375456603204</v>
       </c>
       <c r="G38" t="n">
-        <v>212.4716960224775</v>
+        <v>212.4716960224776</v>
       </c>
       <c r="H38" t="n">
         <v>50.85391747321462</v>
@@ -7178,13 +7178,13 @@
         <v>443.1860302481634</v>
       </c>
       <c r="L38" t="n">
-        <v>850.7433998907119</v>
+        <v>850.7433998907122</v>
       </c>
       <c r="M38" t="n">
         <v>1310.379159876956</v>
       </c>
       <c r="N38" t="n">
-        <v>1756.181478599932</v>
+        <v>1756.181478599933</v>
       </c>
       <c r="O38" t="n">
         <v>2124.896977382889</v>
@@ -7199,25 +7199,25 @@
         <v>2542.695873660731</v>
       </c>
       <c r="S38" t="n">
-        <v>2531.510852380083</v>
+        <v>2531.510852380082</v>
       </c>
       <c r="T38" t="n">
         <v>2476.093113473632</v>
       </c>
       <c r="U38" t="n">
-        <v>2388.490969663853</v>
+        <v>2388.490969663854</v>
       </c>
       <c r="V38" t="n">
-        <v>2218.764023302828</v>
+        <v>2218.764023302829</v>
       </c>
       <c r="W38" t="n">
-        <v>2023.481420903463</v>
+        <v>2023.481420903464</v>
       </c>
       <c r="X38" t="n">
-        <v>1808.70360816799</v>
+        <v>1808.703608167991</v>
       </c>
       <c r="Y38" t="n">
-        <v>1582.414080486862</v>
+        <v>1582.414080486863</v>
       </c>
     </row>
     <row r="39">
@@ -7227,34 +7227,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>920.8593958421045</v>
+        <v>920.8593958421037</v>
       </c>
       <c r="C39" t="n">
-        <v>759.1557230830592</v>
+        <v>759.1557230830585</v>
       </c>
       <c r="D39" t="n">
-        <v>620.3170860732713</v>
+        <v>620.3170860732707</v>
       </c>
       <c r="E39" t="n">
-        <v>473.2890761301425</v>
+        <v>473.2890761301419</v>
       </c>
       <c r="F39" t="n">
-        <v>338.5952780800169</v>
+        <v>338.5952780800162</v>
       </c>
       <c r="G39" t="n">
-        <v>210.0732042050874</v>
+        <v>210.0732042050869</v>
       </c>
       <c r="H39" t="n">
-        <v>112.1289883137705</v>
+        <v>112.1289883137699</v>
       </c>
       <c r="I39" t="n">
         <v>50.85391747321462</v>
       </c>
       <c r="J39" t="n">
-        <v>50.85391747321462</v>
+        <v>68.1000180971543</v>
       </c>
       <c r="K39" t="n">
-        <v>313.014426141483</v>
+        <v>68.1000180971543</v>
       </c>
       <c r="L39" t="n">
         <v>477.85065097758</v>
@@ -7278,19 +7278,19 @@
         <v>2495.728130619192</v>
       </c>
       <c r="S39" t="n">
-        <v>2346.762917934842</v>
+        <v>2346.762917934841</v>
       </c>
       <c r="T39" t="n">
-        <v>2158.909856151447</v>
+        <v>2158.909856151446</v>
       </c>
       <c r="U39" t="n">
-        <v>1940.428644414348</v>
+        <v>1940.428644414347</v>
       </c>
       <c r="V39" t="n">
-        <v>1712.033021862682</v>
+        <v>1712.033021862681</v>
       </c>
       <c r="W39" t="n">
-        <v>1470.717153095992</v>
+        <v>1470.717153095991</v>
       </c>
       <c r="X39" t="n">
         <v>1272.800164973786</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>54.7119194481816</v>
+        <v>148.8399158560548</v>
       </c>
       <c r="C40" t="n">
-        <v>52.34827765289568</v>
+        <v>146.4762740607688</v>
       </c>
       <c r="D40" t="n">
-        <v>52.34827765289568</v>
+        <v>52.34827765289574</v>
       </c>
       <c r="E40" t="n">
-        <v>52.34827765289568</v>
+        <v>52.34827765289574</v>
       </c>
       <c r="F40" t="n">
-        <v>52.34827765289568</v>
+        <v>52.34827765289574</v>
       </c>
       <c r="G40" t="n">
         <v>50.85391747321462</v>
@@ -7357,25 +7357,25 @@
         <v>724.8700896544216</v>
       </c>
       <c r="S40" t="n">
-        <v>681.4286309828443</v>
+        <v>681.4286309828442</v>
       </c>
       <c r="T40" t="n">
-        <v>616.241446754598</v>
+        <v>616.2414467545977</v>
       </c>
       <c r="U40" t="n">
-        <v>496.3129746617917</v>
+        <v>496.3129746617914</v>
       </c>
       <c r="V40" t="n">
-        <v>402.8299979632481</v>
+        <v>402.8299979632478</v>
       </c>
       <c r="W40" t="n">
-        <v>283.925924223681</v>
+        <v>283.9259242236806</v>
       </c>
       <c r="X40" t="n">
-        <v>125.7977914542167</v>
+        <v>219.9257878620901</v>
       </c>
       <c r="Y40" t="n">
-        <v>71.01496038952763</v>
+        <v>165.1429567974009</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1355.622868711877</v>
+        <v>1355.622868711878</v>
       </c>
       <c r="C41" t="n">
-        <v>1140.941437787718</v>
+        <v>1140.941437787719</v>
       </c>
       <c r="D41" t="n">
-        <v>935.3698007579756</v>
+        <v>935.369800757976</v>
       </c>
       <c r="E41" t="n">
-        <v>707.8364086071163</v>
+        <v>707.8364086071167</v>
       </c>
       <c r="F41" t="n">
-        <v>460.9375456603204</v>
+        <v>460.9375456603208</v>
       </c>
       <c r="G41" t="n">
         <v>212.4716960224775</v>
@@ -7409,19 +7409,19 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J41" t="n">
-        <v>154.9459054532633</v>
+        <v>154.9459054532635</v>
       </c>
       <c r="K41" t="n">
-        <v>443.1860302481632</v>
+        <v>443.1860302481634</v>
       </c>
       <c r="L41" t="n">
-        <v>850.7433998907119</v>
+        <v>850.7433998907118</v>
       </c>
       <c r="M41" t="n">
         <v>1310.379159876956</v>
       </c>
       <c r="N41" t="n">
-        <v>1756.181478599932</v>
+        <v>1756.181478599933</v>
       </c>
       <c r="O41" t="n">
         <v>2124.896977382889</v>
@@ -7488,10 +7488,10 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J42" t="n">
-        <v>50.85391747321462</v>
+        <v>68.1000180971543</v>
       </c>
       <c r="K42" t="n">
-        <v>313.014426141483</v>
+        <v>68.1000180971543</v>
       </c>
       <c r="L42" t="n">
         <v>477.85065097758</v>
@@ -7600,16 +7600,16 @@
         <v>616.241446754598</v>
       </c>
       <c r="U43" t="n">
-        <v>402.1849782539177</v>
+        <v>496.3129746617918</v>
       </c>
       <c r="V43" t="n">
-        <v>308.7020015553741</v>
+        <v>402.8299979632482</v>
       </c>
       <c r="W43" t="n">
-        <v>189.797927815807</v>
+        <v>283.9259242236811</v>
       </c>
       <c r="X43" t="n">
-        <v>125.7977914542166</v>
+        <v>219.9257878620907</v>
       </c>
       <c r="Y43" t="n">
         <v>71.01496038952754</v>
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1355.622868711877</v>
+        <v>1355.622868711878</v>
       </c>
       <c r="C44" t="n">
-        <v>1140.941437787718</v>
+        <v>1140.941437787719</v>
       </c>
       <c r="D44" t="n">
-        <v>935.3698007579756</v>
+        <v>935.3698007579758</v>
       </c>
       <c r="E44" t="n">
-        <v>707.836408607116</v>
+        <v>707.8364086071164</v>
       </c>
       <c r="F44" t="n">
-        <v>460.9375456603203</v>
+        <v>460.9375456603205</v>
       </c>
       <c r="G44" t="n">
-        <v>212.4716960224775</v>
+        <v>212.4716960224776</v>
       </c>
       <c r="H44" t="n">
         <v>50.85391747321462</v>
@@ -7682,16 +7682,16 @@
         <v>2388.490969663854</v>
       </c>
       <c r="V44" t="n">
-        <v>2218.764023302829</v>
+        <v>2218.76402330283</v>
       </c>
       <c r="W44" t="n">
-        <v>2023.481420903463</v>
+        <v>2023.481420903464</v>
       </c>
       <c r="X44" t="n">
         <v>1808.703608167991</v>
       </c>
       <c r="Y44" t="n">
-        <v>1582.414080486862</v>
+        <v>1582.414080486863</v>
       </c>
     </row>
     <row r="45">
@@ -7701,10 +7701,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>920.8593958421039</v>
+        <v>920.8593958421037</v>
       </c>
       <c r="C45" t="n">
-        <v>759.1557230830587</v>
+        <v>759.1557230830585</v>
       </c>
       <c r="D45" t="n">
         <v>620.3170860732707</v>
@@ -7713,10 +7713,10 @@
         <v>473.2890761301419</v>
       </c>
       <c r="F45" t="n">
-        <v>338.5952780800163</v>
+        <v>338.5952780800162</v>
       </c>
       <c r="G45" t="n">
-        <v>210.0732042050868</v>
+        <v>210.0732042050869</v>
       </c>
       <c r="H45" t="n">
         <v>112.1289883137699</v>
@@ -7725,13 +7725,13 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J45" t="n">
-        <v>68.10001809715379</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="K45" t="n">
-        <v>68.10001809715379</v>
+        <v>68.1000180971543</v>
       </c>
       <c r="L45" t="n">
-        <v>477.8506509775796</v>
+        <v>477.85065097758</v>
       </c>
       <c r="M45" t="n">
         <v>1014.14682775868</v>
@@ -7743,10 +7743,10 @@
         <v>2018.368674122672</v>
       </c>
       <c r="P45" t="n">
-        <v>2359.098500262958</v>
+        <v>2359.098500262959</v>
       </c>
       <c r="Q45" t="n">
-        <v>2542.69587366073</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="R45" t="n">
         <v>2495.728130619192</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>54.7119194481816</v>
+        <v>54.71191944818165</v>
       </c>
       <c r="C46" t="n">
-        <v>52.34827765289568</v>
+        <v>52.34827765289571</v>
       </c>
       <c r="D46" t="n">
-        <v>52.34827765289568</v>
+        <v>52.34827765289571</v>
       </c>
       <c r="E46" t="n">
-        <v>52.34827765289568</v>
+        <v>52.34827765289571</v>
       </c>
       <c r="F46" t="n">
-        <v>52.34827765289568</v>
+        <v>52.34827765289571</v>
       </c>
       <c r="G46" t="n">
         <v>50.85391747321462</v>
@@ -7840,16 +7840,16 @@
         <v>496.3129746617917</v>
       </c>
       <c r="V46" t="n">
-        <v>402.8299979632481</v>
+        <v>402.829997963248</v>
       </c>
       <c r="W46" t="n">
-        <v>283.925924223681</v>
+        <v>283.9259242236809</v>
       </c>
       <c r="X46" t="n">
-        <v>219.9257878620906</v>
+        <v>125.7977914542169</v>
       </c>
       <c r="Y46" t="n">
-        <v>71.01496038952763</v>
+        <v>71.01496038952772</v>
       </c>
     </row>
   </sheetData>
@@ -7988,16 +7988,16 @@
         <v>187.1563144971591</v>
       </c>
       <c r="N2" t="n">
-        <v>276.8103844019175</v>
+        <v>280.6172168326422</v>
       </c>
       <c r="O2" t="n">
-        <v>281.1738994405315</v>
+        <v>277.3670670098088</v>
       </c>
       <c r="P2" t="n">
-        <v>282.0959117115675</v>
+        <v>282.0959117115685</v>
       </c>
       <c r="Q2" t="n">
-        <v>274.8424756834012</v>
+        <v>274.8424756834023</v>
       </c>
       <c r="R2" t="n">
         <v>85.43134583487716</v>
@@ -8067,16 +8067,16 @@
         <v>115.4839025616399</v>
       </c>
       <c r="N3" t="n">
-        <v>197.1274112973957</v>
+        <v>197.1274112973967</v>
       </c>
       <c r="O3" t="n">
-        <v>210.0785512715221</v>
+        <v>210.0785512715232</v>
       </c>
       <c r="P3" t="n">
-        <v>203.0733086845543</v>
+        <v>203.0733086845554</v>
       </c>
       <c r="Q3" t="n">
-        <v>207.9542941053035</v>
+        <v>207.9542941053045</v>
       </c>
       <c r="R3" t="n">
         <v>59.17817075471706</v>
@@ -8137,19 +8137,19 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K4" t="n">
-        <v>131.6310134749263</v>
+        <v>104.82327226356</v>
       </c>
       <c r="L4" t="n">
-        <v>109.5937994785061</v>
+        <v>136.4015406898734</v>
       </c>
       <c r="M4" t="n">
-        <v>207.0963021178401</v>
+        <v>207.0963021178412</v>
       </c>
       <c r="N4" t="n">
-        <v>197.963607538413</v>
+        <v>197.963607538414</v>
       </c>
       <c r="O4" t="n">
-        <v>206.7150401525333</v>
+        <v>206.7150401525343</v>
       </c>
       <c r="P4" t="n">
         <v>175.5085323082534</v>
@@ -8225,16 +8225,16 @@
         <v>187.1563144971591</v>
       </c>
       <c r="N5" t="n">
-        <v>276.8103844019175</v>
+        <v>276.810384401918</v>
       </c>
       <c r="O5" t="n">
-        <v>281.1738994405315</v>
+        <v>281.1738994405321</v>
       </c>
       <c r="P5" t="n">
-        <v>282.0959117115675</v>
+        <v>282.0959117115681</v>
       </c>
       <c r="Q5" t="n">
-        <v>274.8424756834012</v>
+        <v>274.8424756834018</v>
       </c>
       <c r="R5" t="n">
         <v>85.43134583487716</v>
@@ -8304,16 +8304,16 @@
         <v>115.4839025616399</v>
       </c>
       <c r="N6" t="n">
-        <v>197.1274112973957</v>
+        <v>197.1274112973962</v>
       </c>
       <c r="O6" t="n">
-        <v>210.0785512715221</v>
+        <v>210.0785512715227</v>
       </c>
       <c r="P6" t="n">
-        <v>203.0733086845543</v>
+        <v>203.0733086845549</v>
       </c>
       <c r="Q6" t="n">
-        <v>207.9542941053035</v>
+        <v>207.9542941053041</v>
       </c>
       <c r="R6" t="n">
         <v>59.17817075471706</v>
@@ -8377,16 +8377,16 @@
         <v>104.82327226356</v>
       </c>
       <c r="L7" t="n">
-        <v>136.4015406898724</v>
+        <v>136.401540689873</v>
       </c>
       <c r="M7" t="n">
-        <v>207.0963021178401</v>
+        <v>207.0963021178407</v>
       </c>
       <c r="N7" t="n">
-        <v>197.963607538413</v>
+        <v>197.9636075384136</v>
       </c>
       <c r="O7" t="n">
-        <v>206.7150401525333</v>
+        <v>206.7150401525338</v>
       </c>
       <c r="P7" t="n">
         <v>175.5085323082534</v>
@@ -8459,10 +8459,10 @@
         <v>191.5602121631146</v>
       </c>
       <c r="M8" t="n">
-        <v>499.9278096172409</v>
+        <v>507.0325994064793</v>
       </c>
       <c r="N8" t="n">
-        <v>506.2743990815493</v>
+        <v>499.1696092923152</v>
       </c>
       <c r="O8" t="n">
         <v>495.0402356415689</v>
@@ -8532,19 +8532,19 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K9" t="n">
-        <v>274.3117688260481</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L9" t="n">
         <v>112.5754335711478</v>
       </c>
       <c r="M9" t="n">
-        <v>435.3601874709591</v>
+        <v>435.3601874709601</v>
       </c>
       <c r="N9" t="n">
-        <v>106.7151410677083</v>
+        <v>426.5914259770286</v>
       </c>
       <c r="O9" t="n">
-        <v>435.7357335204302</v>
+        <v>278.1750482704947</v>
       </c>
       <c r="P9" t="n">
         <v>414.0015992319183</v>
@@ -8769,7 +8769,7 @@
         <v>83.74785933339987</v>
       </c>
       <c r="K12" t="n">
-        <v>96.4165171624843</v>
+        <v>96.41651716248437</v>
       </c>
       <c r="L12" t="n">
         <v>482.0924488944969</v>
@@ -9006,10 +9006,10 @@
         <v>83.74785933339987</v>
       </c>
       <c r="K15" t="n">
-        <v>96.41651716248475</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
-        <v>482.0924488944969</v>
+        <v>234.7041579406295</v>
       </c>
       <c r="M15" t="n">
         <v>605.4165828749999</v>
@@ -9240,13 +9240,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>83.74785933339987</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
-        <v>96.41651716248475</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L18" t="n">
-        <v>482.0924488944969</v>
+        <v>154.5336713314979</v>
       </c>
       <c r="M18" t="n">
         <v>605.4165828749999</v>
@@ -9714,13 +9714,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>163.9183459425315</v>
+        <v>83.74785933339987</v>
       </c>
       <c r="K24" t="n">
-        <v>78.99621350193966</v>
+        <v>96.41651716248482</v>
       </c>
       <c r="L24" t="n">
-        <v>419.3422659459104</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M24" t="n">
         <v>605.4165828749999</v>
@@ -9954,7 +9954,7 @@
         <v>83.74785933339987</v>
       </c>
       <c r="K27" t="n">
-        <v>96.4165171624845</v>
+        <v>96.41651716248455</v>
       </c>
       <c r="L27" t="n">
         <v>482.0924488944969</v>
@@ -10188,13 +10188,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>83.74785933339987</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K30" t="n">
-        <v>96.41651716248448</v>
+        <v>78.99621350193968</v>
       </c>
       <c r="L30" t="n">
-        <v>482.0924488944969</v>
+        <v>419.3422659459101</v>
       </c>
       <c r="M30" t="n">
         <v>605.4165828749999</v>
@@ -10425,10 +10425,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>83.74785933339987</v>
+        <v>101.1681629939445</v>
       </c>
       <c r="K33" t="n">
-        <v>96.41651716248427</v>
+        <v>78.99621350193968</v>
       </c>
       <c r="L33" t="n">
         <v>482.0924488944969</v>
@@ -10665,7 +10665,7 @@
         <v>83.74785933339987</v>
       </c>
       <c r="K36" t="n">
-        <v>96.41651716248475</v>
+        <v>96.41651716248482</v>
       </c>
       <c r="L36" t="n">
         <v>482.0924488944969</v>
@@ -10899,13 +10899,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>83.74785933339987</v>
+        <v>101.168162993945</v>
       </c>
       <c r="K39" t="n">
-        <v>343.8048081163522</v>
+        <v>78.99621350193968</v>
       </c>
       <c r="L39" t="n">
-        <v>234.7041579406295</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M39" t="n">
         <v>605.4165828749999</v>
@@ -11136,13 +11136,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>83.74785933339987</v>
+        <v>101.168162993945</v>
       </c>
       <c r="K42" t="n">
-        <v>343.8048081163522</v>
+        <v>78.99621350193968</v>
       </c>
       <c r="L42" t="n">
-        <v>234.7041579406295</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M42" t="n">
         <v>605.4165828749999</v>
@@ -11373,10 +11373,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>101.1681629939445</v>
+        <v>83.74785933339987</v>
       </c>
       <c r="K45" t="n">
-        <v>78.99621350193966</v>
+        <v>96.41651716248482</v>
       </c>
       <c r="L45" t="n">
         <v>482.0924488944969</v>
@@ -23261,22 +23261,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>217.1179717955482</v>
+        <v>198.9049354668653</v>
       </c>
       <c r="E11" t="n">
         <v>302.2405586935323</v>
       </c>
       <c r="F11" t="n">
-        <v>321.4123747815095</v>
+        <v>321.4123747815094</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>322.963691605646</v>
       </c>
       <c r="H11" t="n">
-        <v>236.9841012279519</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>67.76655404901214</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>73.11219312988652</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>79.32250584151464</v>
+        <v>79.32250584151457</v>
       </c>
       <c r="D13" t="n">
-        <v>62.94387023909303</v>
+        <v>62.94387023909296</v>
       </c>
       <c r="E13" t="n">
-        <v>61.89162009487248</v>
+        <v>61.89162009487241</v>
       </c>
       <c r="F13" t="n">
-        <v>62.35854442305879</v>
+        <v>7.997474000254783</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>78.46191704206576</v>
       </c>
       <c r="H13" t="n">
-        <v>67.65833440264899</v>
+        <v>67.65833440264892</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>49.0113465106235</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23498,19 +23498,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>198.9049354668641</v>
       </c>
       <c r="E14" t="n">
-        <v>264.161392932446</v>
+        <v>302.2405586935323</v>
       </c>
       <c r="F14" t="n">
-        <v>321.4123747815095</v>
+        <v>321.4123747815094</v>
       </c>
       <c r="G14" t="n">
         <v>322.963691605646</v>
       </c>
       <c r="H14" t="n">
-        <v>236.9841012279519</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>8.582799816289381</v>
       </c>
       <c r="C16" t="n">
-        <v>24.96143541871263</v>
+        <v>79.32250584151457</v>
       </c>
       <c r="D16" t="n">
-        <v>62.94387023909303</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>61.89162009487248</v>
+        <v>61.89162009487241</v>
       </c>
       <c r="F16" t="n">
-        <v>62.35854442305879</v>
+        <v>62.35854442305872</v>
       </c>
       <c r="G16" t="n">
-        <v>78.46191704206583</v>
+        <v>78.46191704206576</v>
       </c>
       <c r="H16" t="n">
-        <v>67.65833440264899</v>
+        <v>67.65833440264892</v>
       </c>
       <c r="I16" t="n">
-        <v>49.01134651062358</v>
+        <v>49.01134651062351</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
     </row>
     <row r="21">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>31574.98834086492</v>
+        <v>31574.98834086527</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>70095.89052197833</v>
+        <v>70095.89052197849</v>
       </c>
       <c r="E3" t="n">
-        <v>241499.6676820822</v>
+        <v>241499.6676820819</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>61586.00037134529</v>
+        <v>61586.00037134514</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>107374.4157946589</v>
+        <v>107374.4157946594</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>108783.1384666377</v>
+        <v>108783.1384666375</v>
       </c>
       <c r="M3" t="n">
-        <v>78698.04592039513</v>
+        <v>78698.04592039491</v>
       </c>
       <c r="N3" t="n">
         <v>2.273736754432321e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>23680.70510584503</v>
+        <v>23680.70510584524</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,31 +26415,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>345450.4514975112</v>
+        <v>345450.451497511</v>
       </c>
       <c r="C4" t="n">
-        <v>345450.4514975113</v>
+        <v>345450.4514975111</v>
       </c>
       <c r="D4" t="n">
-        <v>302199.7102252888</v>
+        <v>302199.7102252886</v>
       </c>
       <c r="E4" t="n">
-        <v>172329.4883631854</v>
+        <v>172329.4883631855</v>
       </c>
       <c r="F4" t="n">
-        <v>172329.4883631854</v>
+        <v>172329.4883631855</v>
       </c>
       <c r="G4" t="n">
         <v>229756.4510440663</v>
       </c>
       <c r="H4" t="n">
-        <v>229756.4510440664</v>
+        <v>229756.4510440663</v>
       </c>
       <c r="I4" t="n">
-        <v>229756.4510440664</v>
+        <v>229756.4510440663</v>
       </c>
       <c r="J4" t="n">
-        <v>230905.3765422571</v>
+        <v>230905.3765422572</v>
       </c>
       <c r="K4" t="n">
         <v>230905.3765422572</v>
@@ -26467,37 +26467,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>39356.12144175298</v>
+        <v>39356.12144175305</v>
       </c>
       <c r="C5" t="n">
-        <v>39356.12144175298</v>
+        <v>39356.12144175302</v>
       </c>
       <c r="D5" t="n">
-        <v>53076.07812248661</v>
+        <v>53076.07812248667</v>
       </c>
       <c r="E5" t="n">
         <v>48168.48921240021</v>
       </c>
       <c r="F5" t="n">
-        <v>48168.48921240021</v>
+        <v>48168.48921240022</v>
       </c>
       <c r="G5" t="n">
-        <v>54640.3310439235</v>
+        <v>54640.33104392349</v>
       </c>
       <c r="H5" t="n">
-        <v>54640.3310439235</v>
+        <v>54640.33104392349</v>
       </c>
       <c r="I5" t="n">
-        <v>54640.3310439235</v>
+        <v>54640.33104392349</v>
       </c>
       <c r="J5" t="n">
-        <v>63400.51747149068</v>
+        <v>63400.5174714907</v>
       </c>
       <c r="K5" t="n">
-        <v>63400.5174714907</v>
+        <v>63400.51747149072</v>
       </c>
       <c r="L5" t="n">
-        <v>54640.33104392351</v>
+        <v>54640.33104392349</v>
       </c>
       <c r="M5" t="n">
         <v>54640.33104392349</v>
@@ -26519,22 +26519,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-416381.5612801291</v>
+        <v>-416381.5612801293</v>
       </c>
       <c r="C6" t="n">
-        <v>-384806.5729392643</v>
+        <v>-384806.5729392639</v>
       </c>
       <c r="D6" t="n">
-        <v>-425371.6788697537</v>
+        <v>-425371.6788697538</v>
       </c>
       <c r="E6" t="n">
-        <v>-461997.6452576678</v>
+        <v>-462250.0412723044</v>
       </c>
       <c r="F6" t="n">
-        <v>-220497.9775755856</v>
+        <v>-220750.3735902225</v>
       </c>
       <c r="G6" t="n">
-        <v>-345982.7824593352</v>
+        <v>-345982.7824593349</v>
       </c>
       <c r="H6" t="n">
         <v>-284396.7820879898</v>
@@ -26543,22 +26543,22 @@
         <v>-284396.7820879898</v>
       </c>
       <c r="J6" t="n">
-        <v>-401680.3098084067</v>
+        <v>-401680.3098084073</v>
       </c>
       <c r="K6" t="n">
         <v>-294305.8940137479</v>
       </c>
       <c r="L6" t="n">
-        <v>-393179.9205546275</v>
+        <v>-393179.9205546273</v>
       </c>
       <c r="M6" t="n">
-        <v>-363094.828008385</v>
+        <v>-363094.8280083847</v>
       </c>
       <c r="N6" t="n">
         <v>-284396.7820879898</v>
       </c>
       <c r="O6" t="n">
-        <v>-308077.4871938349</v>
+        <v>-308077.4871938351</v>
       </c>
       <c r="P6" t="n">
         <v>-284396.7820879898</v>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>88.59730400142186</v>
+        <v>88.59730400142193</v>
       </c>
       <c r="F2" t="n">
-        <v>88.59730400142186</v>
+        <v>88.59730400142193</v>
       </c>
       <c r="G2" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="H2" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="I2" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="J2" t="n">
         <v>106.5833818464879</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>95.01032947988872</v>
+        <v>95.0103294798887</v>
       </c>
       <c r="F3" t="n">
-        <v>95.01032947988872</v>
+        <v>95.0103294798887</v>
       </c>
       <c r="G3" t="n">
-        <v>95.01032947988872</v>
+        <v>95.0103294798887</v>
       </c>
       <c r="H3" t="n">
-        <v>95.01032947988872</v>
+        <v>95.01032947988871</v>
       </c>
       <c r="I3" t="n">
-        <v>95.01032947988872</v>
+        <v>95.0103294798887</v>
       </c>
       <c r="J3" t="n">
-        <v>95.01032947988872</v>
+        <v>95.0103294798887</v>
       </c>
       <c r="K3" t="n">
-        <v>95.01032947988872</v>
+        <v>95.0103294798887</v>
       </c>
       <c r="L3" t="n">
-        <v>95.01032947988872</v>
+        <v>95.0103294798887</v>
       </c>
       <c r="M3" t="n">
-        <v>95.01032947988872</v>
+        <v>95.0103294798887</v>
       </c>
       <c r="N3" t="n">
-        <v>95.01032947988872</v>
+        <v>95.0103294798887</v>
       </c>
       <c r="O3" t="n">
-        <v>95.01032947988872</v>
+        <v>95.0103294798887</v>
       </c>
       <c r="P3" t="n">
-        <v>95.01032947988872</v>
+        <v>95.0103294798887</v>
       </c>
     </row>
     <row r="4">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>94.21910266041101</v>
+        <v>94.21910266041205</v>
       </c>
       <c r="C4" t="n">
-        <v>94.21910266041101</v>
+        <v>94.21910266041159</v>
       </c>
       <c r="D4" t="n">
-        <v>319.8762849093192</v>
+        <v>319.8762849093202</v>
       </c>
       <c r="E4" t="n">
         <v>635.6739684151826</v>
@@ -26811,13 +26811,13 @@
         <v>635.6739684151827</v>
       </c>
       <c r="J4" t="n">
-        <v>861.3311506640908</v>
+        <v>861.3311506640911</v>
       </c>
       <c r="K4" t="n">
-        <v>861.3311506640911</v>
+        <v>861.3311506640913</v>
       </c>
       <c r="L4" t="n">
-        <v>635.6739684151829</v>
+        <v>635.6739684151827</v>
       </c>
       <c r="M4" t="n">
         <v>635.6739684151827</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>88.59730400142186</v>
+        <v>88.59730400142193</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>76.98250046418161</v>
+        <v>76.98250046418143</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.60088138230626</v>
+        <v>29.60088138230647</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>135.9789230832971</v>
+        <v>135.9789230832969</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>29.60088138230628</v>
+        <v>29.60088138230655</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>95.01032947988872</v>
+        <v>95.0103294798887</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>94.21910266041101</v>
+        <v>94.21910266041205</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>225.6571822489082</v>
+        <v>225.6571822489087</v>
       </c>
       <c r="E4" t="n">
-        <v>315.7976835058634</v>
+        <v>315.7976835058623</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>319.8762849093192</v>
+        <v>319.8762849093205</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>315.7976835058632</v>
+        <v>315.7976835058623</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>88.59730400142186</v>
+        <v>88.59730400142193</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>76.98250046418161</v>
+        <v>76.98250046418143</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>29.60088138230626</v>
+        <v>29.60088138230647</v>
       </c>
       <c r="P2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>94.21910266041101</v>
+        <v>94.21910266041205</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>225.6571822489082</v>
+        <v>225.6571822489087</v>
       </c>
       <c r="M4" t="n">
-        <v>315.7976835058634</v>
+        <v>315.7976835058623</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>295.8840014624279</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
-        <v>274.8766224646376</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>315.7905761225193</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>329.4930616586638</v>
+        <v>235.2739589982518</v>
       </c>
       <c r="I2" t="n">
-        <v>171.0890268032919</v>
+        <v>100.0437878603549</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
         <v>185.3566856159496</v>
@@ -27439,7 +27439,7 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
-        <v>293.3868216596644</v>
+        <v>264.6904781805629</v>
       </c>
       <c r="X2" t="n">
         <v>378.2098390737216</v>
@@ -27458,7 +27458,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C3" t="n">
-        <v>65.86753337104383</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D3" t="n">
         <v>137.45025063969</v>
@@ -27503,22 +27503,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
-        <v>127.4697327101008</v>
+        <v>57.05238945697506</v>
       </c>
       <c r="T3" t="n">
-        <v>186.7982527956746</v>
+        <v>92.57915013526259</v>
       </c>
       <c r="U3" t="n">
-        <v>216.3098444776729</v>
+        <v>133.321658854382</v>
       </c>
       <c r="V3" t="n">
-        <v>131.8925636657384</v>
+        <v>131.8925636657373</v>
       </c>
       <c r="W3" t="n">
-        <v>144.683607418612</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X3" t="n">
         <v>195.9378182409833</v>
@@ -27537,7 +27537,7 @@
         <v>181.719814997536</v>
       </c>
       <c r="C4" t="n">
-        <v>73.70070718252549</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D4" t="n">
         <v>151.5411742405149</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>148.0265635717656</v>
@@ -27588,22 +27588,22 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
-        <v>136.6280609920669</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U4" t="n">
-        <v>284.3183371157911</v>
+        <v>239.482119425348</v>
       </c>
       <c r="V4" t="n">
-        <v>175.1397657738716</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W4" t="n">
-        <v>189.0757348073639</v>
+        <v>189.0757348073628</v>
       </c>
       <c r="X4" t="n">
-        <v>228.939939463578</v>
+        <v>134.7208368031659</v>
       </c>
       <c r="Y4" t="n">
-        <v>219.8148072196457</v>
+        <v>125.5957045592336</v>
       </c>
     </row>
     <row r="5">
@@ -27616,10 +27616,10 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
-        <v>378.1144210805207</v>
+        <v>283.8953184201091</v>
       </c>
       <c r="D5" t="n">
-        <v>274.8766224646376</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
         <v>390.8378626949542</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>28.69634347910048</v>
+        <v>28.69634347909992</v>
       </c>
       <c r="S5" t="n">
-        <v>185.3566856159496</v>
+        <v>91.13758295553798</v>
       </c>
       <c r="T5" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
-        <v>252.3364829231459</v>
+        <v>158.1173802627343</v>
       </c>
       <c r="V5" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
-        <v>264.690478180564</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
-        <v>295.3873342095093</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="6">
@@ -27701,7 +27701,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E6" t="n">
-        <v>51.33862718328646</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F6" t="n">
         <v>133.3468600696244</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
-        <v>186.7982527956746</v>
+        <v>162.9964933883878</v>
       </c>
       <c r="U6" t="n">
-        <v>122.0907418172619</v>
+        <v>122.0907418172613</v>
       </c>
       <c r="V6" t="n">
-        <v>131.8925636657384</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W6" t="n">
         <v>238.9027100790231</v>
       </c>
       <c r="X6" t="n">
-        <v>195.9378182409833</v>
+        <v>101.7187155805718</v>
       </c>
       <c r="Y6" t="n">
-        <v>107.607927463627</v>
+        <v>96.37701042650535</v>
       </c>
     </row>
     <row r="7">
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>53.80746091135455</v>
+        <v>53.80746091135397</v>
       </c>
       <c r="S7" t="n">
-        <v>211.5726649703493</v>
+        <v>166.7364472799066</v>
       </c>
       <c r="T7" t="n">
-        <v>186.0109459620359</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U7" t="n">
-        <v>190.0992344553801</v>
+        <v>190.0992344553795</v>
       </c>
       <c r="V7" t="n">
-        <v>163.9088487367506</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W7" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X7" t="n">
-        <v>228.939939463578</v>
+        <v>134.7208368031664</v>
       </c>
       <c r="Y7" t="n">
         <v>219.8148072196457</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>70.22681921351978</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>369.0957251250487</v>
+        <v>109.3013188402045</v>
       </c>
       <c r="E8" t="n">
         <v>390.8378626949542</v>
@@ -27868,7 +27868,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>9.616776749344638</v>
+        <v>9.616776749343558</v>
       </c>
       <c r="I8" t="n">
         <v>171.0890268032919</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
         <v>185.3566856159496</v>
@@ -27910,16 +27910,16 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
-        <v>333.6094813630181</v>
+        <v>13.73319645369781</v>
       </c>
       <c r="W8" t="n">
-        <v>39.0332959316558</v>
+        <v>39.03329593165472</v>
       </c>
       <c r="X8" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
-        <v>219.5439342241825</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="9">
@@ -27932,7 +27932,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -27941,16 +27941,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,19 +27980,19 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
-        <v>76.51197841772134</v>
+        <v>146.7622972760553</v>
       </c>
       <c r="U9" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -28053,28 +28053,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>198.976013297129</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
         <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X10" t="n">
-        <v>228.939939463578</v>
+        <v>146.5077695718799</v>
       </c>
       <c r="Y10" t="n">
         <v>219.8148072196457</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>88.59730400142186</v>
+        <v>88.59730400142193</v>
       </c>
       <c r="C11" t="n">
-        <v>88.59730400142186</v>
+        <v>88.59730400142193</v>
       </c>
       <c r="D11" t="n">
-        <v>88.59730400142186</v>
+        <v>88.59730400142193</v>
       </c>
       <c r="E11" t="n">
-        <v>88.59730400142186</v>
+        <v>88.59730400142193</v>
       </c>
       <c r="F11" t="n">
-        <v>88.59730400142186</v>
+        <v>88.59730400142193</v>
       </c>
       <c r="G11" t="n">
-        <v>88.59730400142186</v>
+        <v>88.59730400142193</v>
       </c>
       <c r="H11" t="n">
-        <v>88.59730400142186</v>
+        <v>88.59730400142193</v>
       </c>
       <c r="I11" t="n">
-        <v>88.59730400142186</v>
+        <v>88.59730400142193</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>65.73916953180444</v>
       </c>
       <c r="S11" t="n">
-        <v>88.59730400142186</v>
+        <v>88.59730400142193</v>
       </c>
       <c r="T11" t="n">
-        <v>88.59730400142186</v>
+        <v>88.59730400142193</v>
       </c>
       <c r="U11" t="n">
-        <v>88.59730400142186</v>
+        <v>88.59730400142193</v>
       </c>
       <c r="V11" t="n">
-        <v>88.59730400142186</v>
+        <v>88.59730400142193</v>
       </c>
       <c r="W11" t="n">
-        <v>88.59730400142186</v>
+        <v>88.59730400142193</v>
       </c>
       <c r="X11" t="n">
-        <v>88.59730400142186</v>
+        <v>88.59730400142193</v>
       </c>
       <c r="Y11" t="n">
-        <v>88.59730400142186</v>
+        <v>88.59730400142193</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>88.59730400142186</v>
+        <v>88.59730400142193</v>
       </c>
       <c r="C13" t="n">
-        <v>88.59730400142186</v>
+        <v>88.59730400142193</v>
       </c>
       <c r="D13" t="n">
-        <v>88.59730400142186</v>
+        <v>88.59730400142193</v>
       </c>
       <c r="E13" t="n">
-        <v>88.59730400142186</v>
+        <v>88.59730400142193</v>
       </c>
       <c r="F13" t="n">
-        <v>88.59730400142186</v>
+        <v>88.59730400142193</v>
       </c>
       <c r="G13" t="n">
-        <v>88.59730400142186</v>
+        <v>88.59730400142193</v>
       </c>
       <c r="H13" t="n">
-        <v>88.59730400142186</v>
+        <v>88.59730400142193</v>
       </c>
       <c r="I13" t="n">
-        <v>88.59730400142186</v>
+        <v>88.59730400142193</v>
       </c>
       <c r="J13" t="n">
-        <v>88.59730400142186</v>
+        <v>88.59730400142193</v>
       </c>
       <c r="K13" t="n">
-        <v>88.59730400142186</v>
+        <v>88.59730400142193</v>
       </c>
       <c r="L13" t="n">
-        <v>88.59730400142186</v>
+        <v>88.59730400142193</v>
       </c>
       <c r="M13" t="n">
-        <v>88.59730400142186</v>
+        <v>88.59730400142193</v>
       </c>
       <c r="N13" t="n">
-        <v>88.59730400142186</v>
+        <v>88.59730400142193</v>
       </c>
       <c r="O13" t="n">
-        <v>88.59730400142186</v>
+        <v>88.59730400142193</v>
       </c>
       <c r="P13" t="n">
-        <v>88.59730400142186</v>
+        <v>88.59730400142193</v>
       </c>
       <c r="Q13" t="n">
-        <v>88.59730400142186</v>
+        <v>88.59730400142193</v>
       </c>
       <c r="R13" t="n">
-        <v>88.59730400142186</v>
+        <v>88.59730400142193</v>
       </c>
       <c r="S13" t="n">
-        <v>88.59730400142186</v>
+        <v>88.59730400142193</v>
       </c>
       <c r="T13" t="n">
-        <v>88.59730400142186</v>
+        <v>88.59730400142193</v>
       </c>
       <c r="U13" t="n">
-        <v>88.59730400142186</v>
+        <v>88.59730400142193</v>
       </c>
       <c r="V13" t="n">
-        <v>88.59730400142186</v>
+        <v>88.59730400142193</v>
       </c>
       <c r="W13" t="n">
-        <v>88.59730400142186</v>
+        <v>88.59730400142193</v>
       </c>
       <c r="X13" t="n">
-        <v>88.59730400142186</v>
+        <v>88.59730400142193</v>
       </c>
       <c r="Y13" t="n">
-        <v>88.59730400142186</v>
+        <v>88.59730400142193</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>88.59730400142186</v>
+        <v>88.59730400142193</v>
       </c>
       <c r="C14" t="n">
-        <v>88.59730400142186</v>
+        <v>88.59730400142193</v>
       </c>
       <c r="D14" t="n">
-        <v>88.59730400142186</v>
+        <v>88.59730400142193</v>
       </c>
       <c r="E14" t="n">
-        <v>88.59730400142186</v>
+        <v>88.59730400142193</v>
       </c>
       <c r="F14" t="n">
-        <v>88.59730400142186</v>
+        <v>88.59730400142193</v>
       </c>
       <c r="G14" t="n">
-        <v>88.59730400142186</v>
+        <v>88.59730400142193</v>
       </c>
       <c r="H14" t="n">
-        <v>88.59730400142186</v>
+        <v>88.59730400142193</v>
       </c>
       <c r="I14" t="n">
-        <v>88.59730400142186</v>
+        <v>88.59730400142193</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>65.73916953180444</v>
       </c>
       <c r="S14" t="n">
-        <v>88.59730400142186</v>
+        <v>88.59730400142193</v>
       </c>
       <c r="T14" t="n">
-        <v>88.59730400142186</v>
+        <v>88.59730400142193</v>
       </c>
       <c r="U14" t="n">
-        <v>88.59730400142186</v>
+        <v>88.59730400142193</v>
       </c>
       <c r="V14" t="n">
-        <v>88.59730400142186</v>
+        <v>88.59730400142193</v>
       </c>
       <c r="W14" t="n">
-        <v>88.59730400142186</v>
+        <v>88.59730400142193</v>
       </c>
       <c r="X14" t="n">
-        <v>88.59730400142186</v>
+        <v>88.59730400142193</v>
       </c>
       <c r="Y14" t="n">
-        <v>88.59730400142186</v>
+        <v>88.59730400142193</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>88.59730400142186</v>
+        <v>88.59730400142193</v>
       </c>
       <c r="C16" t="n">
-        <v>88.59730400142186</v>
+        <v>88.59730400142193</v>
       </c>
       <c r="D16" t="n">
-        <v>88.59730400142186</v>
+        <v>88.59730400142193</v>
       </c>
       <c r="E16" t="n">
-        <v>88.59730400142186</v>
+        <v>88.59730400142193</v>
       </c>
       <c r="F16" t="n">
-        <v>88.59730400142186</v>
+        <v>88.59730400142193</v>
       </c>
       <c r="G16" t="n">
-        <v>88.59730400142186</v>
+        <v>88.59730400142193</v>
       </c>
       <c r="H16" t="n">
-        <v>88.59730400142186</v>
+        <v>88.59730400142193</v>
       </c>
       <c r="I16" t="n">
-        <v>88.59730400142186</v>
+        <v>88.59730400142193</v>
       </c>
       <c r="J16" t="n">
-        <v>88.59730400142186</v>
+        <v>88.59730400142193</v>
       </c>
       <c r="K16" t="n">
-        <v>88.59730400142186</v>
+        <v>88.59730400142193</v>
       </c>
       <c r="L16" t="n">
-        <v>88.59730400142186</v>
+        <v>88.59730400142193</v>
       </c>
       <c r="M16" t="n">
-        <v>88.59730400142186</v>
+        <v>88.59730400142193</v>
       </c>
       <c r="N16" t="n">
-        <v>88.59730400142186</v>
+        <v>88.59730400142193</v>
       </c>
       <c r="O16" t="n">
-        <v>88.59730400142186</v>
+        <v>88.59730400142193</v>
       </c>
       <c r="P16" t="n">
-        <v>88.59730400142186</v>
+        <v>88.59730400142193</v>
       </c>
       <c r="Q16" t="n">
-        <v>88.59730400142186</v>
+        <v>88.59730400142193</v>
       </c>
       <c r="R16" t="n">
-        <v>88.59730400142186</v>
+        <v>88.59730400142193</v>
       </c>
       <c r="S16" t="n">
-        <v>88.59730400142186</v>
+        <v>88.59730400142193</v>
       </c>
       <c r="T16" t="n">
-        <v>88.59730400142186</v>
+        <v>88.59730400142193</v>
       </c>
       <c r="U16" t="n">
-        <v>88.59730400142186</v>
+        <v>88.59730400142193</v>
       </c>
       <c r="V16" t="n">
-        <v>88.59730400142186</v>
+        <v>88.59730400142193</v>
       </c>
       <c r="W16" t="n">
-        <v>88.59730400142186</v>
+        <v>88.59730400142193</v>
       </c>
       <c r="X16" t="n">
-        <v>88.59730400142186</v>
+        <v>88.59730400142193</v>
       </c>
       <c r="Y16" t="n">
-        <v>88.59730400142186</v>
+        <v>88.59730400142193</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="C17" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="D17" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="E17" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="F17" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="G17" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="H17" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="I17" t="n">
         <v>156.363858050434</v>
@@ -28612,25 +28612,25 @@
         <v>65.73916953180444</v>
       </c>
       <c r="S17" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="T17" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="U17" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="V17" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="W17" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="X17" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="Y17" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
     </row>
     <row r="18">
@@ -28719,10 +28719,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="C19" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="D19" t="n">
         <v>151.5411742405149</v>
@@ -28734,7 +28734,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="H19" t="n">
         <v>156.2556384040709</v>
@@ -28743,7 +28743,7 @@
         <v>137.6086505120454</v>
       </c>
       <c r="J19" t="n">
-        <v>47.34362796447564</v>
+        <v>47.34362796447565</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28770,25 +28770,25 @@
         <v>140.32293915197</v>
       </c>
       <c r="S19" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="T19" t="n">
-        <v>72.39308802180824</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="U19" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="V19" t="n">
-        <v>165.5798044656035</v>
+        <v>72.39308802180918</v>
       </c>
       <c r="W19" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="X19" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="Y19" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="C20" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="D20" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="E20" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="F20" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="G20" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="H20" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="I20" t="n">
         <v>156.363858050434</v>
@@ -28849,25 +28849,25 @@
         <v>65.73916953180444</v>
       </c>
       <c r="S20" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="T20" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="U20" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="V20" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="W20" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="X20" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="Y20" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
     </row>
     <row r="21">
@@ -28956,10 +28956,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="C22" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="D22" t="n">
         <v>151.5411742405149</v>
@@ -28971,7 +28971,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="H22" t="n">
         <v>156.2556384040709</v>
@@ -28980,7 +28980,7 @@
         <v>137.6086505120454</v>
       </c>
       <c r="J22" t="n">
-        <v>47.34362796447564</v>
+        <v>47.34362796447565</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29001,31 +29001,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>23.80540818138466</v>
       </c>
       <c r="R22" t="n">
         <v>140.32293915197</v>
       </c>
       <c r="S22" t="n">
-        <v>96.19849620319289</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="T22" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="U22" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="V22" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="W22" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="X22" t="n">
-        <v>165.5798044656035</v>
+        <v>72.39308802180921</v>
       </c>
       <c r="Y22" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="C23" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="D23" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="E23" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="F23" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="G23" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="H23" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="I23" t="n">
         <v>156.363858050434</v>
@@ -29086,25 +29086,25 @@
         <v>65.73916953180444</v>
       </c>
       <c r="S23" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="T23" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="U23" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="V23" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="W23" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="X23" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="Y23" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
     </row>
     <row r="24">
@@ -29193,10 +29193,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="C25" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="D25" t="n">
         <v>151.5411742405149</v>
@@ -29208,16 +29208,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="H25" t="n">
-        <v>156.2556384040709</v>
+        <v>63.06892196027674</v>
       </c>
       <c r="I25" t="n">
         <v>137.6086505120454</v>
       </c>
       <c r="J25" t="n">
-        <v>47.34362796447564</v>
+        <v>47.34362796447565</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29244,25 +29244,25 @@
         <v>140.32293915197</v>
       </c>
       <c r="S25" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="T25" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="U25" t="n">
-        <v>72.39308802180815</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="V25" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="W25" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="X25" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="Y25" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
     </row>
     <row r="26">
@@ -29299,10 +29299,10 @@
         <v>106.5833818464879</v>
       </c>
       <c r="K26" t="n">
-        <v>106.5833818464872</v>
+        <v>106.5833818464879</v>
       </c>
       <c r="L26" t="n">
-        <v>106.5833818464879</v>
+        <v>106.5833818464881</v>
       </c>
       <c r="M26" t="n">
         <v>106.5833818464879</v>
@@ -29454,10 +29454,10 @@
         <v>106.5833818464879</v>
       </c>
       <c r="J28" t="n">
-        <v>84.63111518229594</v>
+        <v>106.5833818464879</v>
       </c>
       <c r="K28" t="n">
-        <v>106.5833818464879</v>
+        <v>84.63111518229547</v>
       </c>
       <c r="L28" t="n">
         <v>106.5833818464879</v>
@@ -29691,7 +29691,7 @@
         <v>106.5833818464879</v>
       </c>
       <c r="J31" t="n">
-        <v>84.63111518229525</v>
+        <v>84.63111518229545</v>
       </c>
       <c r="K31" t="n">
         <v>106.5833818464879</v>
@@ -29928,7 +29928,7 @@
         <v>137.6086505120454</v>
       </c>
       <c r="J34" t="n">
-        <v>47.34362796447564</v>
+        <v>47.34362796447565</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -29961,7 +29961,7 @@
         <v>165.5798044656034</v>
       </c>
       <c r="U34" t="n">
-        <v>165.5798044656034</v>
+        <v>72.39308802180918</v>
       </c>
       <c r="V34" t="n">
         <v>165.5798044656034</v>
@@ -29970,7 +29970,7 @@
         <v>165.5798044656034</v>
       </c>
       <c r="X34" t="n">
-        <v>72.39308802180864</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="Y34" t="n">
         <v>165.5798044656034</v>
@@ -30147,7 +30147,7 @@
         <v>165.5798044656034</v>
       </c>
       <c r="D37" t="n">
-        <v>151.5411742405149</v>
+        <v>58.35445779672078</v>
       </c>
       <c r="E37" t="n">
         <v>150.4889240962943</v>
@@ -30165,7 +30165,7 @@
         <v>137.6086505120454</v>
       </c>
       <c r="J37" t="n">
-        <v>47.34362796447564</v>
+        <v>47.34362796447565</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30186,7 +30186,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>23.80540818138466</v>
       </c>
       <c r="R37" t="n">
         <v>140.32293915197</v>
@@ -30195,7 +30195,7 @@
         <v>165.5798044656034</v>
       </c>
       <c r="T37" t="n">
-        <v>96.19849620319323</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="U37" t="n">
         <v>165.5798044656034</v>
@@ -30384,7 +30384,7 @@
         <v>165.5798044656034</v>
       </c>
       <c r="D40" t="n">
-        <v>151.5411742405149</v>
+        <v>58.35445779672058</v>
       </c>
       <c r="E40" t="n">
         <v>150.4889240962943</v>
@@ -30402,7 +30402,7 @@
         <v>137.6086505120454</v>
       </c>
       <c r="J40" t="n">
-        <v>47.34362796447564</v>
+        <v>47.34362796447565</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30444,7 +30444,7 @@
         <v>165.5798044656034</v>
       </c>
       <c r="X40" t="n">
-        <v>72.39308802180835</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="Y40" t="n">
         <v>165.5798044656034</v>
@@ -30639,7 +30639,7 @@
         <v>137.6086505120454</v>
       </c>
       <c r="J43" t="n">
-        <v>47.34362796447564</v>
+        <v>47.34362796447565</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30672,7 +30672,7 @@
         <v>165.5798044656035</v>
       </c>
       <c r="U43" t="n">
-        <v>72.39308802180815</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="V43" t="n">
         <v>165.5798044656035</v>
@@ -30684,7 +30684,7 @@
         <v>165.5798044656035</v>
       </c>
       <c r="Y43" t="n">
-        <v>165.5798044656035</v>
+        <v>72.39308802180821</v>
       </c>
     </row>
     <row r="44">
@@ -30876,7 +30876,7 @@
         <v>137.6086505120454</v>
       </c>
       <c r="J46" t="n">
-        <v>47.34362796447564</v>
+        <v>47.34362796447565</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30918,10 +30918,10 @@
         <v>165.5798044656034</v>
       </c>
       <c r="X46" t="n">
+        <v>72.39308802180858</v>
+      </c>
+      <c r="Y46" t="n">
         <v>165.5798044656034</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>72.39308802180838</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3819510732859845</v>
+        <v>0.3819510732859844</v>
       </c>
       <c r="H11" t="n">
-        <v>3.91165642929009</v>
+        <v>3.911656429290089</v>
       </c>
       <c r="I11" t="n">
         <v>14.72516875285793</v>
       </c>
       <c r="J11" t="n">
-        <v>32.41761990630636</v>
+        <v>32.41761990630635</v>
       </c>
       <c r="K11" t="n">
-        <v>48.5856088385021</v>
+        <v>48.58560883850208</v>
       </c>
       <c r="L11" t="n">
-        <v>60.27474399757806</v>
+        <v>60.27474399757804</v>
       </c>
       <c r="M11" t="n">
-        <v>67.06726639712768</v>
+        <v>67.06726639712765</v>
       </c>
       <c r="N11" t="n">
-        <v>68.1524848841015</v>
+        <v>68.15248488410147</v>
       </c>
       <c r="O11" t="n">
-        <v>64.35445889911398</v>
+        <v>64.35445889911395</v>
       </c>
       <c r="P11" t="n">
-        <v>54.92504177736622</v>
+        <v>54.92504177736621</v>
       </c>
       <c r="Q11" t="n">
-        <v>41.24641896531189</v>
+        <v>41.24641896531188</v>
       </c>
       <c r="R11" t="n">
-        <v>23.99273410730075</v>
+        <v>23.99273410730074</v>
       </c>
       <c r="S11" t="n">
-        <v>8.703710082504381</v>
+        <v>8.703710082504379</v>
       </c>
       <c r="T11" t="n">
         <v>1.671990823309398</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03055608586287876</v>
+        <v>0.03055608586287875</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,31 +31832,31 @@
         <v>0.2043618407680625</v>
       </c>
       <c r="H12" t="n">
-        <v>1.973705146365236</v>
+        <v>1.973705146365235</v>
       </c>
       <c r="I12" t="n">
-        <v>7.036142324689874</v>
+        <v>7.036142324689871</v>
       </c>
       <c r="J12" t="n">
         <v>19.30771233326682</v>
       </c>
       <c r="K12" t="n">
-        <v>32.99995566472701</v>
+        <v>32.999955664727</v>
       </c>
       <c r="L12" t="n">
-        <v>44.37251283869709</v>
+        <v>44.37251283869708</v>
       </c>
       <c r="M12" t="n">
-        <v>51.78062956653935</v>
+        <v>51.78062956653933</v>
       </c>
       <c r="N12" t="n">
-        <v>53.1511087530936</v>
+        <v>53.15110875309359</v>
       </c>
       <c r="O12" t="n">
-        <v>48.62288059712758</v>
+        <v>48.62288059712757</v>
       </c>
       <c r="P12" t="n">
-        <v>39.02414834806977</v>
+        <v>39.02414834806976</v>
       </c>
       <c r="Q12" t="n">
         <v>26.08660970927058</v>
@@ -31865,13 +31865,13 @@
         <v>12.68836060488024</v>
       </c>
       <c r="S12" t="n">
-        <v>3.795931559880457</v>
+        <v>3.795931559880456</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8237216301133746</v>
+        <v>0.8237216301133744</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01344485794526728</v>
+        <v>0.01344485794526727</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31914,7 +31914,7 @@
         <v>1.523280364448053</v>
       </c>
       <c r="I13" t="n">
-        <v>5.152363441302819</v>
+        <v>5.152363441302818</v>
       </c>
       <c r="J13" t="n">
         <v>12.11303823549335</v>
@@ -31923,34 +31923,34 @@
         <v>19.90544279922914</v>
       </c>
       <c r="L13" t="n">
-        <v>25.47211357891968</v>
+        <v>25.47211357891967</v>
       </c>
       <c r="M13" t="n">
-        <v>26.85677231511018</v>
+        <v>26.85677231511017</v>
       </c>
       <c r="N13" t="n">
         <v>26.21817829729455</v>
       </c>
       <c r="O13" t="n">
-        <v>24.21673119267722</v>
+        <v>24.21673119267721</v>
       </c>
       <c r="P13" t="n">
-        <v>20.72159710492523</v>
+        <v>20.72159710492522</v>
       </c>
       <c r="Q13" t="n">
-        <v>14.3465597514632</v>
+        <v>14.34655975146319</v>
       </c>
       <c r="R13" t="n">
-        <v>7.703624419795565</v>
+        <v>7.703624419795562</v>
       </c>
       <c r="S13" t="n">
-        <v>2.985816419884371</v>
+        <v>2.98581641988437</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7320468009106178</v>
+        <v>0.7320468009106176</v>
       </c>
       <c r="U13" t="n">
-        <v>0.009345278309497261</v>
+        <v>0.009345278309497258</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3819510732859845</v>
+        <v>0.3819510732859844</v>
       </c>
       <c r="H14" t="n">
-        <v>3.91165642929009</v>
+        <v>3.911656429290089</v>
       </c>
       <c r="I14" t="n">
         <v>14.72516875285793</v>
       </c>
       <c r="J14" t="n">
-        <v>32.41761990630636</v>
+        <v>32.41761990630635</v>
       </c>
       <c r="K14" t="n">
-        <v>48.5856088385021</v>
+        <v>48.58560883850208</v>
       </c>
       <c r="L14" t="n">
-        <v>60.27474399757806</v>
+        <v>60.27474399757804</v>
       </c>
       <c r="M14" t="n">
-        <v>67.06726639712768</v>
+        <v>67.06726639712765</v>
       </c>
       <c r="N14" t="n">
-        <v>68.1524848841015</v>
+        <v>68.15248488410147</v>
       </c>
       <c r="O14" t="n">
-        <v>64.35445889911398</v>
+        <v>64.35445889911395</v>
       </c>
       <c r="P14" t="n">
-        <v>54.92504177736622</v>
+        <v>54.92504177736621</v>
       </c>
       <c r="Q14" t="n">
-        <v>41.24641896531189</v>
+        <v>41.24641896531188</v>
       </c>
       <c r="R14" t="n">
-        <v>23.99273410730075</v>
+        <v>23.99273410730074</v>
       </c>
       <c r="S14" t="n">
-        <v>8.703710082504381</v>
+        <v>8.703710082504379</v>
       </c>
       <c r="T14" t="n">
         <v>1.671990823309398</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03055608586287876</v>
+        <v>0.03055608586287875</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,31 +32069,31 @@
         <v>0.2043618407680625</v>
       </c>
       <c r="H15" t="n">
-        <v>1.973705146365236</v>
+        <v>1.973705146365235</v>
       </c>
       <c r="I15" t="n">
-        <v>7.036142324689874</v>
+        <v>7.036142324689871</v>
       </c>
       <c r="J15" t="n">
         <v>19.30771233326682</v>
       </c>
       <c r="K15" t="n">
-        <v>32.99995566472701</v>
+        <v>32.999955664727</v>
       </c>
       <c r="L15" t="n">
-        <v>44.37251283869709</v>
+        <v>44.37251283869708</v>
       </c>
       <c r="M15" t="n">
-        <v>51.78062956653935</v>
+        <v>51.78062956653933</v>
       </c>
       <c r="N15" t="n">
-        <v>53.1511087530936</v>
+        <v>53.15110875309359</v>
       </c>
       <c r="O15" t="n">
-        <v>48.62288059712758</v>
+        <v>48.62288059712757</v>
       </c>
       <c r="P15" t="n">
-        <v>39.02414834806977</v>
+        <v>39.02414834806976</v>
       </c>
       <c r="Q15" t="n">
         <v>26.08660970927058</v>
@@ -32102,13 +32102,13 @@
         <v>12.68836060488024</v>
       </c>
       <c r="S15" t="n">
-        <v>3.795931559880457</v>
+        <v>3.795931559880456</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8237216301133746</v>
+        <v>0.8237216301133744</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01344485794526728</v>
+        <v>0.01344485794526727</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32151,7 +32151,7 @@
         <v>1.523280364448053</v>
       </c>
       <c r="I16" t="n">
-        <v>5.152363441302819</v>
+        <v>5.152363441302818</v>
       </c>
       <c r="J16" t="n">
         <v>12.11303823549335</v>
@@ -32160,34 +32160,34 @@
         <v>19.90544279922914</v>
       </c>
       <c r="L16" t="n">
-        <v>25.47211357891968</v>
+        <v>25.47211357891967</v>
       </c>
       <c r="M16" t="n">
-        <v>26.85677231511018</v>
+        <v>26.85677231511017</v>
       </c>
       <c r="N16" t="n">
         <v>26.21817829729455</v>
       </c>
       <c r="O16" t="n">
-        <v>24.21673119267722</v>
+        <v>24.21673119267721</v>
       </c>
       <c r="P16" t="n">
-        <v>20.72159710492523</v>
+        <v>20.72159710492522</v>
       </c>
       <c r="Q16" t="n">
-        <v>14.3465597514632</v>
+        <v>14.34655975146319</v>
       </c>
       <c r="R16" t="n">
-        <v>7.703624419795565</v>
+        <v>7.703624419795562</v>
       </c>
       <c r="S16" t="n">
-        <v>2.985816419884371</v>
+        <v>2.98581641988437</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7320468009106178</v>
+        <v>0.7320468009106176</v>
       </c>
       <c r="U16" t="n">
-        <v>0.009345278309497261</v>
+        <v>0.009345278309497258</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3819510732859845</v>
+        <v>0.3819510732859844</v>
       </c>
       <c r="H17" t="n">
-        <v>3.91165642929009</v>
+        <v>3.911656429290089</v>
       </c>
       <c r="I17" t="n">
         <v>14.72516875285793</v>
       </c>
       <c r="J17" t="n">
-        <v>32.41761990630636</v>
+        <v>32.41761990630635</v>
       </c>
       <c r="K17" t="n">
-        <v>48.5856088385021</v>
+        <v>48.58560883850208</v>
       </c>
       <c r="L17" t="n">
-        <v>60.27474399757806</v>
+        <v>60.27474399757804</v>
       </c>
       <c r="M17" t="n">
-        <v>67.06726639712768</v>
+        <v>67.06726639712765</v>
       </c>
       <c r="N17" t="n">
-        <v>68.1524848841015</v>
+        <v>68.15248488410147</v>
       </c>
       <c r="O17" t="n">
-        <v>64.35445889911398</v>
+        <v>64.35445889911395</v>
       </c>
       <c r="P17" t="n">
-        <v>54.92504177736622</v>
+        <v>54.92504177736621</v>
       </c>
       <c r="Q17" t="n">
-        <v>41.24641896531189</v>
+        <v>41.24641896531188</v>
       </c>
       <c r="R17" t="n">
-        <v>23.99273410730075</v>
+        <v>23.99273410730074</v>
       </c>
       <c r="S17" t="n">
-        <v>8.703710082504381</v>
+        <v>8.703710082504379</v>
       </c>
       <c r="T17" t="n">
         <v>1.671990823309398</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03055608586287876</v>
+        <v>0.03055608586287875</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,31 +32306,31 @@
         <v>0.2043618407680625</v>
       </c>
       <c r="H18" t="n">
-        <v>1.973705146365236</v>
+        <v>1.973705146365235</v>
       </c>
       <c r="I18" t="n">
-        <v>7.036142324689874</v>
+        <v>7.036142324689871</v>
       </c>
       <c r="J18" t="n">
         <v>19.30771233326682</v>
       </c>
       <c r="K18" t="n">
-        <v>32.99995566472701</v>
+        <v>32.999955664727</v>
       </c>
       <c r="L18" t="n">
-        <v>44.37251283869709</v>
+        <v>44.37251283869708</v>
       </c>
       <c r="M18" t="n">
-        <v>51.78062956653935</v>
+        <v>51.78062956653933</v>
       </c>
       <c r="N18" t="n">
-        <v>53.1511087530936</v>
+        <v>53.15110875309359</v>
       </c>
       <c r="O18" t="n">
-        <v>48.62288059712758</v>
+        <v>48.62288059712757</v>
       </c>
       <c r="P18" t="n">
-        <v>39.02414834806977</v>
+        <v>39.02414834806976</v>
       </c>
       <c r="Q18" t="n">
         <v>26.08660970927058</v>
@@ -32339,13 +32339,13 @@
         <v>12.68836060488024</v>
       </c>
       <c r="S18" t="n">
-        <v>3.795931559880457</v>
+        <v>3.795931559880456</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8237216301133746</v>
+        <v>0.8237216301133744</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01344485794526728</v>
+        <v>0.01344485794526727</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32388,7 +32388,7 @@
         <v>1.523280364448053</v>
       </c>
       <c r="I19" t="n">
-        <v>5.152363441302819</v>
+        <v>5.152363441302818</v>
       </c>
       <c r="J19" t="n">
         <v>12.11303823549335</v>
@@ -32397,34 +32397,34 @@
         <v>19.90544279922914</v>
       </c>
       <c r="L19" t="n">
-        <v>25.47211357891968</v>
+        <v>25.47211357891967</v>
       </c>
       <c r="M19" t="n">
-        <v>26.85677231511018</v>
+        <v>26.85677231511017</v>
       </c>
       <c r="N19" t="n">
         <v>26.21817829729455</v>
       </c>
       <c r="O19" t="n">
-        <v>24.21673119267722</v>
+        <v>24.21673119267721</v>
       </c>
       <c r="P19" t="n">
-        <v>20.72159710492523</v>
+        <v>20.72159710492522</v>
       </c>
       <c r="Q19" t="n">
-        <v>14.3465597514632</v>
+        <v>14.34655975146319</v>
       </c>
       <c r="R19" t="n">
-        <v>7.703624419795565</v>
+        <v>7.703624419795562</v>
       </c>
       <c r="S19" t="n">
-        <v>2.985816419884371</v>
+        <v>2.98581641988437</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7320468009106178</v>
+        <v>0.7320468009106176</v>
       </c>
       <c r="U19" t="n">
-        <v>0.009345278309497261</v>
+        <v>0.009345278309497258</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,7 +32464,7 @@
         <v>0.3819510732859845</v>
       </c>
       <c r="H20" t="n">
-        <v>3.91165642929009</v>
+        <v>3.911656429290089</v>
       </c>
       <c r="I20" t="n">
         <v>14.72516875285793</v>
@@ -32473,37 +32473,37 @@
         <v>32.41761990630636</v>
       </c>
       <c r="K20" t="n">
-        <v>48.5856088385021</v>
+        <v>48.58560883850209</v>
       </c>
       <c r="L20" t="n">
-        <v>60.27474399757806</v>
+        <v>60.27474399757805</v>
       </c>
       <c r="M20" t="n">
-        <v>67.06726639712768</v>
+        <v>67.06726639712767</v>
       </c>
       <c r="N20" t="n">
-        <v>68.1524848841015</v>
+        <v>68.15248488410148</v>
       </c>
       <c r="O20" t="n">
-        <v>64.35445889911398</v>
+        <v>64.35445889911396</v>
       </c>
       <c r="P20" t="n">
         <v>54.92504177736622</v>
       </c>
       <c r="Q20" t="n">
-        <v>41.24641896531189</v>
+        <v>41.24641896531188</v>
       </c>
       <c r="R20" t="n">
-        <v>23.99273410730075</v>
+        <v>23.99273410730074</v>
       </c>
       <c r="S20" t="n">
-        <v>8.703710082504381</v>
+        <v>8.703710082504379</v>
       </c>
       <c r="T20" t="n">
         <v>1.671990823309398</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03055608586287876</v>
+        <v>0.03055608586287875</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,7 +32546,7 @@
         <v>1.973705146365236</v>
       </c>
       <c r="I21" t="n">
-        <v>7.036142324689874</v>
+        <v>7.036142324689872</v>
       </c>
       <c r="J21" t="n">
         <v>19.30771233326682</v>
@@ -32555,10 +32555,10 @@
         <v>32.99995566472701</v>
       </c>
       <c r="L21" t="n">
-        <v>44.37251283869709</v>
+        <v>44.37251283869708</v>
       </c>
       <c r="M21" t="n">
-        <v>51.78062956653935</v>
+        <v>51.78062956653934</v>
       </c>
       <c r="N21" t="n">
         <v>53.1511087530936</v>
@@ -32579,7 +32579,7 @@
         <v>3.795931559880457</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8237216301133746</v>
+        <v>0.8237216301133745</v>
       </c>
       <c r="U21" t="n">
         <v>0.01344485794526728</v>
@@ -32634,10 +32634,10 @@
         <v>19.90544279922914</v>
       </c>
       <c r="L22" t="n">
-        <v>25.47211357891968</v>
+        <v>25.47211357891967</v>
       </c>
       <c r="M22" t="n">
-        <v>26.85677231511018</v>
+        <v>26.85677231511017</v>
       </c>
       <c r="N22" t="n">
         <v>26.21817829729455</v>
@@ -32649,19 +32649,19 @@
         <v>20.72159710492523</v>
       </c>
       <c r="Q22" t="n">
-        <v>14.3465597514632</v>
+        <v>14.34655975146319</v>
       </c>
       <c r="R22" t="n">
-        <v>7.703624419795565</v>
+        <v>7.703624419795564</v>
       </c>
       <c r="S22" t="n">
-        <v>2.985816419884371</v>
+        <v>2.98581641988437</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7320468009106178</v>
+        <v>0.7320468009106177</v>
       </c>
       <c r="U22" t="n">
-        <v>0.009345278309497261</v>
+        <v>0.00934527830949726</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3819510732859845</v>
+        <v>0.3819510732859844</v>
       </c>
       <c r="H23" t="n">
-        <v>3.91165642929009</v>
+        <v>3.911656429290089</v>
       </c>
       <c r="I23" t="n">
         <v>14.72516875285793</v>
       </c>
       <c r="J23" t="n">
-        <v>32.41761990630636</v>
+        <v>32.41761990630635</v>
       </c>
       <c r="K23" t="n">
-        <v>48.5856088385021</v>
+        <v>48.58560883850208</v>
       </c>
       <c r="L23" t="n">
-        <v>60.27474399757806</v>
+        <v>60.27474399757804</v>
       </c>
       <c r="M23" t="n">
-        <v>67.06726639712768</v>
+        <v>67.06726639712765</v>
       </c>
       <c r="N23" t="n">
-        <v>68.1524848841015</v>
+        <v>68.15248488410147</v>
       </c>
       <c r="O23" t="n">
-        <v>64.35445889911398</v>
+        <v>64.35445889911395</v>
       </c>
       <c r="P23" t="n">
-        <v>54.92504177736622</v>
+        <v>54.92504177736621</v>
       </c>
       <c r="Q23" t="n">
-        <v>41.24641896531189</v>
+        <v>41.24641896531188</v>
       </c>
       <c r="R23" t="n">
-        <v>23.99273410730075</v>
+        <v>23.99273410730074</v>
       </c>
       <c r="S23" t="n">
-        <v>8.703710082504381</v>
+        <v>8.703710082504379</v>
       </c>
       <c r="T23" t="n">
         <v>1.671990823309398</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03055608586287876</v>
+        <v>0.03055608586287875</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32780,31 +32780,31 @@
         <v>0.2043618407680625</v>
       </c>
       <c r="H24" t="n">
-        <v>1.973705146365236</v>
+        <v>1.973705146365235</v>
       </c>
       <c r="I24" t="n">
-        <v>7.036142324689874</v>
+        <v>7.036142324689871</v>
       </c>
       <c r="J24" t="n">
         <v>19.30771233326682</v>
       </c>
       <c r="K24" t="n">
-        <v>32.99995566472701</v>
+        <v>32.999955664727</v>
       </c>
       <c r="L24" t="n">
-        <v>44.37251283869709</v>
+        <v>44.37251283869708</v>
       </c>
       <c r="M24" t="n">
-        <v>51.78062956653935</v>
+        <v>51.78062956653933</v>
       </c>
       <c r="N24" t="n">
-        <v>53.1511087530936</v>
+        <v>53.15110875309359</v>
       </c>
       <c r="O24" t="n">
-        <v>48.62288059712758</v>
+        <v>48.62288059712757</v>
       </c>
       <c r="P24" t="n">
-        <v>39.02414834806977</v>
+        <v>39.02414834806976</v>
       </c>
       <c r="Q24" t="n">
         <v>26.08660970927058</v>
@@ -32813,13 +32813,13 @@
         <v>12.68836060488024</v>
       </c>
       <c r="S24" t="n">
-        <v>3.795931559880457</v>
+        <v>3.795931559880456</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8237216301133746</v>
+        <v>0.8237216301133744</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01344485794526728</v>
+        <v>0.01344485794526727</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32862,7 +32862,7 @@
         <v>1.523280364448053</v>
       </c>
       <c r="I25" t="n">
-        <v>5.152363441302819</v>
+        <v>5.152363441302818</v>
       </c>
       <c r="J25" t="n">
         <v>12.11303823549335</v>
@@ -32871,34 +32871,34 @@
         <v>19.90544279922914</v>
       </c>
       <c r="L25" t="n">
-        <v>25.47211357891968</v>
+        <v>25.47211357891967</v>
       </c>
       <c r="M25" t="n">
-        <v>26.85677231511018</v>
+        <v>26.85677231511017</v>
       </c>
       <c r="N25" t="n">
         <v>26.21817829729455</v>
       </c>
       <c r="O25" t="n">
-        <v>24.21673119267722</v>
+        <v>24.21673119267721</v>
       </c>
       <c r="P25" t="n">
-        <v>20.72159710492523</v>
+        <v>20.72159710492522</v>
       </c>
       <c r="Q25" t="n">
-        <v>14.3465597514632</v>
+        <v>14.34655975146319</v>
       </c>
       <c r="R25" t="n">
-        <v>7.703624419795565</v>
+        <v>7.703624419795562</v>
       </c>
       <c r="S25" t="n">
-        <v>2.985816419884371</v>
+        <v>2.98581641988437</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7320468009106178</v>
+        <v>0.7320468009106176</v>
       </c>
       <c r="U25" t="n">
-        <v>0.009345278309497261</v>
+        <v>0.009345278309497258</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3819510732859845</v>
+        <v>0.3819510732859844</v>
       </c>
       <c r="H26" t="n">
-        <v>3.91165642929009</v>
+        <v>3.911656429290089</v>
       </c>
       <c r="I26" t="n">
         <v>14.72516875285793</v>
       </c>
       <c r="J26" t="n">
-        <v>32.41761990630636</v>
+        <v>32.41761990630635</v>
       </c>
       <c r="K26" t="n">
-        <v>48.5856088385021</v>
+        <v>48.58560883850208</v>
       </c>
       <c r="L26" t="n">
-        <v>60.27474399757806</v>
+        <v>60.27474399757804</v>
       </c>
       <c r="M26" t="n">
-        <v>67.06726639712768</v>
+        <v>67.06726639712765</v>
       </c>
       <c r="N26" t="n">
-        <v>68.1524848841015</v>
+        <v>68.15248488410147</v>
       </c>
       <c r="O26" t="n">
-        <v>64.35445889911398</v>
+        <v>64.35445889911395</v>
       </c>
       <c r="P26" t="n">
-        <v>54.92504177736622</v>
+        <v>54.92504177736621</v>
       </c>
       <c r="Q26" t="n">
-        <v>41.24641896531189</v>
+        <v>41.24641896531188</v>
       </c>
       <c r="R26" t="n">
-        <v>23.99273410730075</v>
+        <v>23.99273410730074</v>
       </c>
       <c r="S26" t="n">
-        <v>8.703710082504381</v>
+        <v>8.703710082504379</v>
       </c>
       <c r="T26" t="n">
         <v>1.671990823309398</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03055608586287876</v>
+        <v>0.03055608586287875</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33017,31 +33017,31 @@
         <v>0.2043618407680625</v>
       </c>
       <c r="H27" t="n">
-        <v>1.973705146365236</v>
+        <v>1.973705146365235</v>
       </c>
       <c r="I27" t="n">
-        <v>7.036142324689874</v>
+        <v>7.036142324689871</v>
       </c>
       <c r="J27" t="n">
         <v>19.30771233326682</v>
       </c>
       <c r="K27" t="n">
-        <v>32.99995566472701</v>
+        <v>32.999955664727</v>
       </c>
       <c r="L27" t="n">
-        <v>44.37251283869709</v>
+        <v>44.37251283869708</v>
       </c>
       <c r="M27" t="n">
-        <v>51.78062956653935</v>
+        <v>51.78062956653933</v>
       </c>
       <c r="N27" t="n">
-        <v>53.1511087530936</v>
+        <v>53.15110875309359</v>
       </c>
       <c r="O27" t="n">
-        <v>48.62288059712758</v>
+        <v>48.62288059712757</v>
       </c>
       <c r="P27" t="n">
-        <v>39.02414834806977</v>
+        <v>39.02414834806976</v>
       </c>
       <c r="Q27" t="n">
         <v>26.08660970927058</v>
@@ -33050,13 +33050,13 @@
         <v>12.68836060488024</v>
       </c>
       <c r="S27" t="n">
-        <v>3.795931559880457</v>
+        <v>3.795931559880456</v>
       </c>
       <c r="T27" t="n">
-        <v>0.8237216301133746</v>
+        <v>0.8237216301133744</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01344485794526728</v>
+        <v>0.01344485794526727</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33099,7 +33099,7 @@
         <v>1.523280364448053</v>
       </c>
       <c r="I28" t="n">
-        <v>5.152363441302819</v>
+        <v>5.152363441302818</v>
       </c>
       <c r="J28" t="n">
         <v>12.11303823549335</v>
@@ -33108,34 +33108,34 @@
         <v>19.90544279922914</v>
       </c>
       <c r="L28" t="n">
-        <v>25.47211357891968</v>
+        <v>25.47211357891967</v>
       </c>
       <c r="M28" t="n">
-        <v>26.85677231511018</v>
+        <v>26.85677231511017</v>
       </c>
       <c r="N28" t="n">
         <v>26.21817829729455</v>
       </c>
       <c r="O28" t="n">
-        <v>24.21673119267722</v>
+        <v>24.21673119267721</v>
       </c>
       <c r="P28" t="n">
-        <v>20.72159710492523</v>
+        <v>20.72159710492522</v>
       </c>
       <c r="Q28" t="n">
-        <v>14.3465597514632</v>
+        <v>14.34655975146319</v>
       </c>
       <c r="R28" t="n">
-        <v>7.703624419795565</v>
+        <v>7.703624419795562</v>
       </c>
       <c r="S28" t="n">
-        <v>2.985816419884371</v>
+        <v>2.98581641988437</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7320468009106178</v>
+        <v>0.7320468009106176</v>
       </c>
       <c r="U28" t="n">
-        <v>0.009345278309497261</v>
+        <v>0.009345278309497258</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.3819510732859845</v>
+        <v>0.3819510732859844</v>
       </c>
       <c r="H29" t="n">
-        <v>3.91165642929009</v>
+        <v>3.911656429290089</v>
       </c>
       <c r="I29" t="n">
         <v>14.72516875285793</v>
       </c>
       <c r="J29" t="n">
-        <v>32.41761990630636</v>
+        <v>32.41761990630635</v>
       </c>
       <c r="K29" t="n">
-        <v>48.5856088385021</v>
+        <v>48.58560883850208</v>
       </c>
       <c r="L29" t="n">
-        <v>60.27474399757806</v>
+        <v>60.27474399757804</v>
       </c>
       <c r="M29" t="n">
-        <v>67.06726639712768</v>
+        <v>67.06726639712765</v>
       </c>
       <c r="N29" t="n">
-        <v>68.1524848841015</v>
+        <v>68.15248488410147</v>
       </c>
       <c r="O29" t="n">
-        <v>64.35445889911398</v>
+        <v>64.35445889911395</v>
       </c>
       <c r="P29" t="n">
-        <v>54.92504177736622</v>
+        <v>54.92504177736621</v>
       </c>
       <c r="Q29" t="n">
-        <v>41.24641896531189</v>
+        <v>41.24641896531188</v>
       </c>
       <c r="R29" t="n">
-        <v>23.99273410730075</v>
+        <v>23.99273410730074</v>
       </c>
       <c r="S29" t="n">
-        <v>8.703710082504381</v>
+        <v>8.703710082504379</v>
       </c>
       <c r="T29" t="n">
         <v>1.671990823309398</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03055608586287876</v>
+        <v>0.03055608586287875</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33254,31 +33254,31 @@
         <v>0.2043618407680625</v>
       </c>
       <c r="H30" t="n">
-        <v>1.973705146365236</v>
+        <v>1.973705146365235</v>
       </c>
       <c r="I30" t="n">
-        <v>7.036142324689874</v>
+        <v>7.036142324689871</v>
       </c>
       <c r="J30" t="n">
         <v>19.30771233326682</v>
       </c>
       <c r="K30" t="n">
-        <v>32.99995566472701</v>
+        <v>32.999955664727</v>
       </c>
       <c r="L30" t="n">
-        <v>44.37251283869709</v>
+        <v>44.37251283869708</v>
       </c>
       <c r="M30" t="n">
-        <v>51.78062956653935</v>
+        <v>51.78062956653933</v>
       </c>
       <c r="N30" t="n">
-        <v>53.1511087530936</v>
+        <v>53.15110875309359</v>
       </c>
       <c r="O30" t="n">
-        <v>48.62288059712758</v>
+        <v>48.62288059712757</v>
       </c>
       <c r="P30" t="n">
-        <v>39.02414834806977</v>
+        <v>39.02414834806976</v>
       </c>
       <c r="Q30" t="n">
         <v>26.08660970927058</v>
@@ -33287,13 +33287,13 @@
         <v>12.68836060488024</v>
       </c>
       <c r="S30" t="n">
-        <v>3.795931559880457</v>
+        <v>3.795931559880456</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8237216301133746</v>
+        <v>0.8237216301133744</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01344485794526728</v>
+        <v>0.01344485794526727</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33336,7 +33336,7 @@
         <v>1.523280364448053</v>
       </c>
       <c r="I31" t="n">
-        <v>5.152363441302819</v>
+        <v>5.152363441302818</v>
       </c>
       <c r="J31" t="n">
         <v>12.11303823549335</v>
@@ -33345,34 +33345,34 @@
         <v>19.90544279922914</v>
       </c>
       <c r="L31" t="n">
-        <v>25.47211357891968</v>
+        <v>25.47211357891967</v>
       </c>
       <c r="M31" t="n">
-        <v>26.85677231511018</v>
+        <v>26.85677231511017</v>
       </c>
       <c r="N31" t="n">
         <v>26.21817829729455</v>
       </c>
       <c r="O31" t="n">
-        <v>24.21673119267722</v>
+        <v>24.21673119267721</v>
       </c>
       <c r="P31" t="n">
-        <v>20.72159710492523</v>
+        <v>20.72159710492522</v>
       </c>
       <c r="Q31" t="n">
-        <v>14.3465597514632</v>
+        <v>14.34655975146319</v>
       </c>
       <c r="R31" t="n">
-        <v>7.703624419795565</v>
+        <v>7.703624419795562</v>
       </c>
       <c r="S31" t="n">
-        <v>2.985816419884371</v>
+        <v>2.98581641988437</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7320468009106178</v>
+        <v>0.7320468009106176</v>
       </c>
       <c r="U31" t="n">
-        <v>0.009345278309497261</v>
+        <v>0.009345278309497258</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.3819510732859845</v>
+        <v>0.3819510732859844</v>
       </c>
       <c r="H32" t="n">
-        <v>3.91165642929009</v>
+        <v>3.911656429290089</v>
       </c>
       <c r="I32" t="n">
         <v>14.72516875285793</v>
       </c>
       <c r="J32" t="n">
-        <v>32.41761990630636</v>
+        <v>32.41761990630635</v>
       </c>
       <c r="K32" t="n">
-        <v>48.5856088385021</v>
+        <v>48.58560883850208</v>
       </c>
       <c r="L32" t="n">
-        <v>60.27474399757806</v>
+        <v>60.27474399757804</v>
       </c>
       <c r="M32" t="n">
-        <v>67.06726639712768</v>
+        <v>67.06726639712765</v>
       </c>
       <c r="N32" t="n">
-        <v>68.1524848841015</v>
+        <v>68.15248488410147</v>
       </c>
       <c r="O32" t="n">
-        <v>64.35445889911398</v>
+        <v>64.35445889911395</v>
       </c>
       <c r="P32" t="n">
-        <v>54.92504177736622</v>
+        <v>54.92504177736621</v>
       </c>
       <c r="Q32" t="n">
-        <v>41.24641896531189</v>
+        <v>41.24641896531188</v>
       </c>
       <c r="R32" t="n">
-        <v>23.99273410730075</v>
+        <v>23.99273410730074</v>
       </c>
       <c r="S32" t="n">
-        <v>8.703710082504381</v>
+        <v>8.703710082504379</v>
       </c>
       <c r="T32" t="n">
         <v>1.671990823309398</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03055608586287876</v>
+        <v>0.03055608586287875</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33491,31 +33491,31 @@
         <v>0.2043618407680625</v>
       </c>
       <c r="H33" t="n">
-        <v>1.973705146365236</v>
+        <v>1.973705146365235</v>
       </c>
       <c r="I33" t="n">
-        <v>7.036142324689874</v>
+        <v>7.036142324689871</v>
       </c>
       <c r="J33" t="n">
         <v>19.30771233326682</v>
       </c>
       <c r="K33" t="n">
-        <v>32.99995566472701</v>
+        <v>32.999955664727</v>
       </c>
       <c r="L33" t="n">
-        <v>44.37251283869709</v>
+        <v>44.37251283869708</v>
       </c>
       <c r="M33" t="n">
-        <v>51.78062956653935</v>
+        <v>51.78062956653933</v>
       </c>
       <c r="N33" t="n">
-        <v>53.1511087530936</v>
+        <v>53.15110875309359</v>
       </c>
       <c r="O33" t="n">
-        <v>48.62288059712758</v>
+        <v>48.62288059712757</v>
       </c>
       <c r="P33" t="n">
-        <v>39.02414834806977</v>
+        <v>39.02414834806976</v>
       </c>
       <c r="Q33" t="n">
         <v>26.08660970927058</v>
@@ -33524,13 +33524,13 @@
         <v>12.68836060488024</v>
       </c>
       <c r="S33" t="n">
-        <v>3.795931559880457</v>
+        <v>3.795931559880456</v>
       </c>
       <c r="T33" t="n">
-        <v>0.8237216301133746</v>
+        <v>0.8237216301133744</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01344485794526728</v>
+        <v>0.01344485794526727</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33573,7 +33573,7 @@
         <v>1.523280364448053</v>
       </c>
       <c r="I34" t="n">
-        <v>5.152363441302819</v>
+        <v>5.152363441302818</v>
       </c>
       <c r="J34" t="n">
         <v>12.11303823549335</v>
@@ -33582,34 +33582,34 @@
         <v>19.90544279922914</v>
       </c>
       <c r="L34" t="n">
-        <v>25.47211357891968</v>
+        <v>25.47211357891967</v>
       </c>
       <c r="M34" t="n">
-        <v>26.85677231511018</v>
+        <v>26.85677231511017</v>
       </c>
       <c r="N34" t="n">
         <v>26.21817829729455</v>
       </c>
       <c r="O34" t="n">
-        <v>24.21673119267722</v>
+        <v>24.21673119267721</v>
       </c>
       <c r="P34" t="n">
-        <v>20.72159710492523</v>
+        <v>20.72159710492522</v>
       </c>
       <c r="Q34" t="n">
-        <v>14.3465597514632</v>
+        <v>14.34655975146319</v>
       </c>
       <c r="R34" t="n">
-        <v>7.703624419795565</v>
+        <v>7.703624419795562</v>
       </c>
       <c r="S34" t="n">
-        <v>2.985816419884371</v>
+        <v>2.98581641988437</v>
       </c>
       <c r="T34" t="n">
-        <v>0.7320468009106178</v>
+        <v>0.7320468009106176</v>
       </c>
       <c r="U34" t="n">
-        <v>0.009345278309497261</v>
+        <v>0.009345278309497258</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.3819510732859845</v>
+        <v>0.3819510732859844</v>
       </c>
       <c r="H35" t="n">
-        <v>3.91165642929009</v>
+        <v>3.911656429290089</v>
       </c>
       <c r="I35" t="n">
         <v>14.72516875285793</v>
       </c>
       <c r="J35" t="n">
-        <v>32.41761990630636</v>
+        <v>32.41761990630635</v>
       </c>
       <c r="K35" t="n">
-        <v>48.5856088385021</v>
+        <v>48.58560883850208</v>
       </c>
       <c r="L35" t="n">
-        <v>60.27474399757806</v>
+        <v>60.27474399757804</v>
       </c>
       <c r="M35" t="n">
-        <v>67.06726639712768</v>
+        <v>67.06726639712765</v>
       </c>
       <c r="N35" t="n">
-        <v>68.1524848841015</v>
+        <v>68.15248488410147</v>
       </c>
       <c r="O35" t="n">
-        <v>64.35445889911398</v>
+        <v>64.35445889911395</v>
       </c>
       <c r="P35" t="n">
-        <v>54.92504177736622</v>
+        <v>54.92504177736621</v>
       </c>
       <c r="Q35" t="n">
-        <v>41.24641896531189</v>
+        <v>41.24641896531188</v>
       </c>
       <c r="R35" t="n">
-        <v>23.99273410730075</v>
+        <v>23.99273410730074</v>
       </c>
       <c r="S35" t="n">
-        <v>8.703710082504381</v>
+        <v>8.703710082504379</v>
       </c>
       <c r="T35" t="n">
         <v>1.671990823309398</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03055608586287876</v>
+        <v>0.03055608586287875</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33728,31 +33728,31 @@
         <v>0.2043618407680625</v>
       </c>
       <c r="H36" t="n">
-        <v>1.973705146365236</v>
+        <v>1.973705146365235</v>
       </c>
       <c r="I36" t="n">
-        <v>7.036142324689874</v>
+        <v>7.036142324689871</v>
       </c>
       <c r="J36" t="n">
         <v>19.30771233326682</v>
       </c>
       <c r="K36" t="n">
-        <v>32.99995566472701</v>
+        <v>32.999955664727</v>
       </c>
       <c r="L36" t="n">
-        <v>44.37251283869709</v>
+        <v>44.37251283869708</v>
       </c>
       <c r="M36" t="n">
-        <v>51.78062956653935</v>
+        <v>51.78062956653933</v>
       </c>
       <c r="N36" t="n">
-        <v>53.1511087530936</v>
+        <v>53.15110875309359</v>
       </c>
       <c r="O36" t="n">
-        <v>48.62288059712758</v>
+        <v>48.62288059712757</v>
       </c>
       <c r="P36" t="n">
-        <v>39.02414834806977</v>
+        <v>39.02414834806976</v>
       </c>
       <c r="Q36" t="n">
         <v>26.08660970927058</v>
@@ -33761,13 +33761,13 @@
         <v>12.68836060488024</v>
       </c>
       <c r="S36" t="n">
-        <v>3.795931559880457</v>
+        <v>3.795931559880456</v>
       </c>
       <c r="T36" t="n">
-        <v>0.8237216301133746</v>
+        <v>0.8237216301133744</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01344485794526728</v>
+        <v>0.01344485794526727</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33810,7 +33810,7 @@
         <v>1.523280364448053</v>
       </c>
       <c r="I37" t="n">
-        <v>5.152363441302819</v>
+        <v>5.152363441302818</v>
       </c>
       <c r="J37" t="n">
         <v>12.11303823549335</v>
@@ -33819,34 +33819,34 @@
         <v>19.90544279922914</v>
       </c>
       <c r="L37" t="n">
-        <v>25.47211357891968</v>
+        <v>25.47211357891967</v>
       </c>
       <c r="M37" t="n">
-        <v>26.85677231511018</v>
+        <v>26.85677231511017</v>
       </c>
       <c r="N37" t="n">
         <v>26.21817829729455</v>
       </c>
       <c r="O37" t="n">
-        <v>24.21673119267722</v>
+        <v>24.21673119267721</v>
       </c>
       <c r="P37" t="n">
-        <v>20.72159710492523</v>
+        <v>20.72159710492522</v>
       </c>
       <c r="Q37" t="n">
-        <v>14.3465597514632</v>
+        <v>14.34655975146319</v>
       </c>
       <c r="R37" t="n">
-        <v>7.703624419795565</v>
+        <v>7.703624419795562</v>
       </c>
       <c r="S37" t="n">
-        <v>2.985816419884371</v>
+        <v>2.98581641988437</v>
       </c>
       <c r="T37" t="n">
-        <v>0.7320468009106178</v>
+        <v>0.7320468009106176</v>
       </c>
       <c r="U37" t="n">
-        <v>0.009345278309497261</v>
+        <v>0.009345278309497258</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.3819510732859845</v>
+        <v>0.3819510732859844</v>
       </c>
       <c r="H38" t="n">
-        <v>3.91165642929009</v>
+        <v>3.911656429290089</v>
       </c>
       <c r="I38" t="n">
         <v>14.72516875285793</v>
       </c>
       <c r="J38" t="n">
-        <v>32.41761990630636</v>
+        <v>32.41761990630635</v>
       </c>
       <c r="K38" t="n">
-        <v>48.5856088385021</v>
+        <v>48.58560883850208</v>
       </c>
       <c r="L38" t="n">
-        <v>60.27474399757806</v>
+        <v>60.27474399757804</v>
       </c>
       <c r="M38" t="n">
-        <v>67.06726639712768</v>
+        <v>67.06726639712765</v>
       </c>
       <c r="N38" t="n">
-        <v>68.1524848841015</v>
+        <v>68.15248488410147</v>
       </c>
       <c r="O38" t="n">
-        <v>64.35445889911398</v>
+        <v>64.35445889911395</v>
       </c>
       <c r="P38" t="n">
-        <v>54.92504177736622</v>
+        <v>54.92504177736621</v>
       </c>
       <c r="Q38" t="n">
-        <v>41.24641896531189</v>
+        <v>41.24641896531188</v>
       </c>
       <c r="R38" t="n">
-        <v>23.99273410730075</v>
+        <v>23.99273410730074</v>
       </c>
       <c r="S38" t="n">
-        <v>8.703710082504381</v>
+        <v>8.703710082504379</v>
       </c>
       <c r="T38" t="n">
         <v>1.671990823309398</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03055608586287876</v>
+        <v>0.03055608586287875</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33965,31 +33965,31 @@
         <v>0.2043618407680625</v>
       </c>
       <c r="H39" t="n">
-        <v>1.973705146365236</v>
+        <v>1.973705146365235</v>
       </c>
       <c r="I39" t="n">
-        <v>7.036142324689874</v>
+        <v>7.036142324689871</v>
       </c>
       <c r="J39" t="n">
         <v>19.30771233326682</v>
       </c>
       <c r="K39" t="n">
-        <v>32.99995566472701</v>
+        <v>32.999955664727</v>
       </c>
       <c r="L39" t="n">
-        <v>44.37251283869709</v>
+        <v>44.37251283869708</v>
       </c>
       <c r="M39" t="n">
-        <v>51.78062956653935</v>
+        <v>51.78062956653933</v>
       </c>
       <c r="N39" t="n">
-        <v>53.1511087530936</v>
+        <v>53.15110875309359</v>
       </c>
       <c r="O39" t="n">
-        <v>48.62288059712758</v>
+        <v>48.62288059712757</v>
       </c>
       <c r="P39" t="n">
-        <v>39.02414834806977</v>
+        <v>39.02414834806976</v>
       </c>
       <c r="Q39" t="n">
         <v>26.08660970927058</v>
@@ -33998,13 +33998,13 @@
         <v>12.68836060488024</v>
       </c>
       <c r="S39" t="n">
-        <v>3.795931559880457</v>
+        <v>3.795931559880456</v>
       </c>
       <c r="T39" t="n">
-        <v>0.8237216301133746</v>
+        <v>0.8237216301133744</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01344485794526728</v>
+        <v>0.01344485794526727</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34047,7 +34047,7 @@
         <v>1.523280364448053</v>
       </c>
       <c r="I40" t="n">
-        <v>5.152363441302819</v>
+        <v>5.152363441302818</v>
       </c>
       <c r="J40" t="n">
         <v>12.11303823549335</v>
@@ -34056,34 +34056,34 @@
         <v>19.90544279922914</v>
       </c>
       <c r="L40" t="n">
-        <v>25.47211357891968</v>
+        <v>25.47211357891967</v>
       </c>
       <c r="M40" t="n">
-        <v>26.85677231511018</v>
+        <v>26.85677231511017</v>
       </c>
       <c r="N40" t="n">
         <v>26.21817829729455</v>
       </c>
       <c r="O40" t="n">
-        <v>24.21673119267722</v>
+        <v>24.21673119267721</v>
       </c>
       <c r="P40" t="n">
-        <v>20.72159710492523</v>
+        <v>20.72159710492522</v>
       </c>
       <c r="Q40" t="n">
-        <v>14.3465597514632</v>
+        <v>14.34655975146319</v>
       </c>
       <c r="R40" t="n">
-        <v>7.703624419795565</v>
+        <v>7.703624419795562</v>
       </c>
       <c r="S40" t="n">
-        <v>2.985816419884371</v>
+        <v>2.98581641988437</v>
       </c>
       <c r="T40" t="n">
-        <v>0.7320468009106178</v>
+        <v>0.7320468009106176</v>
       </c>
       <c r="U40" t="n">
-        <v>0.009345278309497261</v>
+        <v>0.009345278309497258</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.3819510732859845</v>
+        <v>0.3819510732859844</v>
       </c>
       <c r="H41" t="n">
-        <v>3.91165642929009</v>
+        <v>3.911656429290089</v>
       </c>
       <c r="I41" t="n">
         <v>14.72516875285793</v>
       </c>
       <c r="J41" t="n">
-        <v>32.41761990630636</v>
+        <v>32.41761990630635</v>
       </c>
       <c r="K41" t="n">
-        <v>48.5856088385021</v>
+        <v>48.58560883850208</v>
       </c>
       <c r="L41" t="n">
-        <v>60.27474399757806</v>
+        <v>60.27474399757804</v>
       </c>
       <c r="M41" t="n">
-        <v>67.06726639712768</v>
+        <v>67.06726639712765</v>
       </c>
       <c r="N41" t="n">
-        <v>68.1524848841015</v>
+        <v>68.15248488410147</v>
       </c>
       <c r="O41" t="n">
-        <v>64.35445889911398</v>
+        <v>64.35445889911395</v>
       </c>
       <c r="P41" t="n">
-        <v>54.92504177736622</v>
+        <v>54.92504177736621</v>
       </c>
       <c r="Q41" t="n">
-        <v>41.24641896531189</v>
+        <v>41.24641896531188</v>
       </c>
       <c r="R41" t="n">
-        <v>23.99273410730075</v>
+        <v>23.99273410730074</v>
       </c>
       <c r="S41" t="n">
-        <v>8.703710082504381</v>
+        <v>8.703710082504379</v>
       </c>
       <c r="T41" t="n">
         <v>1.671990823309398</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03055608586287876</v>
+        <v>0.03055608586287875</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34202,31 +34202,31 @@
         <v>0.2043618407680625</v>
       </c>
       <c r="H42" t="n">
-        <v>1.973705146365236</v>
+        <v>1.973705146365235</v>
       </c>
       <c r="I42" t="n">
-        <v>7.036142324689874</v>
+        <v>7.036142324689871</v>
       </c>
       <c r="J42" t="n">
         <v>19.30771233326682</v>
       </c>
       <c r="K42" t="n">
-        <v>32.99995566472701</v>
+        <v>32.999955664727</v>
       </c>
       <c r="L42" t="n">
-        <v>44.37251283869709</v>
+        <v>44.37251283869708</v>
       </c>
       <c r="M42" t="n">
-        <v>51.78062956653935</v>
+        <v>51.78062956653933</v>
       </c>
       <c r="N42" t="n">
-        <v>53.1511087530936</v>
+        <v>53.15110875309359</v>
       </c>
       <c r="O42" t="n">
-        <v>48.62288059712758</v>
+        <v>48.62288059712757</v>
       </c>
       <c r="P42" t="n">
-        <v>39.02414834806977</v>
+        <v>39.02414834806976</v>
       </c>
       <c r="Q42" t="n">
         <v>26.08660970927058</v>
@@ -34235,13 +34235,13 @@
         <v>12.68836060488024</v>
       </c>
       <c r="S42" t="n">
-        <v>3.795931559880457</v>
+        <v>3.795931559880456</v>
       </c>
       <c r="T42" t="n">
-        <v>0.8237216301133746</v>
+        <v>0.8237216301133744</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01344485794526728</v>
+        <v>0.01344485794526727</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34284,7 +34284,7 @@
         <v>1.523280364448053</v>
       </c>
       <c r="I43" t="n">
-        <v>5.152363441302819</v>
+        <v>5.152363441302818</v>
       </c>
       <c r="J43" t="n">
         <v>12.11303823549335</v>
@@ -34293,34 +34293,34 @@
         <v>19.90544279922914</v>
       </c>
       <c r="L43" t="n">
-        <v>25.47211357891968</v>
+        <v>25.47211357891967</v>
       </c>
       <c r="M43" t="n">
-        <v>26.85677231511018</v>
+        <v>26.85677231511017</v>
       </c>
       <c r="N43" t="n">
         <v>26.21817829729455</v>
       </c>
       <c r="O43" t="n">
-        <v>24.21673119267722</v>
+        <v>24.21673119267721</v>
       </c>
       <c r="P43" t="n">
-        <v>20.72159710492523</v>
+        <v>20.72159710492522</v>
       </c>
       <c r="Q43" t="n">
-        <v>14.3465597514632</v>
+        <v>14.34655975146319</v>
       </c>
       <c r="R43" t="n">
-        <v>7.703624419795565</v>
+        <v>7.703624419795562</v>
       </c>
       <c r="S43" t="n">
-        <v>2.985816419884371</v>
+        <v>2.98581641988437</v>
       </c>
       <c r="T43" t="n">
-        <v>0.7320468009106178</v>
+        <v>0.7320468009106176</v>
       </c>
       <c r="U43" t="n">
-        <v>0.009345278309497261</v>
+        <v>0.009345278309497258</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3819510732859845</v>
+        <v>0.3819510732859844</v>
       </c>
       <c r="H44" t="n">
-        <v>3.91165642929009</v>
+        <v>3.911656429290089</v>
       </c>
       <c r="I44" t="n">
         <v>14.72516875285793</v>
       </c>
       <c r="J44" t="n">
-        <v>32.41761990630636</v>
+        <v>32.41761990630635</v>
       </c>
       <c r="K44" t="n">
-        <v>48.5856088385021</v>
+        <v>48.58560883850208</v>
       </c>
       <c r="L44" t="n">
-        <v>60.27474399757806</v>
+        <v>60.27474399757804</v>
       </c>
       <c r="M44" t="n">
-        <v>67.06726639712768</v>
+        <v>67.06726639712765</v>
       </c>
       <c r="N44" t="n">
-        <v>68.1524848841015</v>
+        <v>68.15248488410147</v>
       </c>
       <c r="O44" t="n">
-        <v>64.35445889911398</v>
+        <v>64.35445889911395</v>
       </c>
       <c r="P44" t="n">
-        <v>54.92504177736622</v>
+        <v>54.92504177736621</v>
       </c>
       <c r="Q44" t="n">
-        <v>41.24641896531189</v>
+        <v>41.24641896531188</v>
       </c>
       <c r="R44" t="n">
-        <v>23.99273410730075</v>
+        <v>23.99273410730074</v>
       </c>
       <c r="S44" t="n">
-        <v>8.703710082504381</v>
+        <v>8.703710082504379</v>
       </c>
       <c r="T44" t="n">
         <v>1.671990823309398</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03055608586287876</v>
+        <v>0.03055608586287875</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34439,31 +34439,31 @@
         <v>0.2043618407680625</v>
       </c>
       <c r="H45" t="n">
-        <v>1.973705146365236</v>
+        <v>1.973705146365235</v>
       </c>
       <c r="I45" t="n">
-        <v>7.036142324689874</v>
+        <v>7.036142324689871</v>
       </c>
       <c r="J45" t="n">
         <v>19.30771233326682</v>
       </c>
       <c r="K45" t="n">
-        <v>32.99995566472701</v>
+        <v>32.999955664727</v>
       </c>
       <c r="L45" t="n">
-        <v>44.37251283869709</v>
+        <v>44.37251283869708</v>
       </c>
       <c r="M45" t="n">
-        <v>51.78062956653935</v>
+        <v>51.78062956653933</v>
       </c>
       <c r="N45" t="n">
-        <v>53.1511087530936</v>
+        <v>53.15110875309359</v>
       </c>
       <c r="O45" t="n">
-        <v>48.62288059712758</v>
+        <v>48.62288059712757</v>
       </c>
       <c r="P45" t="n">
-        <v>39.02414834806977</v>
+        <v>39.02414834806976</v>
       </c>
       <c r="Q45" t="n">
         <v>26.08660970927058</v>
@@ -34472,13 +34472,13 @@
         <v>12.68836060488024</v>
       </c>
       <c r="S45" t="n">
-        <v>3.795931559880457</v>
+        <v>3.795931559880456</v>
       </c>
       <c r="T45" t="n">
-        <v>0.8237216301133746</v>
+        <v>0.8237216301133744</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01344485794526728</v>
+        <v>0.01344485794526727</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34521,7 +34521,7 @@
         <v>1.523280364448053</v>
       </c>
       <c r="I46" t="n">
-        <v>5.152363441302819</v>
+        <v>5.152363441302818</v>
       </c>
       <c r="J46" t="n">
         <v>12.11303823549335</v>
@@ -34530,34 +34530,34 @@
         <v>19.90544279922914</v>
       </c>
       <c r="L46" t="n">
-        <v>25.47211357891968</v>
+        <v>25.47211357891967</v>
       </c>
       <c r="M46" t="n">
-        <v>26.85677231511018</v>
+        <v>26.85677231511017</v>
       </c>
       <c r="N46" t="n">
         <v>26.21817829729455</v>
       </c>
       <c r="O46" t="n">
-        <v>24.21673119267722</v>
+        <v>24.21673119267721</v>
       </c>
       <c r="P46" t="n">
-        <v>20.72159710492523</v>
+        <v>20.72159710492522</v>
       </c>
       <c r="Q46" t="n">
-        <v>14.3465597514632</v>
+        <v>14.34655975146319</v>
       </c>
       <c r="R46" t="n">
-        <v>7.703624419795565</v>
+        <v>7.703624419795562</v>
       </c>
       <c r="S46" t="n">
-        <v>2.985816419884371</v>
+        <v>2.98581641988437</v>
       </c>
       <c r="T46" t="n">
-        <v>0.7320468009106178</v>
+        <v>0.7320468009106176</v>
       </c>
       <c r="U46" t="n">
-        <v>0.009345278309497261</v>
+        <v>0.009345278309497258</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34708,16 +34708,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>90.41227022968735</v>
+        <v>94.21910266041205</v>
       </c>
       <c r="O2" t="n">
-        <v>94.21910266041101</v>
+        <v>90.41227022968836</v>
       </c>
       <c r="P2" t="n">
-        <v>94.21910266041101</v>
+        <v>94.21910266041205</v>
       </c>
       <c r="Q2" t="n">
-        <v>94.21910266041101</v>
+        <v>94.21910266041205</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34787,16 +34787,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>90.41227022968735</v>
+        <v>90.41227022968836</v>
       </c>
       <c r="O3" t="n">
-        <v>94.21910266041101</v>
+        <v>94.21910266041205</v>
       </c>
       <c r="P3" t="n">
-        <v>94.21910266041101</v>
+        <v>94.21910266041205</v>
       </c>
       <c r="Q3" t="n">
-        <v>94.21910266041101</v>
+        <v>94.21910266041205</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,19 +34857,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>26.80774121136631</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>26.80774121136732</v>
       </c>
       <c r="M4" t="n">
-        <v>94.21910266041101</v>
+        <v>94.21910266041205</v>
       </c>
       <c r="N4" t="n">
-        <v>94.21910266041101</v>
+        <v>94.21910266041205</v>
       </c>
       <c r="O4" t="n">
-        <v>94.21910266041101</v>
+        <v>94.21910266041205</v>
       </c>
       <c r="P4" t="n">
         <v>63.604529018321</v>
@@ -34945,16 +34945,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>90.41227022968735</v>
+        <v>90.41227022968793</v>
       </c>
       <c r="O5" t="n">
-        <v>94.21910266041101</v>
+        <v>94.21910266041159</v>
       </c>
       <c r="P5" t="n">
-        <v>94.21910266041101</v>
+        <v>94.21910266041159</v>
       </c>
       <c r="Q5" t="n">
-        <v>94.21910266041101</v>
+        <v>94.21910266041159</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35024,16 +35024,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>90.41227022968735</v>
+        <v>90.41227022968793</v>
       </c>
       <c r="O6" t="n">
-        <v>94.21910266041101</v>
+        <v>94.21910266041159</v>
       </c>
       <c r="P6" t="n">
-        <v>94.21910266041101</v>
+        <v>94.21910266041159</v>
       </c>
       <c r="Q6" t="n">
-        <v>94.21910266041101</v>
+        <v>94.21910266041159</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,16 +35097,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>26.80774121136631</v>
+        <v>26.8077412113669</v>
       </c>
       <c r="M7" t="n">
-        <v>94.21910266041101</v>
+        <v>94.21910266041159</v>
       </c>
       <c r="N7" t="n">
-        <v>94.21910266041101</v>
+        <v>94.21910266041159</v>
       </c>
       <c r="O7" t="n">
-        <v>94.21910266041101</v>
+        <v>94.21910266041159</v>
       </c>
       <c r="P7" t="n">
         <v>63.604529018321</v>
@@ -35179,10 +35179,10 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>312.7714951200818</v>
+        <v>319.8762849093202</v>
       </c>
       <c r="N8" t="n">
-        <v>319.8762849093192</v>
+        <v>312.771495120085</v>
       </c>
       <c r="O8" t="n">
         <v>308.0854388614484</v>
@@ -35252,19 +35252,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>162.3155996593815</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>319.8762849093192</v>
+        <v>319.8762849093202</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>319.8762849093202</v>
       </c>
       <c r="O9" t="n">
-        <v>319.8762849093192</v>
+        <v>162.3155996593836</v>
       </c>
       <c r="P9" t="n">
         <v>305.147393207775</v>
@@ -35416,7 +35416,7 @@
         <v>411.674110750049</v>
       </c>
       <c r="M11" t="n">
-        <v>464.2785454406509</v>
+        <v>464.2785454406508</v>
       </c>
       <c r="N11" t="n">
         <v>450.3053724474507</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>17.42030366054463</v>
+        <v>17.42030366054469</v>
       </c>
       <c r="L12" t="n">
         <v>413.8895281620462</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.25367603694622</v>
+        <v>41.25367603694628</v>
       </c>
       <c r="K13" t="n">
-        <v>142.4463707851393</v>
+        <v>142.4463707851394</v>
       </c>
       <c r="L13" t="n">
         <v>215.6927301058562</v>
@@ -35577,16 +35577,16 @@
         <v>234.6394360413823</v>
       </c>
       <c r="N13" t="n">
-        <v>234.4340093185147</v>
+        <v>234.4340093185148</v>
       </c>
       <c r="O13" t="n">
-        <v>212.272263977624</v>
+        <v>212.2722639776241</v>
       </c>
       <c r="P13" t="n">
-        <v>172.9234301246681</v>
+        <v>172.9234301246682</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.79189582003721</v>
+        <v>64.79189582003727</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35653,7 +35653,7 @@
         <v>411.674110750049</v>
       </c>
       <c r="M14" t="n">
-        <v>464.2785454406509</v>
+        <v>464.2785454406508</v>
       </c>
       <c r="N14" t="n">
         <v>450.3053724474507</v>
@@ -35726,10 +35726,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>17.42030366054508</v>
+        <v>264.8085946144125</v>
       </c>
       <c r="L15" t="n">
-        <v>413.8895281620462</v>
+        <v>166.5012372081788</v>
       </c>
       <c r="M15" t="n">
         <v>541.7133098798994</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.25367603694622</v>
+        <v>41.25367603694628</v>
       </c>
       <c r="K16" t="n">
-        <v>142.4463707851393</v>
+        <v>142.4463707851394</v>
       </c>
       <c r="L16" t="n">
         <v>215.6927301058562</v>
@@ -35814,16 +35814,16 @@
         <v>234.6394360413823</v>
       </c>
       <c r="N16" t="n">
-        <v>234.4340093185147</v>
+        <v>234.4340093185148</v>
       </c>
       <c r="O16" t="n">
-        <v>212.272263977624</v>
+        <v>212.2722639776241</v>
       </c>
       <c r="P16" t="n">
-        <v>172.9234301246681</v>
+        <v>172.9234301246682</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.79189582003721</v>
+        <v>64.79189582003727</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35890,19 +35890,19 @@
         <v>411.674110750049</v>
       </c>
       <c r="M17" t="n">
-        <v>464.2785454406509</v>
+        <v>464.2785454406508</v>
       </c>
       <c r="N17" t="n">
         <v>450.3053724474507</v>
       </c>
       <c r="O17" t="n">
-        <v>372.4398977605626</v>
+        <v>372.4398977605624</v>
       </c>
       <c r="P17" t="n">
         <v>285.3865533491372</v>
       </c>
       <c r="Q17" t="n">
-        <v>136.6325338001977</v>
+        <v>136.6325338001981</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>80.17048660913161</v>
       </c>
       <c r="K18" t="n">
-        <v>17.42030366054508</v>
+        <v>264.8085946144125</v>
       </c>
       <c r="L18" t="n">
-        <v>413.8895281620462</v>
+        <v>86.33075059904719</v>
       </c>
       <c r="M18" t="n">
         <v>541.7133098798994</v>
@@ -36057,7 +36057,7 @@
         <v>123.6749599762021</v>
       </c>
       <c r="P19" t="n">
-        <v>84.32612612324624</v>
+        <v>84.32612612324623</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36294,7 +36294,7 @@
         <v>123.6749599762021</v>
       </c>
       <c r="P22" t="n">
-        <v>84.32612612324624</v>
+        <v>84.32612612324623</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>411.674110750049</v>
       </c>
       <c r="M23" t="n">
-        <v>464.2785454406509</v>
+        <v>464.2785454406508</v>
       </c>
       <c r="N23" t="n">
         <v>450.3053724474507</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>80.17048660913161</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>17.42030366054514</v>
       </c>
       <c r="L24" t="n">
-        <v>351.1393452134597</v>
+        <v>413.8895281620462</v>
       </c>
       <c r="M24" t="n">
         <v>541.7133098798994</v>
@@ -36531,7 +36531,7 @@
         <v>123.6749599762021</v>
       </c>
       <c r="P25" t="n">
-        <v>84.32612612324624</v>
+        <v>84.32612612324623</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>211.7268040485575</v>
       </c>
       <c r="K26" t="n">
-        <v>397.7350230534567</v>
+        <v>397.7350230534574</v>
       </c>
       <c r="L26" t="n">
-        <v>518.2574925965368</v>
+        <v>518.2574925965371</v>
       </c>
       <c r="M26" t="n">
         <v>570.8619272871388</v>
       </c>
       <c r="N26" t="n">
-        <v>556.8887542939385</v>
+        <v>556.8887542939386</v>
       </c>
       <c r="O26" t="n">
         <v>479.0232796070503</v>
       </c>
       <c r="P26" t="n">
-        <v>391.969935195625</v>
+        <v>391.9699351956251</v>
       </c>
       <c r="Q26" t="n">
         <v>243.2159156466856</v>
       </c>
       <c r="R26" t="n">
-        <v>40.84421231468343</v>
+        <v>40.84421231468345</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>17.42030366054483</v>
+        <v>17.42030366054487</v>
       </c>
       <c r="L27" t="n">
         <v>413.8895281620462</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>37.2874872178203</v>
+        <v>59.23975388201224</v>
       </c>
       <c r="K28" t="n">
-        <v>160.4324486302053</v>
+        <v>138.4801819660129</v>
       </c>
       <c r="L28" t="n">
         <v>233.6788079509222</v>
@@ -36762,7 +36762,7 @@
         <v>252.6255138864483</v>
       </c>
       <c r="N28" t="n">
-        <v>252.4200871635807</v>
+        <v>252.4200871635808</v>
       </c>
       <c r="O28" t="n">
         <v>230.25834182269</v>
@@ -36771,7 +36771,7 @@
         <v>190.9095079697341</v>
       </c>
       <c r="Q28" t="n">
-        <v>82.77797366510322</v>
+        <v>82.77797366510323</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>80.17048660913161</v>
       </c>
       <c r="K30" t="n">
-        <v>17.42030366054482</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>413.8895281620462</v>
+        <v>351.1393452134594</v>
       </c>
       <c r="M30" t="n">
         <v>541.7133098798994</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>37.2874872178196</v>
+        <v>37.2874872178198</v>
       </c>
       <c r="K31" t="n">
         <v>160.4324486302053</v>
@@ -37002,13 +37002,13 @@
         <v>252.4200871635808</v>
       </c>
       <c r="O31" t="n">
-        <v>230.2583418226901</v>
+        <v>230.25834182269</v>
       </c>
       <c r="P31" t="n">
         <v>190.9095079697341</v>
       </c>
       <c r="Q31" t="n">
-        <v>82.77797366510325</v>
+        <v>82.77797366510323</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>411.674110750049</v>
       </c>
       <c r="M32" t="n">
-        <v>464.2785454406509</v>
+        <v>464.2785454406508</v>
       </c>
       <c r="N32" t="n">
         <v>450.3053724474507</v>
@@ -37084,7 +37084,7 @@
         <v>372.4398977605624</v>
       </c>
       <c r="P32" t="n">
-        <v>285.386553349138</v>
+        <v>285.3865533491372</v>
       </c>
       <c r="Q32" t="n">
         <v>136.6325338001977</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>17.42030366054468</v>
       </c>
       <c r="K33" t="n">
-        <v>17.4203036605446</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>413.8895281620462</v>
@@ -37242,7 +37242,7 @@
         <v>123.6749599762021</v>
       </c>
       <c r="P34" t="n">
-        <v>84.32612612324624</v>
+        <v>84.32612612324623</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>105.1434222020696</v>
+        <v>105.14342220207</v>
       </c>
       <c r="K35" t="n">
         <v>291.1516412069695</v>
@@ -37312,7 +37312,7 @@
         <v>411.674110750049</v>
       </c>
       <c r="M35" t="n">
-        <v>464.2785454406509</v>
+        <v>464.2785454406508</v>
       </c>
       <c r="N35" t="n">
         <v>450.3053724474507</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>17.42030366054508</v>
+        <v>17.42030366054514</v>
       </c>
       <c r="L36" t="n">
         <v>413.8895281620462</v>
@@ -37479,7 +37479,7 @@
         <v>123.6749599762021</v>
       </c>
       <c r="P37" t="n">
-        <v>84.32612612324624</v>
+        <v>84.32612612324623</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37546,10 +37546,10 @@
         <v>291.1516412069695</v>
       </c>
       <c r="L38" t="n">
-        <v>411.674110750049</v>
+        <v>411.6741107500494</v>
       </c>
       <c r="M38" t="n">
-        <v>464.2785454406509</v>
+        <v>464.2785454406508</v>
       </c>
       <c r="N38" t="n">
         <v>450.3053724474507</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>17.42030366054514</v>
       </c>
       <c r="K39" t="n">
-        <v>264.8085946144125</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>166.5012372081788</v>
+        <v>413.8895281620462</v>
       </c>
       <c r="M39" t="n">
         <v>541.7133098798994</v>
@@ -37716,7 +37716,7 @@
         <v>123.6749599762021</v>
       </c>
       <c r="P40" t="n">
-        <v>84.32612612324624</v>
+        <v>84.32612612324623</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37786,10 +37786,10 @@
         <v>411.674110750049</v>
       </c>
       <c r="M41" t="n">
-        <v>464.2785454406509</v>
+        <v>464.2785454406508</v>
       </c>
       <c r="N41" t="n">
-        <v>450.3053724474507</v>
+        <v>450.3053724474512</v>
       </c>
       <c r="O41" t="n">
         <v>372.4398977605624</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>17.42030366054514</v>
       </c>
       <c r="K42" t="n">
-        <v>264.8085946144125</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>166.5012372081788</v>
+        <v>413.8895281620462</v>
       </c>
       <c r="M42" t="n">
         <v>541.7133098798994</v>
@@ -37953,7 +37953,7 @@
         <v>123.6749599762021</v>
       </c>
       <c r="P43" t="n">
-        <v>84.32612612324624</v>
+        <v>84.32612612324623</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38023,7 +38023,7 @@
         <v>411.674110750049</v>
       </c>
       <c r="M44" t="n">
-        <v>464.2785454406509</v>
+        <v>464.2785454406508</v>
       </c>
       <c r="N44" t="n">
         <v>450.3053724474507</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>17.42030366054463</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>17.42030366054514</v>
       </c>
       <c r="L45" t="n">
         <v>413.8895281620462</v>
@@ -38190,7 +38190,7 @@
         <v>123.6749599762021</v>
       </c>
       <c r="P46" t="n">
-        <v>84.32612612324624</v>
+        <v>84.32612612324623</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
